--- a/summaries/sampleSummary.xlsx
+++ b/summaries/sampleSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -338,12 +338,18 @@
     <t xml:space="preserve">VSP0181-1b</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0181-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0182-1a</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0182-1b</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0182-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">223</t>
   </si>
   <si>
@@ -428,18 +434,27 @@
     <t xml:space="preserve">VSP0021-1b</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0021-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0022-1a</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0022-2</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0022-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0069-1</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0069-2</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0069-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0187-1</t>
   </si>
   <si>
@@ -452,6 +467,9 @@
     <t xml:space="preserve">VSP0188-2</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0188-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0189-1</t>
   </si>
   <si>
@@ -731,15 +749,33 @@
     <t xml:space="preserve">251</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0089</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0065-1</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0065-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0088-1</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0089-1</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0089-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0318-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/6/20</t>
+  </si>
+  <si>
     <t xml:space="preserve">256</t>
   </si>
   <si>
@@ -830,22 +866,55 @@
     <t xml:space="preserve">266</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/20/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/22/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200522</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0155-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/20/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200520</t>
+    <t xml:space="preserve">VSP0155-2</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0163-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/22/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200522</t>
+    <t xml:space="preserve">VSP0163-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0262-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0263-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0319-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0320-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/20</t>
   </si>
   <si>
     <t xml:space="preserve">269</t>
@@ -941,22 +1010,34 @@
     <t xml:space="preserve">290</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/29/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200701</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0230-1</t>
   </si>
   <si>
-    <t xml:space="preserve">06/29/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200629</t>
+    <t xml:space="preserve">VSP0230-2</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0233-1</t>
   </si>
   <si>
-    <t xml:space="preserve">07/01/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200701</t>
+    <t xml:space="preserve">VSP0233-2</t>
   </si>
   <si>
     <t xml:space="preserve">297</t>
@@ -968,13 +1049,31 @@
     <t xml:space="preserve">300</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/13/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0242-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0243-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0244-1</t>
   </si>
   <si>
-    <t xml:space="preserve">07/13/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200713</t>
+    <t xml:space="preserve">VSP0244-2</t>
   </si>
   <si>
     <t xml:space="preserve">303</t>
@@ -1884,9 +1983,7 @@
       <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G16"/>
       <c r="H16" t="n">
         <v>5</v>
       </c>
@@ -3213,7 +3310,7 @@
         <v>99</v>
       </c>
       <c r="G59" t="n">
-        <v>30.04</v>
+        <v>29.34</v>
       </c>
       <c r="H59" t="n">
         <v>99.9</v>
@@ -3243,7 +3340,7 @@
         <v>102</v>
       </c>
       <c r="G60" t="n">
-        <v>29.87</v>
+        <v>29.88</v>
       </c>
       <c r="H60" t="n">
         <v>99.9</v>
@@ -3325,7 +3422,9 @@
       <c r="C63" t="s">
         <v>17</v>
       </c>
-      <c r="D63"/>
+      <c r="D63" t="n">
+        <v>30200000000</v>
+      </c>
       <c r="E63" t="s">
         <v>57</v>
       </c>
@@ -3355,7 +3454,9 @@
       <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="D64"/>
+      <c r="D64" t="n">
+        <v>30200000000</v>
+      </c>
       <c r="E64" t="s">
         <v>57</v>
       </c>
@@ -3385,24 +3486,26 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65"/>
+      <c r="D65" t="n">
+        <v>151000000000</v>
+      </c>
       <c r="E65" t="s">
         <v>57</v>
       </c>
       <c r="F65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G65" t="n">
-        <v>11.99</v>
+        <v>29.34</v>
       </c>
       <c r="H65" t="n">
-        <v>99.3</v>
+        <v>99.9</v>
       </c>
       <c r="I65" t="n">
-        <v>93.9</v>
+        <v>99.7</v>
       </c>
       <c r="J65" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -3415,7 +3518,9 @@
       <c r="C66" t="s">
         <v>17</v>
       </c>
-      <c r="D66"/>
+      <c r="D66" t="n">
+        <v>26500000000</v>
+      </c>
       <c r="E66" t="s">
         <v>57</v>
       </c>
@@ -3423,13 +3528,13 @@
         <v>102</v>
       </c>
       <c r="G66" t="n">
-        <v>7.58</v>
+        <v>11.99</v>
       </c>
       <c r="H66" t="n">
-        <v>97.8</v>
+        <v>99.3</v>
       </c>
       <c r="I66" t="n">
-        <v>88.9</v>
+        <v>93.9</v>
       </c>
       <c r="J66" t="s">
         <v>103</v>
@@ -3437,73 +3542,77 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
         <v>110</v>
       </c>
-      <c r="B67" t="s">
-        <v>111</v>
-      </c>
       <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67"/>
+        <v>17</v>
+      </c>
+      <c r="D67" t="n">
+        <v>26500000000</v>
+      </c>
       <c r="E67" t="s">
         <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G67" t="n">
-        <v>29.96</v>
+        <v>7.58</v>
       </c>
       <c r="H67" t="n">
-        <v>99.9</v>
+        <v>97.8</v>
       </c>
       <c r="I67" t="n">
-        <v>99.9</v>
+        <v>88.9</v>
       </c>
       <c r="J67" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
-      <c r="D68"/>
+      <c r="D68" t="n">
+        <v>132500000000</v>
+      </c>
       <c r="E68" t="s">
         <v>57</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G68" t="n">
-        <v>5.99</v>
+        <v>20.33</v>
       </c>
       <c r="H68" t="n">
-        <v>98.1</v>
+        <v>99.9</v>
       </c>
       <c r="I68" t="n">
-        <v>89.6</v>
+        <v>99.4</v>
       </c>
       <c r="J68" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
         <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -3513,13 +3622,13 @@
         <v>99</v>
       </c>
       <c r="G69" t="n">
-        <v>7.08</v>
+        <v>29.96</v>
       </c>
       <c r="H69" t="n">
-        <v>97.9</v>
+        <v>99.9</v>
       </c>
       <c r="I69" t="n">
-        <v>89.7</v>
+        <v>99.9</v>
       </c>
       <c r="J69" t="s">
         <v>80</v>
@@ -3527,29 +3636,29 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" t="s">
         <v>114</v>
       </c>
-      <c r="B70" t="s">
-        <v>115</v>
-      </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G70" t="n">
-        <v>4.97</v>
+        <v>5.99</v>
       </c>
       <c r="H70" t="n">
-        <v>97</v>
+        <v>98.1</v>
       </c>
       <c r="I70" t="n">
-        <v>80.2</v>
+        <v>89.6</v>
       </c>
       <c r="J70" t="s">
         <v>80</v>
@@ -3557,31 +3666,29 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
       </c>
-      <c r="D71" t="n">
-        <v>81600</v>
-      </c>
+      <c r="D71"/>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G71" t="n">
-        <v>0.51</v>
+        <v>7.08</v>
       </c>
       <c r="H71" t="n">
-        <v>56.7</v>
+        <v>97.9</v>
       </c>
       <c r="I71" t="n">
-        <v>33.7</v>
+        <v>89.7</v>
       </c>
       <c r="J71" t="s">
         <v>80</v>
@@ -3589,17 +3696,15 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
         <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" t="n">
-        <v>81600</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D72"/>
       <c r="E72" t="s">
         <v>13</v>
       </c>
@@ -3607,13 +3712,13 @@
         <v>79</v>
       </c>
       <c r="G72" t="n">
-        <v>0.51</v>
+        <v>4.97</v>
       </c>
       <c r="H72" t="n">
-        <v>62.6</v>
+        <v>97</v>
       </c>
       <c r="I72" t="n">
-        <v>55.5</v>
+        <v>80.2</v>
       </c>
       <c r="J72" t="s">
         <v>80</v>
@@ -3621,101 +3726,101 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
         <v>118</v>
       </c>
-      <c r="B73" t="s">
-        <v>119</v>
-      </c>
       <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73"/>
+        <v>17</v>
+      </c>
+      <c r="D73" t="n">
+        <v>81600</v>
+      </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G73" t="n">
-        <v>29.98</v>
+        <v>0.51</v>
       </c>
       <c r="H73" t="n">
-        <v>99.8</v>
+        <v>56.7</v>
       </c>
       <c r="I73" t="n">
-        <v>99.8</v>
+        <v>33.7</v>
       </c>
       <c r="J73" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>846</v>
+        <v>81600</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G74" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="H74" t="n">
-        <v>59.6</v>
+        <v>62.6</v>
       </c>
       <c r="I74" t="n">
-        <v>58.3</v>
+        <v>55.5</v>
       </c>
       <c r="J74" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" t="n">
-        <v>846</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D75"/>
       <c r="E75" t="s">
         <v>57</v>
       </c>
       <c r="F75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G75" t="n">
-        <v>0.49</v>
+        <v>29.98</v>
       </c>
       <c r="H75" t="n">
-        <v>64</v>
+        <v>99.8</v>
       </c>
       <c r="I75" t="n">
-        <v>60.9</v>
+        <v>99.8</v>
       </c>
       <c r="J75" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
         <v>124</v>
@@ -3723,89 +3828,93 @@
       <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="D76"/>
+      <c r="D76" t="n">
+        <v>846</v>
+      </c>
       <c r="E76" t="s">
         <v>57</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G76" t="n">
-        <v>29.9</v>
+        <v>0.62</v>
       </c>
       <c r="H76" t="n">
-        <v>99.8</v>
+        <v>59.6</v>
       </c>
       <c r="I76" t="n">
-        <v>99.8</v>
+        <v>58.3</v>
       </c>
       <c r="J76" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
         <v>125</v>
       </c>
-      <c r="B77" t="s">
-        <v>126</v>
-      </c>
       <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77"/>
+        <v>17</v>
+      </c>
+      <c r="D77" t="n">
+        <v>846</v>
+      </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G77" t="n">
-        <v>29.82</v>
+        <v>0.49</v>
       </c>
       <c r="H77" t="n">
-        <v>99.8</v>
+        <v>64</v>
       </c>
       <c r="I77" t="n">
-        <v>99.7</v>
+        <v>60.9</v>
       </c>
       <c r="J77" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
         <v>57</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G78" t="n">
-        <v>1.92</v>
+        <v>29.9</v>
       </c>
       <c r="H78" t="n">
-        <v>78.9</v>
+        <v>99.8</v>
       </c>
       <c r="I78" t="n">
-        <v>38.3</v>
+        <v>99.8</v>
       </c>
       <c r="J78" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
         <v>128</v>
@@ -3815,145 +3924,141 @@
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G79" t="n">
-        <v>10.79</v>
+        <v>29.82</v>
       </c>
       <c r="H79" t="n">
-        <v>98.5</v>
+        <v>99.8</v>
       </c>
       <c r="I79" t="n">
-        <v>98.3</v>
+        <v>99.8</v>
       </c>
       <c r="J79" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80"/>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
+        <v>122</v>
+      </c>
+      <c r="G80" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="H80" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I80" t="n">
+        <v>98.8</v>
+      </c>
       <c r="J80" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H81" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J81" t="s">
         <v>133</v>
-      </c>
-      <c r="G81" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="H81" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J81" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82" t="s">
         <v>136</v>
-      </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2200</v>
-      </c>
-      <c r="E82" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H82" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="I82" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="J82" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
         <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2200</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D83"/>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G83" t="n">
-        <v>0.57</v>
+        <v>29.9</v>
       </c>
       <c r="H83" t="n">
-        <v>63</v>
+        <v>99.8</v>
       </c>
       <c r="I83" t="n">
-        <v>62.1</v>
+        <v>99.8</v>
       </c>
       <c r="J83" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
@@ -3962,30 +4067,30 @@
         <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>268000</v>
+        <v>2200</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G84" t="n">
-        <v>1.75</v>
+        <v>0.52</v>
       </c>
       <c r="H84" t="n">
-        <v>78.3</v>
+        <v>64.8</v>
       </c>
       <c r="I84" t="n">
-        <v>37.7</v>
+        <v>61.9</v>
       </c>
       <c r="J84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
@@ -3994,30 +4099,30 @@
         <v>17</v>
       </c>
       <c r="D85" t="n">
-        <v>1340000</v>
+        <v>2200</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G85" t="n">
-        <v>0.24</v>
+        <v>0.57</v>
       </c>
       <c r="H85" t="n">
-        <v>6.1</v>
+        <v>63</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="J85" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
         <v>140</v>
@@ -4026,30 +4131,30 @@
         <v>17</v>
       </c>
       <c r="D86" t="n">
-        <v>97.5</v>
+        <v>11000</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G86" t="n">
-        <v>6.54</v>
+        <v>29.82</v>
       </c>
       <c r="H86" t="n">
-        <v>92.2</v>
+        <v>99.8</v>
       </c>
       <c r="I86" t="n">
-        <v>88.2</v>
+        <v>99.8</v>
       </c>
       <c r="J86" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
         <v>141</v>
@@ -4058,30 +4163,30 @@
         <v>17</v>
       </c>
       <c r="D87" t="n">
-        <v>97.5</v>
+        <v>268000</v>
       </c>
       <c r="E87" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="F87" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G87" t="n">
-        <v>9.29</v>
+        <v>1.75</v>
       </c>
       <c r="H87" t="n">
-        <v>90.5</v>
+        <v>78.3</v>
       </c>
       <c r="I87" t="n">
-        <v>90</v>
+        <v>37.7</v>
       </c>
       <c r="J87" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
         <v>142</v>
@@ -4090,24 +4195,30 @@
         <v>17</v>
       </c>
       <c r="D88" t="n">
-        <v>60.2</v>
+        <v>1340000</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>133</v>
-      </c>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
+        <v>122</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
       <c r="J88" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
         <v>143</v>
@@ -4115,23 +4226,31 @@
       <c r="C89" t="s">
         <v>17</v>
       </c>
-      <c r="D89"/>
+      <c r="D89" t="n">
+        <v>1340000</v>
+      </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
+        <v>122</v>
+      </c>
+      <c r="G89" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="H89" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>98.8</v>
+      </c>
       <c r="J89" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
         <v>144</v>
@@ -4140,30 +4259,30 @@
         <v>17</v>
       </c>
       <c r="D90" t="n">
-        <v>2040</v>
+        <v>97.5</v>
       </c>
       <c r="E90" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F90" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="H90" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="J90" t="s">
         <v>133</v>
-      </c>
-      <c r="G90" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H90" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="I90" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="J90" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
         <v>145</v>
@@ -4172,30 +4291,30 @@
         <v>17</v>
       </c>
       <c r="D91" t="n">
-        <v>10200</v>
+        <v>97.5</v>
       </c>
       <c r="E91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F91" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" t="n">
+        <v>9.29</v>
+      </c>
+      <c r="H91" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>90</v>
+      </c>
+      <c r="J91" t="s">
         <v>133</v>
-      </c>
-      <c r="G91" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="H91" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
         <v>146</v>
@@ -4204,660 +4323,652 @@
         <v>17</v>
       </c>
       <c r="D92" t="n">
-        <v>85100</v>
+        <v>97.5</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F92" t="s">
+        <v>132</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="H92" t="n">
+        <v>87.1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="J92" t="s">
         <v>133</v>
-      </c>
-      <c r="G92" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="H92" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I92" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J92" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93"/>
+        <v>17</v>
+      </c>
+      <c r="D93" t="n">
+        <v>60.2</v>
+      </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>130</v>
-      </c>
-      <c r="G93" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="H93" t="n">
-        <v>94.1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>92.9</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
       <c r="J93" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
         <v>148</v>
       </c>
-      <c r="B94" t="s">
-        <v>151</v>
-      </c>
       <c r="C94" t="s">
         <v>17</v>
       </c>
       <c r="D94" t="n">
-        <v>147.5</v>
+        <v>301</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="H94" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>47.1</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
       <c r="J94" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="D95" t="n">
-        <v>147.5</v>
+        <v>2040</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G95" t="n">
-        <v>2.03</v>
+        <v>9.6</v>
       </c>
       <c r="H95" t="n">
-        <v>58</v>
+        <v>93.7</v>
       </c>
       <c r="I95" t="n">
-        <v>55.1</v>
+        <v>93.5</v>
       </c>
       <c r="J95" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>147.5</v>
+        <v>10200</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F96" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G96" t="n">
-        <v>2.93</v>
+        <v>22.61</v>
       </c>
       <c r="H96" t="n">
-        <v>73.6</v>
+        <v>99.1</v>
       </c>
       <c r="I96" t="n">
-        <v>71.9</v>
+        <v>99.1</v>
       </c>
       <c r="J96" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" t="n">
-        <v>147.5</v>
+        <v>10200</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G97" t="n">
-        <v>2.97</v>
+        <v>29.87</v>
       </c>
       <c r="H97" t="n">
-        <v>55.5</v>
+        <v>99.8</v>
       </c>
       <c r="I97" t="n">
-        <v>53.5</v>
+        <v>99.8</v>
       </c>
       <c r="J97" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98"/>
+        <v>17</v>
+      </c>
+      <c r="D98" t="n">
+        <v>85100</v>
+      </c>
       <c r="E98" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F98" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>29.82</v>
       </c>
       <c r="H98" t="n">
-        <v>16.7</v>
+        <v>99.8</v>
       </c>
       <c r="I98" t="n">
-        <v>12.2</v>
+        <v>99.8</v>
       </c>
       <c r="J98" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" t="s">
         <v>155</v>
-      </c>
-      <c r="B99" t="s">
-        <v>159</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F99" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G99" t="n">
-        <v>2.47</v>
+        <v>10.31</v>
       </c>
       <c r="H99" t="n">
-        <v>76</v>
+        <v>94.1</v>
       </c>
       <c r="I99" t="n">
-        <v>54.2</v>
+        <v>92.9</v>
       </c>
       <c r="J99" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
       <c r="D100" t="n">
-        <v>443</v>
+        <v>147.5</v>
       </c>
       <c r="E100" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F100" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>2.11</v>
       </c>
       <c r="H100" t="n">
-        <v>16.7</v>
+        <v>58.1</v>
       </c>
       <c r="I100" t="n">
-        <v>12.2</v>
+        <v>47.1</v>
       </c>
       <c r="J100" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>443</v>
+        <v>147.5</v>
       </c>
       <c r="E101" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F101" t="s">
-        <v>157</v>
-      </c>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
+        <v>132</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H101" t="n">
+        <v>58</v>
+      </c>
+      <c r="I101" t="n">
+        <v>55.1</v>
+      </c>
       <c r="J101" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
       </c>
       <c r="D102" t="n">
-        <v>371000</v>
+        <v>147.5</v>
       </c>
       <c r="E102" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F102" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G102" t="n">
-        <v>1.05</v>
+        <v>2.93</v>
       </c>
       <c r="H102" t="n">
-        <v>50.4</v>
+        <v>73.6</v>
       </c>
       <c r="I102" t="n">
-        <v>20.1</v>
+        <v>71.9</v>
       </c>
       <c r="J102" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
       </c>
       <c r="D103" t="n">
-        <v>371000</v>
+        <v>147.5</v>
       </c>
       <c r="E103" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F103" t="s">
-        <v>157</v>
-      </c>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
+        <v>132</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H103" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="I103" t="n">
+        <v>53.5</v>
+      </c>
       <c r="J103" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D104"/>
       <c r="E104" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F104" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G104" t="n">
-        <v>1.96</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
-        <v>55</v>
+        <v>16.7</v>
       </c>
       <c r="I104" t="n">
-        <v>52.1</v>
+        <v>12.2</v>
       </c>
       <c r="J104" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B105" t="s">
         <v>165</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" t="n">
-        <v>176000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D105"/>
       <c r="E105" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="G105" t="n">
-        <v>29.87</v>
+        <v>2.47</v>
       </c>
       <c r="H105" t="n">
-        <v>99.9</v>
+        <v>76</v>
       </c>
       <c r="I105" t="n">
-        <v>99.8</v>
+        <v>54.2</v>
       </c>
       <c r="J105" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" t="s">
         <v>166</v>
       </c>
-      <c r="B106" t="s">
-        <v>167</v>
-      </c>
       <c r="C106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106"/>
+        <v>17</v>
+      </c>
+      <c r="D106" t="n">
+        <v>443</v>
+      </c>
       <c r="E106" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F106" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G106" t="n">
-        <v>29.97</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
-        <v>99.9</v>
+        <v>16.7</v>
       </c>
       <c r="I106" t="n">
-        <v>99.8</v>
+        <v>12.2</v>
       </c>
       <c r="J106" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107"/>
+        <v>17</v>
+      </c>
+      <c r="D107" t="n">
+        <v>443</v>
+      </c>
       <c r="E107" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F107" t="s">
-        <v>157</v>
-      </c>
-      <c r="G107" t="n">
-        <v>29.84</v>
-      </c>
-      <c r="H107" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I107" t="n">
-        <v>99.8</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
       <c r="J107" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108"/>
+        <v>17</v>
+      </c>
+      <c r="D108" t="n">
+        <v>371000</v>
+      </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G108" t="n">
-        <v>24.92</v>
+        <v>1.05</v>
       </c>
       <c r="H108" t="n">
-        <v>99.3</v>
+        <v>50.4</v>
       </c>
       <c r="I108" t="n">
-        <v>98.9</v>
+        <v>20.1</v>
       </c>
       <c r="J108" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109"/>
+        <v>17</v>
+      </c>
+      <c r="D109" t="n">
+        <v>371000</v>
+      </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>170</v>
-      </c>
-      <c r="G109" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="H109" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I109" t="n">
-        <v>99.5</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
       <c r="J109" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
-      <c r="D110" t="n">
-        <v>597</v>
-      </c>
+      <c r="D110"/>
       <c r="E110" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F110" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G110" t="n">
-        <v>28.58</v>
+        <v>1.96</v>
       </c>
       <c r="H110" t="n">
-        <v>99.9</v>
+        <v>55</v>
       </c>
       <c r="I110" t="n">
-        <v>99.8</v>
+        <v>52.1</v>
       </c>
       <c r="J110" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
       </c>
       <c r="D111" t="n">
-        <v>597</v>
+        <v>176000</v>
       </c>
       <c r="E111" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F111" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2</v>
+        <v>29.87</v>
       </c>
       <c r="H111" t="n">
-        <v>12</v>
+        <v>99.9</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="J111" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2985</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D112"/>
       <c r="E112" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F112" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G112" t="n">
-        <v>29.89</v>
+        <v>29.97</v>
       </c>
       <c r="H112" t="n">
         <v>99.9</v>
       </c>
       <c r="I112" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="J112" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" t="n">
-        <v>379000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D113"/>
       <c r="E113" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F113" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G113" t="n">
-        <v>29.81</v>
+        <v>29.84</v>
       </c>
       <c r="H113" t="n">
         <v>99.8</v>
@@ -4866,70 +4977,72 @@
         <v>99.8</v>
       </c>
       <c r="J113" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
+        <v>175</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114" t="s">
+        <v>54</v>
+      </c>
+      <c r="F114" t="s">
+        <v>176</v>
+      </c>
+      <c r="G114" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="H114" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="I114" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="J114" t="s">
         <v>177</v>
-      </c>
-      <c r="C114" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" t="n">
-        <v>379000</v>
-      </c>
-      <c r="E114" t="s">
-        <v>129</v>
-      </c>
-      <c r="F114" t="s">
-        <v>157</v>
-      </c>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
         <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1895000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D115"/>
       <c r="E115" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="F115" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G115" t="n">
-        <v>22.45</v>
+        <v>29.92</v>
       </c>
       <c r="H115" t="n">
-        <v>98.8</v>
+        <v>99.9</v>
       </c>
       <c r="I115" t="n">
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="J115" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
         <v>179</v>
@@ -4938,30 +5051,30 @@
         <v>17</v>
       </c>
       <c r="D116" t="n">
-        <v>154</v>
+        <v>597</v>
       </c>
       <c r="E116" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F116" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G116" t="n">
-        <v>6.66</v>
+        <v>28.58</v>
       </c>
       <c r="H116" t="n">
-        <v>89.3</v>
+        <v>99.9</v>
       </c>
       <c r="I116" t="n">
-        <v>86.2</v>
+        <v>99.8</v>
       </c>
       <c r="J116" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
         <v>180</v>
@@ -4970,24 +5083,30 @@
         <v>17</v>
       </c>
       <c r="D117" t="n">
-        <v>154</v>
+        <v>597</v>
       </c>
       <c r="E117" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F117" t="s">
-        <v>170</v>
-      </c>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
+        <v>163</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H117" t="n">
+        <v>12</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
       <c r="J117" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
         <v>181</v>
@@ -4996,30 +5115,30 @@
         <v>17</v>
       </c>
       <c r="D118" t="n">
-        <v>770</v>
+        <v>2985</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F118" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G118" t="n">
-        <v>11.47</v>
+        <v>29.89</v>
       </c>
       <c r="H118" t="n">
-        <v>95.2</v>
+        <v>99.9</v>
       </c>
       <c r="I118" t="n">
-        <v>94.4</v>
+        <v>99.5</v>
       </c>
       <c r="J118" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
         <v>182</v>
@@ -5028,30 +5147,30 @@
         <v>17</v>
       </c>
       <c r="D119" t="n">
-        <v>412</v>
+        <v>379000</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F119" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>29.81</v>
       </c>
       <c r="H119" t="n">
-        <v>64.3</v>
+        <v>99.8</v>
       </c>
       <c r="I119" t="n">
-        <v>61</v>
+        <v>99.8</v>
       </c>
       <c r="J119" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
         <v>183</v>
@@ -5060,30 +5179,24 @@
         <v>17</v>
       </c>
       <c r="D120" t="n">
-        <v>412</v>
+        <v>379000</v>
       </c>
       <c r="E120" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="H120" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>62.1</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
       <c r="J120" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
         <v>184</v>
@@ -5092,30 +5205,30 @@
         <v>17</v>
       </c>
       <c r="D121" t="n">
-        <v>2060</v>
+        <v>1895000</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F121" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G121" t="n">
-        <v>22.32</v>
+        <v>22.45</v>
       </c>
       <c r="H121" t="n">
-        <v>99.7</v>
+        <v>98.8</v>
       </c>
       <c r="I121" t="n">
-        <v>98.9</v>
+        <v>98.5</v>
       </c>
       <c r="J121" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B122" t="s">
         <v>185</v>
@@ -5123,233 +5236,231 @@
       <c r="C122" t="s">
         <v>17</v>
       </c>
-      <c r="D122"/>
+      <c r="D122" t="n">
+        <v>154</v>
+      </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="F122" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G122" t="n">
-        <v>4.7</v>
+        <v>6.66</v>
       </c>
       <c r="H122" t="n">
-        <v>78.4</v>
+        <v>89.3</v>
       </c>
       <c r="I122" t="n">
-        <v>77</v>
+        <v>86.2</v>
       </c>
       <c r="J122" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123"/>
+        <v>17</v>
+      </c>
+      <c r="D123" t="n">
+        <v>154</v>
+      </c>
       <c r="E123" t="s">
         <v>54</v>
       </c>
       <c r="F123" t="s">
-        <v>170</v>
-      </c>
-      <c r="G123" t="n">
-        <v>29.89</v>
-      </c>
-      <c r="H123" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I123" t="n">
-        <v>99.8</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
       <c r="J123" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
       </c>
       <c r="D124" t="n">
-        <v>493</v>
+        <v>770</v>
       </c>
       <c r="E124" t="s">
         <v>54</v>
       </c>
       <c r="F124" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G124" t="n">
-        <v>0.52</v>
+        <v>11.47</v>
       </c>
       <c r="H124" t="n">
-        <v>63.6</v>
+        <v>95.2</v>
       </c>
       <c r="I124" t="n">
-        <v>60.6</v>
+        <v>94.4</v>
       </c>
       <c r="J124" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" t="s">
         <v>188</v>
       </c>
-      <c r="B125" t="s">
-        <v>191</v>
-      </c>
       <c r="C125" t="s">
         <v>17</v>
       </c>
       <c r="D125" t="n">
-        <v>493</v>
+        <v>412</v>
       </c>
       <c r="E125" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F125" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G125" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
-        <v>66.4</v>
+        <v>64.3</v>
       </c>
       <c r="I125" t="n">
-        <v>62.1</v>
+        <v>61</v>
       </c>
       <c r="J125" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s">
         <v>17</v>
       </c>
       <c r="D126" t="n">
-        <v>2465</v>
+        <v>412</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F126" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G126" t="n">
-        <v>29.89</v>
+        <v>0.56</v>
       </c>
       <c r="H126" t="n">
-        <v>99.8</v>
+        <v>64.2</v>
       </c>
       <c r="I126" t="n">
-        <v>99.8</v>
+        <v>62.1</v>
       </c>
       <c r="J126" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127"/>
+        <v>17</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2060</v>
+      </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F127" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G127" t="n">
-        <v>30.06</v>
+        <v>22.32</v>
       </c>
       <c r="H127" t="n">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="I127" t="n">
-        <v>99.8</v>
+        <v>98.9</v>
       </c>
       <c r="J127" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="F128" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G128" t="n">
-        <v>27.48</v>
+        <v>4.7</v>
       </c>
       <c r="H128" t="n">
-        <v>99.8</v>
+        <v>78.4</v>
       </c>
       <c r="I128" t="n">
-        <v>99.8</v>
+        <v>77</v>
       </c>
       <c r="J128" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12500</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D129"/>
       <c r="E129" t="s">
         <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G129" t="n">
-        <v>29.83</v>
+        <v>29.89</v>
       </c>
       <c r="H129" t="n">
         <v>99.8</v>
@@ -5358,396 +5469,394 @@
         <v>99.8</v>
       </c>
       <c r="J129" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
       </c>
       <c r="D130" t="n">
-        <v>12500</v>
+        <v>493</v>
       </c>
       <c r="E130" t="s">
         <v>54</v>
       </c>
       <c r="F130" t="s">
-        <v>170</v>
-      </c>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
+        <v>176</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H130" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="I130" t="n">
+        <v>60.6</v>
+      </c>
       <c r="J130" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C131" t="s">
         <v>17</v>
       </c>
-      <c r="D131"/>
+      <c r="D131" t="n">
+        <v>493</v>
+      </c>
       <c r="E131" t="s">
         <v>54</v>
       </c>
       <c r="F131" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G131" t="n">
-        <v>30.13</v>
+        <v>0.77</v>
       </c>
       <c r="H131" t="n">
-        <v>99.8</v>
+        <v>66.4</v>
       </c>
       <c r="I131" t="n">
-        <v>99.5</v>
+        <v>62.1</v>
       </c>
       <c r="J131" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C132" t="s">
         <v>17</v>
       </c>
       <c r="D132" t="n">
-        <v>6490</v>
+        <v>2465</v>
       </c>
       <c r="E132" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F132" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G132" t="n">
-        <v>1.12</v>
+        <v>29.89</v>
       </c>
       <c r="H132" t="n">
-        <v>70.2</v>
+        <v>99.8</v>
       </c>
       <c r="I132" t="n">
-        <v>63.2</v>
+        <v>99.8</v>
       </c>
       <c r="J132" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B133" t="s">
         <v>200</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" t="n">
-        <v>6490</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D133"/>
       <c r="E133" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F133" t="s">
-        <v>170</v>
-      </c>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
+        <v>176</v>
+      </c>
+      <c r="G133" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="H133" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I133" t="n">
+        <v>99.8</v>
+      </c>
       <c r="J133" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B134" t="s">
         <v>201</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" t="n">
-        <v>6490</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D134"/>
       <c r="E134" t="s">
         <v>57</v>
       </c>
       <c r="F134" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G134" t="n">
-        <v>1.09</v>
+        <v>27.48</v>
       </c>
       <c r="H134" t="n">
-        <v>81</v>
+        <v>99.8</v>
       </c>
       <c r="I134" t="n">
-        <v>64.7</v>
+        <v>99.8</v>
       </c>
       <c r="J134" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" t="s">
         <v>202</v>
       </c>
-      <c r="B135" t="s">
-        <v>203</v>
-      </c>
       <c r="C135" t="s">
         <v>17</v>
       </c>
       <c r="D135" t="n">
-        <v>364000</v>
+        <v>12500</v>
       </c>
       <c r="E135" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="F135" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G135" t="n">
-        <v>29.45</v>
+        <v>29.83</v>
       </c>
       <c r="H135" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I135" t="n">
         <v>99.8</v>
       </c>
       <c r="J135" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136"/>
+        <v>17</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12500</v>
+      </c>
       <c r="E136" t="s">
         <v>54</v>
       </c>
       <c r="F136" t="s">
-        <v>170</v>
-      </c>
-      <c r="G136" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="H136" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I136" t="n">
-        <v>99.8</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
       <c r="J136" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D137"/>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F137" t="s">
-        <v>186</v>
-      </c>
-      <c r="G137" t="e">
-        <v>#NUM!</v>
+        <v>176</v>
+      </c>
+      <c r="G137" t="n">
+        <v>30.13</v>
       </c>
       <c r="H137" t="n">
-        <v>6.5</v>
+        <v>99.8</v>
       </c>
       <c r="I137" t="n">
-        <v>1.9</v>
+        <v>99.5</v>
       </c>
       <c r="J137" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
       </c>
       <c r="D138" t="n">
-        <v>39500</v>
+        <v>6490</v>
       </c>
       <c r="E138" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F138" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G138" t="n">
-        <v>29.84</v>
+        <v>1.12</v>
       </c>
       <c r="H138" t="n">
-        <v>99.8</v>
+        <v>70.2</v>
       </c>
       <c r="I138" t="n">
-        <v>99.7</v>
+        <v>63.2</v>
       </c>
       <c r="J138" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139" t="s">
         <v>206</v>
       </c>
-      <c r="B139" t="s">
-        <v>210</v>
-      </c>
       <c r="C139" t="s">
         <v>17</v>
       </c>
       <c r="D139" t="n">
-        <v>39500</v>
+        <v>6490</v>
       </c>
       <c r="E139" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F139" t="s">
-        <v>170</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H139" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
       <c r="J139" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
       </c>
       <c r="D140" t="n">
-        <v>197500</v>
+        <v>6490</v>
       </c>
       <c r="E140" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F140" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G140" t="n">
-        <v>16.6</v>
+        <v>1.09</v>
       </c>
       <c r="H140" t="n">
-        <v>99.9</v>
+        <v>81</v>
       </c>
       <c r="I140" t="n">
-        <v>99.7</v>
+        <v>64.7</v>
       </c>
       <c r="J140" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
       </c>
       <c r="D141" t="n">
-        <v>667</v>
+        <v>364000</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F141" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="G141" t="n">
-        <v>29.72</v>
+        <v>29.45</v>
       </c>
       <c r="H141" t="n">
-        <v>99.6</v>
+        <v>99.9</v>
       </c>
       <c r="I141" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="J141" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
         <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" t="n">
-        <v>222000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D142"/>
       <c r="E142" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="F142" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G142" t="n">
-        <v>29.89</v>
+        <v>29.88</v>
       </c>
       <c r="H142" t="n">
         <v>99.9</v>
@@ -5756,337 +5865,335 @@
         <v>99.8</v>
       </c>
       <c r="J142" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s">
         <v>214</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1420000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D143"/>
       <c r="E143" t="s">
         <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>215</v>
-      </c>
-      <c r="G143" t="n">
-        <v>29.31</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G143"/>
       <c r="H143" t="n">
-        <v>99.9</v>
+        <v>6.5</v>
       </c>
       <c r="I143" t="n">
-        <v>99.7</v>
+        <v>1.9</v>
       </c>
       <c r="J143" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
       </c>
       <c r="D144" t="n">
-        <v>8.54</v>
+        <v>39500</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F144" t="s">
-        <v>186</v>
-      </c>
-      <c r="G144" t="e">
-        <v>#NUM!</v>
+        <v>176</v>
+      </c>
+      <c r="G144" t="n">
+        <v>29.84</v>
       </c>
       <c r="H144" t="n">
-        <v>6.5</v>
+        <v>99.8</v>
       </c>
       <c r="I144" t="n">
-        <v>1.9</v>
+        <v>99.7</v>
       </c>
       <c r="J144" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
       </c>
       <c r="D145" t="n">
-        <v>42.7</v>
+        <v>39500</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F145" t="s">
-        <v>186</v>
-      </c>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
+        <v>176</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H145" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
       <c r="J145" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
       </c>
       <c r="D146" t="n">
-        <v>42.7</v>
+        <v>197500</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F146" t="s">
-        <v>186</v>
-      </c>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
+        <v>176</v>
+      </c>
+      <c r="G146" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H146" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I146" t="n">
+        <v>99.7</v>
+      </c>
       <c r="J146" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B147" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
       </c>
       <c r="D147" t="n">
-        <v>42.7</v>
+        <v>667</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F147" t="s">
-        <v>186</v>
-      </c>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147"/>
+        <v>176</v>
+      </c>
+      <c r="G147" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="H147" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="I147" t="n">
+        <v>99.2</v>
+      </c>
       <c r="J147" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B148" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148"/>
+        <v>17</v>
+      </c>
+      <c r="D148" t="n">
+        <v>222000</v>
+      </c>
       <c r="E148" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F148" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G148" t="n">
-        <v>1.74</v>
+        <v>29.89</v>
       </c>
       <c r="H148" t="n">
-        <v>51.9</v>
+        <v>99.9</v>
       </c>
       <c r="I148" t="n">
-        <v>43.5</v>
+        <v>99.8</v>
       </c>
       <c r="J148" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>212</v>
+      </c>
+      <c r="B149" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1420000</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
         <v>221</v>
       </c>
-      <c r="B149" t="s">
-        <v>223</v>
-      </c>
-      <c r="C149" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2820</v>
-      </c>
-      <c r="E149" t="s">
-        <v>129</v>
-      </c>
-      <c r="F149" t="s">
-        <v>215</v>
-      </c>
       <c r="G149" t="n">
-        <v>0.4</v>
+        <v>29.31</v>
       </c>
       <c r="H149" t="n">
-        <v>18.9</v>
+        <v>99.9</v>
       </c>
       <c r="I149" t="n">
-        <v>15.4</v>
+        <v>99.7</v>
       </c>
       <c r="J149" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B150" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C150" t="s">
         <v>17</v>
       </c>
       <c r="D150" t="n">
-        <v>2820</v>
+        <v>8.54</v>
       </c>
       <c r="E150" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F150" t="s">
-        <v>215</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.79</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G150"/>
       <c r="H150" t="n">
-        <v>24</v>
+        <v>6.5</v>
       </c>
       <c r="I150" t="n">
-        <v>20</v>
+        <v>1.9</v>
       </c>
       <c r="J150" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B151" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C151" t="s">
         <v>17</v>
       </c>
       <c r="D151" t="n">
-        <v>2820</v>
+        <v>42.7</v>
       </c>
       <c r="E151" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>215</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H151" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="I151" t="n">
-        <v>15.3</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
       <c r="J151" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B152" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C152" t="s">
         <v>17</v>
       </c>
       <c r="D152" t="n">
-        <v>2820</v>
+        <v>42.7</v>
       </c>
       <c r="E152" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>215</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H152" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="I152" t="n">
-        <v>13.9</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
       <c r="J152" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153"/>
+        <v>17</v>
+      </c>
+      <c r="D153" t="n">
+        <v>42.7</v>
+      </c>
       <c r="E153" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>204</v>
-      </c>
-      <c r="G153" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="H153" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>99</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
       <c r="J153" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154">
@@ -6094,31 +6201,29 @@
         <v>227</v>
       </c>
       <c r="B154" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2190</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D154"/>
       <c r="E154" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F154" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G154" t="n">
-        <v>4.73</v>
+        <v>1.74</v>
       </c>
       <c r="H154" t="n">
-        <v>83.3</v>
+        <v>51.9</v>
       </c>
       <c r="I154" t="n">
-        <v>81.3</v>
+        <v>43.5</v>
       </c>
       <c r="J154" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155">
@@ -6126,31 +6231,31 @@
         <v>227</v>
       </c>
       <c r="B155" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
       </c>
       <c r="D155" t="n">
-        <v>2190</v>
+        <v>2820</v>
       </c>
       <c r="E155" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F155" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G155" t="n">
-        <v>7.49</v>
+        <v>0.4</v>
       </c>
       <c r="H155" t="n">
-        <v>91.5</v>
+        <v>18.9</v>
       </c>
       <c r="I155" t="n">
-        <v>89.8</v>
+        <v>15.4</v>
       </c>
       <c r="J155" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156">
@@ -6158,31 +6263,31 @@
         <v>227</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
       </c>
       <c r="D156" t="n">
-        <v>2190</v>
+        <v>2820</v>
       </c>
       <c r="E156" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F156" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G156" t="n">
-        <v>10.14</v>
+        <v>0.79</v>
       </c>
       <c r="H156" t="n">
-        <v>97.7</v>
+        <v>24</v>
       </c>
       <c r="I156" t="n">
-        <v>96.5</v>
+        <v>20</v>
       </c>
       <c r="J156" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157">
@@ -6190,61 +6295,63 @@
         <v>227</v>
       </c>
       <c r="B157" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
       </c>
       <c r="D157" t="n">
-        <v>2190</v>
+        <v>2820</v>
       </c>
       <c r="E157" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F157" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G157" t="n">
-        <v>10.2</v>
+        <v>1.06</v>
       </c>
       <c r="H157" t="n">
-        <v>90.7</v>
+        <v>18.7</v>
       </c>
       <c r="I157" t="n">
-        <v>90.1</v>
+        <v>15.3</v>
       </c>
       <c r="J157" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B158" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158"/>
+        <v>17</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2820</v>
+      </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F158" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="G158" t="n">
-        <v>5.12</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
-        <v>95.4</v>
+        <v>18.8</v>
       </c>
       <c r="I158" t="n">
-        <v>81.8</v>
+        <v>13.9</v>
       </c>
       <c r="J158" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159">
@@ -6252,31 +6359,29 @@
         <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1730</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D159"/>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F159" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="G159" t="n">
-        <v>3.39</v>
+        <v>21.42</v>
       </c>
       <c r="H159" t="n">
-        <v>87.1</v>
+        <v>99.2</v>
       </c>
       <c r="I159" t="n">
-        <v>72.5</v>
+        <v>99</v>
       </c>
       <c r="J159" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160">
@@ -6284,25 +6389,31 @@
         <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
       </c>
       <c r="D160" t="n">
-        <v>8650</v>
+        <v>2190</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F160" t="s">
-        <v>186</v>
-      </c>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
+        <v>210</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="H160" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="I160" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J160" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161">
@@ -6310,242 +6421,236 @@
         <v>233</v>
       </c>
       <c r="B161" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C161" t="s">
         <v>17</v>
       </c>
       <c r="D161" t="n">
-        <v>8650</v>
+        <v>2190</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F161" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="G161" t="n">
-        <v>1.88</v>
+        <v>7.49</v>
       </c>
       <c r="H161" t="n">
-        <v>73.8</v>
+        <v>91.5</v>
       </c>
       <c r="I161" t="n">
-        <v>29.4</v>
+        <v>89.8</v>
       </c>
       <c r="J161" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B162" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C162" t="s">
         <v>17</v>
       </c>
       <c r="D162" t="n">
-        <v>7550000</v>
+        <v>2190</v>
       </c>
       <c r="E162" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F162" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G162" t="n">
-        <v>29.88</v>
+        <v>10.14</v>
       </c>
       <c r="H162" t="n">
-        <v>99.9</v>
+        <v>97.7</v>
       </c>
       <c r="I162" t="n">
-        <v>99.8</v>
+        <v>96.5</v>
       </c>
       <c r="J162" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>233</v>
+      </c>
+      <c r="B163" t="s">
         <v>238</v>
       </c>
-      <c r="B163" t="s">
-        <v>240</v>
-      </c>
       <c r="C163" t="s">
         <v>17</v>
       </c>
       <c r="D163" t="n">
-        <v>255500</v>
+        <v>2190</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F163" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="G163" t="n">
-        <v>29.87</v>
+        <v>10.2</v>
       </c>
       <c r="H163" t="n">
-        <v>99.8</v>
+        <v>90.7</v>
       </c>
       <c r="I163" t="n">
-        <v>99.8</v>
+        <v>90.1</v>
       </c>
       <c r="J163" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B164" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" t="n">
-        <v>570000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D164"/>
       <c r="E164" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F164" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G164" t="n">
-        <v>29.91</v>
+        <v>5.12</v>
       </c>
       <c r="H164" t="n">
-        <v>99.9</v>
+        <v>95.4</v>
       </c>
       <c r="I164" t="n">
-        <v>99.7</v>
+        <v>81.8</v>
       </c>
       <c r="J164" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165"/>
+        <v>17</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1730</v>
+      </c>
       <c r="E165" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F165" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="G165" t="n">
-        <v>30.07</v>
+        <v>3.39</v>
       </c>
       <c r="H165" t="n">
-        <v>99.9</v>
+        <v>87.1</v>
       </c>
       <c r="I165" t="n">
-        <v>99.9</v>
+        <v>72.5</v>
       </c>
       <c r="J165" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>239</v>
+      </c>
+      <c r="B166" t="s">
         <v>242</v>
       </c>
-      <c r="B166" t="s">
-        <v>246</v>
-      </c>
       <c r="C166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166"/>
+        <v>17</v>
+      </c>
+      <c r="D166" t="n">
+        <v>8650</v>
+      </c>
       <c r="E166" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F166" t="s">
-        <v>247</v>
-      </c>
-      <c r="G166" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H166" t="n">
-        <v>62</v>
-      </c>
-      <c r="I166" t="n">
-        <v>58.1</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
       <c r="J166" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C167" t="s">
         <v>17</v>
       </c>
       <c r="D167" t="n">
-        <v>2760000</v>
+        <v>8650</v>
       </c>
       <c r="E167" t="s">
         <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="G167" t="n">
-        <v>29.82</v>
+        <v>1.88</v>
       </c>
       <c r="H167" t="n">
-        <v>99.7</v>
+        <v>73.8</v>
       </c>
       <c r="I167" t="n">
-        <v>99.7</v>
+        <v>29.4</v>
       </c>
       <c r="J167" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B168" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" t="n">
-        <v>595000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D168"/>
       <c r="E168" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F168" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G168" t="n">
-        <v>29.88</v>
+        <v>29.94</v>
       </c>
       <c r="H168" t="n">
         <v>99.9</v>
@@ -6554,1296 +6659,1302 @@
         <v>99.8</v>
       </c>
       <c r="J168" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" t="n">
-        <v>595000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D169"/>
       <c r="E169" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F169" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="G169" t="n">
-        <v>30.07</v>
+        <v>30</v>
       </c>
       <c r="H169" t="n">
         <v>99.9</v>
       </c>
       <c r="I169" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J169" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B170" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
       </c>
       <c r="D170" t="n">
-        <v>269</v>
+        <v>7550000</v>
       </c>
       <c r="E170" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F170" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G170" t="n">
-        <v>2.67</v>
+        <v>29.88</v>
       </c>
       <c r="H170" t="n">
-        <v>56.6</v>
+        <v>99.9</v>
       </c>
       <c r="I170" t="n">
-        <v>53.6</v>
+        <v>99.8</v>
       </c>
       <c r="J170" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B171" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C171" t="s">
         <v>17</v>
       </c>
       <c r="D171" t="n">
-        <v>1345</v>
+        <v>7550000</v>
       </c>
       <c r="E171" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F171" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G171" t="n">
-        <v>0.46</v>
+        <v>29.85</v>
       </c>
       <c r="H171" t="n">
-        <v>8.9</v>
+        <v>99.8</v>
       </c>
       <c r="I171" t="n">
-        <v>5.5</v>
+        <v>99.3</v>
       </c>
       <c r="J171" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C172" t="s">
         <v>17</v>
       </c>
       <c r="D172" t="n">
-        <v>1345</v>
+        <v>255500</v>
       </c>
       <c r="E172" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F172" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="G172" t="n">
-        <v>0.54</v>
+        <v>29.87</v>
       </c>
       <c r="H172" t="n">
-        <v>10.5</v>
+        <v>99.8</v>
       </c>
       <c r="I172" t="n">
-        <v>7.6</v>
+        <v>99.8</v>
       </c>
       <c r="J172" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B173" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C173" t="s">
         <v>17</v>
       </c>
       <c r="D173" t="n">
-        <v>1345</v>
+        <v>570000</v>
       </c>
       <c r="E173" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F173" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="G173" t="n">
-        <v>0.53</v>
+        <v>29.91</v>
       </c>
       <c r="H173" t="n">
-        <v>10.3</v>
+        <v>99.9</v>
       </c>
       <c r="I173" t="n">
-        <v>6.7</v>
+        <v>99.7</v>
       </c>
       <c r="J173" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B174" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C174" t="s">
         <v>17</v>
       </c>
       <c r="D174" t="n">
-        <v>123000</v>
+        <v>570000</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F174" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="G174" t="n">
-        <v>29.89</v>
+        <v>29.86</v>
       </c>
       <c r="H174" t="n">
-        <v>99.9</v>
+        <v>99.3</v>
       </c>
       <c r="I174" t="n">
-        <v>99.8</v>
+        <v>98.6</v>
       </c>
       <c r="J174" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B175" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C175" t="s">
         <v>17</v>
       </c>
-      <c r="D175" t="n">
-        <v>51800</v>
-      </c>
+      <c r="D175"/>
       <c r="E175" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F175" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G175" t="n">
-        <v>29.93</v>
+        <v>24.79</v>
       </c>
       <c r="H175" t="n">
         <v>99.8</v>
       </c>
       <c r="I175" t="n">
-        <v>99.8</v>
+        <v>99.1</v>
       </c>
       <c r="J175" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D176"/>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F176" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G176" t="n">
-        <v>7.26</v>
+        <v>30.07</v>
       </c>
       <c r="H176" t="n">
-        <v>98.1</v>
+        <v>99.9</v>
       </c>
       <c r="I176" t="n">
-        <v>95</v>
+        <v>99.9</v>
       </c>
       <c r="J176" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B177" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D177"/>
       <c r="E177" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F177" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G177" t="n">
-        <v>29.82</v>
+        <v>2.63</v>
       </c>
       <c r="H177" t="n">
-        <v>99.8</v>
+        <v>62</v>
       </c>
       <c r="I177" t="n">
-        <v>99.7</v>
+        <v>58.1</v>
       </c>
       <c r="J177" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C178" t="s">
         <v>17</v>
       </c>
-      <c r="D178"/>
+      <c r="D178" t="n">
+        <v>2760000</v>
+      </c>
       <c r="E178" t="s">
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G178" t="n">
-        <v>29.86</v>
+        <v>29.82</v>
       </c>
       <c r="H178" t="n">
         <v>99.7</v>
       </c>
       <c r="I178" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="J178" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B179" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C179" t="s">
         <v>17</v>
       </c>
       <c r="D179" t="n">
-        <v>172000</v>
+        <v>595000</v>
       </c>
       <c r="E179" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F179" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G179" t="n">
-        <v>29.85</v>
+        <v>29.88</v>
       </c>
       <c r="H179" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I179" t="n">
         <v>99.8</v>
       </c>
       <c r="J179" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C180" t="s">
         <v>17</v>
       </c>
-      <c r="D180"/>
+      <c r="D180" t="n">
+        <v>595000</v>
+      </c>
       <c r="E180" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F180" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G180" t="n">
-        <v>8.68</v>
+        <v>30.07</v>
       </c>
       <c r="H180" t="n">
-        <v>90.7</v>
+        <v>99.9</v>
       </c>
       <c r="I180" t="n">
-        <v>89.5</v>
+        <v>99.8</v>
       </c>
       <c r="J180" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B181" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C181" t="s">
         <v>17</v>
       </c>
       <c r="D181" t="n">
-        <v>17000</v>
+        <v>269</v>
       </c>
       <c r="E181" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F181" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G181" t="n">
-        <v>21.42</v>
+        <v>2.67</v>
       </c>
       <c r="H181" t="n">
-        <v>99.4</v>
+        <v>56.6</v>
       </c>
       <c r="I181" t="n">
-        <v>98.2</v>
+        <v>53.6</v>
       </c>
       <c r="J181" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C182" t="s">
         <v>17</v>
       </c>
       <c r="D182" t="n">
-        <v>1530000</v>
+        <v>1345</v>
       </c>
       <c r="E182" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F182" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G182" t="n">
-        <v>29.75</v>
+        <v>0.46</v>
       </c>
       <c r="H182" t="n">
-        <v>99.9</v>
+        <v>8.9</v>
       </c>
       <c r="I182" t="n">
-        <v>99.8</v>
+        <v>5.5</v>
       </c>
       <c r="J182" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B183" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183"/>
+        <v>17</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1345</v>
+      </c>
       <c r="E183" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F183" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G183" t="n">
-        <v>3.7</v>
+        <v>0.54</v>
       </c>
       <c r="H183" t="n">
-        <v>89.8</v>
+        <v>10.5</v>
       </c>
       <c r="I183" t="n">
-        <v>72.9</v>
+        <v>7.6</v>
       </c>
       <c r="J183" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B184" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C184" t="s">
         <v>17</v>
       </c>
-      <c r="D184"/>
+      <c r="D184" t="n">
+        <v>1345</v>
+      </c>
       <c r="E184" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F184" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G184" t="n">
-        <v>29.84</v>
+        <v>0.53</v>
       </c>
       <c r="H184" t="n">
-        <v>99.8</v>
+        <v>10.3</v>
       </c>
       <c r="I184" t="n">
-        <v>99.5</v>
+        <v>6.7</v>
       </c>
       <c r="J184" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B185" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C185" t="s">
         <v>17</v>
       </c>
       <c r="D185" t="n">
-        <v>166000</v>
+        <v>123000</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
       </c>
       <c r="F185" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G185" t="n">
-        <v>29.82</v>
+        <v>29.89</v>
       </c>
       <c r="H185" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I185" t="n">
         <v>99.8</v>
       </c>
       <c r="J185" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B186" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C186" t="s">
         <v>17</v>
       </c>
       <c r="D186" t="n">
-        <v>59.7</v>
+        <v>51800</v>
       </c>
       <c r="E186" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F186" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="G186" t="n">
-        <v>1.03</v>
+        <v>29.93</v>
       </c>
       <c r="H186" t="n">
-        <v>72.3</v>
+        <v>99.8</v>
       </c>
       <c r="I186" t="n">
-        <v>17.6</v>
+        <v>99.8</v>
       </c>
       <c r="J186" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B187" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
       </c>
       <c r="D187"/>
       <c r="E187" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>7.26</v>
       </c>
       <c r="H187" t="n">
-        <v>31.4</v>
+        <v>98.1</v>
       </c>
       <c r="I187" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="J187" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B188" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C188" t="s">
         <v>17</v>
       </c>
       <c r="D188"/>
       <c r="E188" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F188" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G188" t="n">
-        <v>1.02</v>
+        <v>29.82</v>
       </c>
       <c r="H188" t="n">
-        <v>40.8</v>
+        <v>99.8</v>
       </c>
       <c r="I188" t="n">
-        <v>35</v>
+        <v>99.7</v>
       </c>
       <c r="J188" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>277</v>
+      </c>
+      <c r="B189" t="s">
         <v>278</v>
-      </c>
-      <c r="B189" t="s">
-        <v>287</v>
       </c>
       <c r="C189" t="s">
         <v>17</v>
       </c>
       <c r="D189"/>
       <c r="E189" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G189" t="n">
-        <v>0.93</v>
+        <v>29.86</v>
       </c>
       <c r="H189" t="n">
-        <v>38.4</v>
+        <v>99.7</v>
       </c>
       <c r="I189" t="n">
-        <v>35.6</v>
+        <v>99.6</v>
       </c>
       <c r="J189" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B190" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C190" t="s">
         <v>17</v>
       </c>
-      <c r="D190"/>
+      <c r="D190" t="n">
+        <v>172000</v>
+      </c>
       <c r="E190" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F190" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="G190" t="n">
-        <v>5.94</v>
+        <v>29.85</v>
       </c>
       <c r="H190" t="n">
-        <v>84.5</v>
+        <v>99.8</v>
       </c>
       <c r="I190" t="n">
-        <v>82</v>
+        <v>99.8</v>
       </c>
       <c r="J190" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B191" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C191" t="s">
         <v>17</v>
       </c>
-      <c r="D191" t="n">
-        <v>16300</v>
-      </c>
+      <c r="D191"/>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F191" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G191" t="n">
-        <v>29.83</v>
+        <v>8.68</v>
       </c>
       <c r="H191" t="n">
-        <v>99.8</v>
+        <v>90.7</v>
       </c>
       <c r="I191" t="n">
-        <v>99.8</v>
+        <v>89.5</v>
       </c>
       <c r="J191" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" t="n">
-        <v>14500</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D192"/>
       <c r="E192" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F192" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G192" t="n">
-        <v>29.41</v>
+        <v>22.33</v>
       </c>
       <c r="H192" t="n">
         <v>99.8</v>
       </c>
       <c r="I192" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="J192" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1530000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D193"/>
       <c r="E193" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F193" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="G193" t="n">
-        <v>25.63</v>
+        <v>29.75</v>
       </c>
       <c r="H193" t="n">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="I193" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="J193" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C194" t="s">
         <v>17</v>
       </c>
       <c r="D194" t="n">
-        <v>14300</v>
+        <v>17000</v>
       </c>
       <c r="E194" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F194" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="G194" t="n">
-        <v>12.5</v>
+        <v>21.42</v>
       </c>
       <c r="H194" t="n">
-        <v>99.1</v>
+        <v>99.4</v>
       </c>
       <c r="I194" t="n">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="J194" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B195" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C195" t="s">
         <v>17</v>
       </c>
-      <c r="D195"/>
+      <c r="D195" t="n">
+        <v>85000</v>
+      </c>
       <c r="E195" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="F195" t="s">
-        <v>300</v>
-      </c>
-      <c r="G195"/>
-      <c r="H195"/>
-      <c r="I195"/>
+        <v>285</v>
+      </c>
+      <c r="G195" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="H195" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I195" t="n">
+        <v>98.6</v>
+      </c>
       <c r="J195" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B196" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C196" t="s">
         <v>17</v>
       </c>
-      <c r="D196"/>
+      <c r="D196" t="n">
+        <v>1530000</v>
+      </c>
       <c r="E196" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F196" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G196" t="n">
-        <v>4.35</v>
+        <v>29.75</v>
       </c>
       <c r="H196" t="n">
-        <v>76.2</v>
+        <v>99.9</v>
       </c>
       <c r="I196" t="n">
-        <v>44.6</v>
+        <v>99.8</v>
       </c>
       <c r="J196" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B197" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C197" t="s">
         <v>17</v>
       </c>
-      <c r="D197"/>
+      <c r="D197" t="n">
+        <v>7650000</v>
+      </c>
       <c r="E197" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="F197" t="s">
-        <v>306</v>
-      </c>
-      <c r="G197" t="e">
-        <v>#NUM!</v>
+        <v>288</v>
+      </c>
+      <c r="G197" t="n">
+        <v>29.84</v>
       </c>
       <c r="H197" t="n">
-        <v>4.2</v>
+        <v>99.9</v>
       </c>
       <c r="I197" t="n">
-        <v>1.1</v>
+        <v>99.8</v>
       </c>
       <c r="J197" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="B198" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C198" t="s">
         <v>17</v>
       </c>
-      <c r="D198" t="n">
-        <v>11750</v>
-      </c>
+      <c r="D198"/>
       <c r="E198" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="F198" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G198" t="n">
-        <v>27.24</v>
+        <v>29.98</v>
       </c>
       <c r="H198" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I198" t="n">
         <v>99.8</v>
       </c>
       <c r="J198" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="B199" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
       </c>
-      <c r="D199" t="n">
-        <v>27900</v>
-      </c>
+      <c r="D199"/>
       <c r="E199" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="F199" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="G199" t="n">
-        <v>29.87</v>
+        <v>29.86</v>
       </c>
       <c r="H199" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I199" t="n">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="J199" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="B200" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C200" t="s">
         <v>17</v>
       </c>
       <c r="D200"/>
       <c r="E200" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="G200" t="n">
-        <v>1.53</v>
+        <v>22.25</v>
       </c>
       <c r="H200" t="n">
-        <v>47.9</v>
+        <v>99.3</v>
       </c>
       <c r="I200" t="n">
-        <v>8.4</v>
+        <v>98.5</v>
       </c>
       <c r="J200" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="B201" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C201" t="s">
         <v>17</v>
       </c>
       <c r="D201"/>
       <c r="E201" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F201" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="G201" t="n">
-        <v>7.46</v>
+        <v>29.86</v>
       </c>
       <c r="H201" t="n">
-        <v>97.9</v>
+        <v>99.8</v>
       </c>
       <c r="I201" t="n">
-        <v>90.2</v>
+        <v>99.8</v>
       </c>
       <c r="J201" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" t="n">
-        <v>37.55</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D202"/>
       <c r="E202" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F202" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
-        <v>8.2</v>
+        <v>89.8</v>
       </c>
       <c r="I202" t="n">
-        <v>4.2</v>
+        <v>72.9</v>
       </c>
       <c r="J202" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B203" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C203" t="s">
         <v>17</v>
       </c>
       <c r="D203"/>
       <c r="E203" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F203" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G203" t="n">
-        <v>8.38</v>
+        <v>29.84</v>
       </c>
       <c r="H203" t="n">
-        <v>88.1</v>
+        <v>99.8</v>
       </c>
       <c r="I203" t="n">
-        <v>83.1</v>
+        <v>99.5</v>
       </c>
       <c r="J203" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B204" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C204" t="s">
         <v>17</v>
       </c>
-      <c r="D204"/>
+      <c r="D204" t="n">
+        <v>166000</v>
+      </c>
       <c r="E204" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F204" t="s">
-        <v>327</v>
-      </c>
-      <c r="G204" t="e">
-        <v>#NUM!</v>
+        <v>303</v>
+      </c>
+      <c r="G204" t="n">
+        <v>29.82</v>
       </c>
       <c r="H204" t="n">
-        <v>6.4</v>
+        <v>99.8</v>
       </c>
       <c r="I204" t="n">
-        <v>3.3</v>
+        <v>99.8</v>
       </c>
       <c r="J204" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B205" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="C205" t="s">
         <v>17</v>
       </c>
-      <c r="D205"/>
+      <c r="D205" t="n">
+        <v>59.7</v>
+      </c>
       <c r="E205" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F205" t="s">
-        <v>327</v>
-      </c>
-      <c r="G205" t="e">
-        <v>#NUM!</v>
+        <v>303</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.03</v>
       </c>
       <c r="H205" t="n">
-        <v>5.5</v>
+        <v>72.3</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>17.6</v>
       </c>
       <c r="J205" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="B206" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
       </c>
-      <c r="D206" t="n">
-        <v>313.5</v>
-      </c>
+      <c r="D206"/>
       <c r="E206" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F206" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="G206" t="n">
-        <v>22.6</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>99.1</v>
+        <v>31.4</v>
       </c>
       <c r="I206" t="n">
-        <v>99.1</v>
+        <v>26</v>
       </c>
       <c r="J206" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B207" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C207" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D207"/>
       <c r="E207" t="s">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="F207" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="G207" t="n">
-        <v>27.21</v>
+        <v>1.02</v>
       </c>
       <c r="H207" t="n">
-        <v>99.9</v>
+        <v>40.8</v>
       </c>
       <c r="I207" t="n">
-        <v>99.8</v>
+        <v>35</v>
       </c>
       <c r="J207" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B208" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C208" t="s">
         <v>17</v>
       </c>
-      <c r="D208" t="n">
-        <v>294000000</v>
-      </c>
+      <c r="D208"/>
       <c r="E208" t="s">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="F208" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="G208" t="n">
-        <v>11.95</v>
+        <v>0.93</v>
       </c>
       <c r="H208" t="n">
-        <v>99.5</v>
+        <v>38.4</v>
       </c>
       <c r="I208" t="n">
-        <v>96.5</v>
+        <v>35.6</v>
       </c>
       <c r="J208" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B209" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
       </c>
-      <c r="D209" t="n">
-        <v>294000000</v>
-      </c>
+      <c r="D209"/>
       <c r="E209" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="F209" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="G209" t="n">
-        <v>22.89</v>
+        <v>5.94</v>
       </c>
       <c r="H209" t="n">
-        <v>99.1</v>
+        <v>84.5</v>
       </c>
       <c r="I209" t="n">
-        <v>98.2</v>
+        <v>82</v>
       </c>
       <c r="J209" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210"/>
+        <v>17</v>
+      </c>
+      <c r="D210" t="n">
+        <v>16300</v>
+      </c>
       <c r="E210" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="F210" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="G210" t="n">
-        <v>30.02</v>
+        <v>29.83</v>
       </c>
       <c r="H210" t="n">
         <v>99.8</v>
@@ -7852,193 +7963,1003 @@
         <v>99.8</v>
       </c>
       <c r="J210" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B211" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C211" t="s">
         <v>17</v>
       </c>
       <c r="D211" t="n">
-        <v>92000000</v>
+        <v>14500</v>
       </c>
       <c r="E211" t="s">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="F211" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="G211" t="n">
-        <v>7.34</v>
+        <v>29.41</v>
       </c>
       <c r="H211" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I211" t="n">
-        <v>94.4</v>
+        <v>99.8</v>
       </c>
       <c r="J211" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B212" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="C212" t="s">
         <v>17</v>
       </c>
       <c r="D212" t="n">
-        <v>92000000</v>
+        <v>1530000</v>
       </c>
       <c r="E212" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="F212" t="s">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="G212" t="n">
-        <v>11.15</v>
+        <v>25.63</v>
       </c>
       <c r="H212" t="n">
-        <v>98.5</v>
+        <v>99.7</v>
       </c>
       <c r="I212" t="n">
-        <v>90.5</v>
+        <v>98.7</v>
       </c>
       <c r="J212" t="s">
-        <v>339</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B213" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
       </c>
       <c r="D213" t="n">
-        <v>92000000</v>
+        <v>14300</v>
       </c>
       <c r="E213" t="s">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="F213" t="s">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="G213" t="n">
-        <v>1.67</v>
+        <v>12.5</v>
       </c>
       <c r="H213" t="n">
-        <v>87.7</v>
+        <v>99.1</v>
       </c>
       <c r="I213" t="n">
-        <v>67.3</v>
+        <v>97.7</v>
       </c>
       <c r="J213" t="s">
-        <v>339</v>
+        <v>136</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="C214" t="s">
         <v>17</v>
       </c>
-      <c r="D214" t="n">
-        <v>92000000</v>
-      </c>
+      <c r="D214"/>
       <c r="E214" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F214" t="s">
-        <v>338</v>
-      </c>
-      <c r="G214" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="H214" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="I214" t="n">
-        <v>70.5</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
       <c r="J214" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B215" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C215" t="s">
         <v>17</v>
       </c>
-      <c r="D215" t="n">
-        <v>92000000</v>
-      </c>
+      <c r="D215"/>
       <c r="E215" t="s">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="F215" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="G215" t="n">
-        <v>29.82</v>
+        <v>4.35</v>
       </c>
       <c r="H215" t="n">
-        <v>99.8</v>
+        <v>76.2</v>
       </c>
       <c r="I215" t="n">
-        <v>98.3</v>
+        <v>44.6</v>
       </c>
       <c r="J215" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
+        <v>327</v>
+      </c>
+      <c r="B216" t="s">
+        <v>328</v>
+      </c>
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216" t="s">
+        <v>322</v>
+      </c>
+      <c r="F216" t="s">
+        <v>329</v>
+      </c>
+      <c r="G216"/>
+      <c r="H216" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>331</v>
+      </c>
+      <c r="B217" t="s">
+        <v>332</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217" t="s">
+        <v>131</v>
+      </c>
+      <c r="F217" t="s">
+        <v>333</v>
+      </c>
+      <c r="G217" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H217" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I217" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J217" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>331</v>
+      </c>
+      <c r="B218" t="s">
+        <v>335</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218"/>
+      <c r="E218" t="s">
+        <v>131</v>
+      </c>
+      <c r="F218" t="s">
+        <v>336</v>
+      </c>
+      <c r="G218" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="H218" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I218" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J218" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>331</v>
+      </c>
+      <c r="B219" t="s">
+        <v>338</v>
+      </c>
+      <c r="C219" t="s">
+        <v>17</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11750</v>
+      </c>
+      <c r="E219" t="s">
+        <v>131</v>
+      </c>
+      <c r="F219" t="s">
+        <v>333</v>
+      </c>
+      <c r="G219" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="H219" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I219" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J219" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>331</v>
+      </c>
+      <c r="B220" t="s">
+        <v>339</v>
+      </c>
+      <c r="C220" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220" t="n">
+        <v>11750</v>
+      </c>
+      <c r="E220" t="s">
+        <v>131</v>
+      </c>
+      <c r="F220" t="s">
+        <v>333</v>
+      </c>
+      <c r="G220" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H220" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I220" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J220" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>331</v>
+      </c>
+      <c r="B221" t="s">
+        <v>340</v>
+      </c>
+      <c r="C221" t="s">
+        <v>17</v>
+      </c>
+      <c r="D221" t="n">
+        <v>27900</v>
+      </c>
+      <c r="E221" t="s">
+        <v>131</v>
+      </c>
+      <c r="F221" t="s">
+        <v>336</v>
+      </c>
+      <c r="G221" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="H221" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I221" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J221" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>331</v>
+      </c>
+      <c r="B222" t="s">
+        <v>341</v>
+      </c>
+      <c r="C222" t="s">
+        <v>17</v>
+      </c>
+      <c r="D222" t="n">
+        <v>27900</v>
+      </c>
+      <c r="E222" t="s">
+        <v>131</v>
+      </c>
+      <c r="F222" t="s">
+        <v>336</v>
+      </c>
+      <c r="G222" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="H222" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I222" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J222" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
         <v>342</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B223" t="s">
+        <v>343</v>
+      </c>
+      <c r="C223" t="s">
+        <v>17</v>
+      </c>
+      <c r="D223"/>
+      <c r="E223" t="s">
+        <v>36</v>
+      </c>
+      <c r="F223" t="s">
+        <v>37</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H223" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="I223" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J223" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>344</v>
+      </c>
+      <c r="B224" t="s">
+        <v>345</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224"/>
+      <c r="E224" t="s">
+        <v>131</v>
+      </c>
+      <c r="F224" t="s">
+        <v>346</v>
+      </c>
+      <c r="G224" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="H224" t="n">
+        <v>98</v>
+      </c>
+      <c r="I224" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="J224" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>344</v>
+      </c>
+      <c r="B225" t="s">
+        <v>348</v>
+      </c>
+      <c r="C225" t="s">
+        <v>17</v>
+      </c>
+      <c r="D225"/>
+      <c r="E225" t="s">
+        <v>131</v>
+      </c>
+      <c r="F225" t="s">
         <v>349</v>
       </c>
-      <c r="C216" t="s">
-        <v>17</v>
-      </c>
-      <c r="D216" t="n">
+      <c r="G225"/>
+      <c r="H225" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J225" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>344</v>
+      </c>
+      <c r="B226" t="s">
+        <v>351</v>
+      </c>
+      <c r="C226" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226"/>
+      <c r="E226" t="s">
+        <v>153</v>
+      </c>
+      <c r="F226" t="s">
+        <v>349</v>
+      </c>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>344</v>
+      </c>
+      <c r="B227" t="s">
+        <v>352</v>
+      </c>
+      <c r="C227" t="s">
+        <v>17</v>
+      </c>
+      <c r="D227"/>
+      <c r="E227" t="s">
+        <v>131</v>
+      </c>
+      <c r="F227" t="s">
+        <v>346</v>
+      </c>
+      <c r="G227" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="H227" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="I227" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>344</v>
+      </c>
+      <c r="B228" t="s">
+        <v>353</v>
+      </c>
+      <c r="C228" t="s">
+        <v>17</v>
+      </c>
+      <c r="D228"/>
+      <c r="E228" t="s">
+        <v>131</v>
+      </c>
+      <c r="F228" t="s">
+        <v>346</v>
+      </c>
+      <c r="G228"/>
+      <c r="H228" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J228" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>354</v>
+      </c>
+      <c r="B229" t="s">
+        <v>355</v>
+      </c>
+      <c r="C229" t="s">
+        <v>17</v>
+      </c>
+      <c r="D229" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="E229" t="s">
+        <v>131</v>
+      </c>
+      <c r="F229" t="s">
+        <v>346</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H229" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="I229" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J229" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>356</v>
+      </c>
+      <c r="B230" t="s">
+        <v>357</v>
+      </c>
+      <c r="C230" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230"/>
+      <c r="E230" t="s">
+        <v>131</v>
+      </c>
+      <c r="F230" t="s">
+        <v>346</v>
+      </c>
+      <c r="G230" t="n">
+        <v>8.38</v>
+      </c>
+      <c r="H230" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>358</v>
+      </c>
+      <c r="B231" t="s">
+        <v>359</v>
+      </c>
+      <c r="C231" t="s">
+        <v>17</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231" t="s">
+        <v>131</v>
+      </c>
+      <c r="F231" t="s">
+        <v>360</v>
+      </c>
+      <c r="G231"/>
+      <c r="H231" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I231" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J231" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>362</v>
+      </c>
+      <c r="B232" t="s">
+        <v>363</v>
+      </c>
+      <c r="C232" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232"/>
+      <c r="E232" t="s">
+        <v>131</v>
+      </c>
+      <c r="F232" t="s">
+        <v>360</v>
+      </c>
+      <c r="G232"/>
+      <c r="H232" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3</v>
+      </c>
+      <c r="J232" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>364</v>
+      </c>
+      <c r="B233" t="s">
+        <v>365</v>
+      </c>
+      <c r="C233" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="E233" t="s">
+        <v>131</v>
+      </c>
+      <c r="F233" t="s">
+        <v>366</v>
+      </c>
+      <c r="G233" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="H233" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>368</v>
+      </c>
+      <c r="B234" t="s">
+        <v>369</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234"/>
+      <c r="E234" t="s">
+        <v>370</v>
+      </c>
+      <c r="F234" t="s">
+        <v>371</v>
+      </c>
+      <c r="G234" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="H234" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I234" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J234" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>368</v>
+      </c>
+      <c r="B235" t="s">
+        <v>373</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" t="n">
+        <v>294000000</v>
+      </c>
+      <c r="E235" t="s">
+        <v>370</v>
+      </c>
+      <c r="F235" t="s">
+        <v>371</v>
+      </c>
+      <c r="G235" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="H235" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I235" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="J235" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>368</v>
+      </c>
+      <c r="B236" t="s">
+        <v>374</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" t="n">
+        <v>294000000</v>
+      </c>
+      <c r="E236" t="s">
+        <v>370</v>
+      </c>
+      <c r="F236" t="s">
+        <v>371</v>
+      </c>
+      <c r="G236" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="H236" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>375</v>
+      </c>
+      <c r="B237" t="s">
+        <v>376</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237"/>
+      <c r="E237" t="s">
+        <v>370</v>
+      </c>
+      <c r="F237" t="s">
+        <v>371</v>
+      </c>
+      <c r="G237" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="H237" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I237" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J237" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>375</v>
+      </c>
+      <c r="B238" t="s">
+        <v>377</v>
+      </c>
+      <c r="C238" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" t="n">
         <v>92000000</v>
       </c>
-      <c r="E216" t="s">
-        <v>337</v>
-      </c>
-      <c r="F216" t="s">
-        <v>338</v>
-      </c>
-      <c r="G216"/>
-      <c r="H216"/>
-      <c r="I216"/>
-      <c r="J216" t="s">
-        <v>339</v>
+      <c r="E238" t="s">
+        <v>370</v>
+      </c>
+      <c r="F238" t="s">
+        <v>371</v>
+      </c>
+      <c r="G238" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="H238" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I238" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="J238" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>375</v>
+      </c>
+      <c r="B239" t="s">
+        <v>378</v>
+      </c>
+      <c r="C239" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" t="n">
+        <v>92000000</v>
+      </c>
+      <c r="E239" t="s">
+        <v>370</v>
+      </c>
+      <c r="F239" t="s">
+        <v>371</v>
+      </c>
+      <c r="G239" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="H239" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="I239" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="J239" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>375</v>
+      </c>
+      <c r="B240" t="s">
+        <v>379</v>
+      </c>
+      <c r="C240" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" t="n">
+        <v>92000000</v>
+      </c>
+      <c r="E240" t="s">
+        <v>370</v>
+      </c>
+      <c r="F240" t="s">
+        <v>371</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H240" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="I240" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="J240" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>375</v>
+      </c>
+      <c r="B241" t="s">
+        <v>380</v>
+      </c>
+      <c r="C241" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" t="n">
+        <v>92000000</v>
+      </c>
+      <c r="E241" t="s">
+        <v>370</v>
+      </c>
+      <c r="F241" t="s">
+        <v>371</v>
+      </c>
+      <c r="G241" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="H241" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="I241" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="J241" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>375</v>
+      </c>
+      <c r="B242" t="s">
+        <v>381</v>
+      </c>
+      <c r="C242" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" t="n">
+        <v>92000000</v>
+      </c>
+      <c r="E242" t="s">
+        <v>370</v>
+      </c>
+      <c r="F242" t="s">
+        <v>371</v>
+      </c>
+      <c r="G242" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H242" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I242" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J242" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>375</v>
+      </c>
+      <c r="B243" t="s">
+        <v>382</v>
+      </c>
+      <c r="C243" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" t="n">
+        <v>92000000</v>
+      </c>
+      <c r="E243" t="s">
+        <v>370</v>
+      </c>
+      <c r="F243" t="s">
+        <v>371</v>
+      </c>
+      <c r="G243"/>
+      <c r="H243"/>
+      <c r="I243"/>
+      <c r="J243" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/sampleSummary.xlsx
+++ b/summaries/sampleSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">ETA</t>
   </si>
   <si>
-    <t xml:space="preserve">4/8/2020</t>
+    <t xml:space="preserve">04/08/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200408</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">VSP0009</t>
   </si>
   <si>
-    <t xml:space="preserve">3/30/2020</t>
+    <t xml:space="preserve">03/30/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200330</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">VSP0013</t>
   </si>
   <si>
-    <t xml:space="preserve">4/13/2020</t>
+    <t xml:space="preserve">04/13/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200413</t>
@@ -179,18 +179,12 @@
     <t xml:space="preserve">NP</t>
   </si>
   <si>
-    <t xml:space="preserve">04/08/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0185</t>
   </si>
   <si>
     <t xml:space="preserve">OP</t>
   </si>
   <si>
-    <t xml:space="preserve">04/13/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0186</t>
   </si>
   <si>
@@ -227,7 +221,7 @@
     <t xml:space="preserve">VSP0014</t>
   </si>
   <si>
-    <t xml:space="preserve">4/15/2020</t>
+    <t xml:space="preserve">04/15/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200415</t>
@@ -251,7 +245,7 @@
     <t xml:space="preserve">VSP0016</t>
   </si>
   <si>
-    <t xml:space="preserve">4/17/2020</t>
+    <t xml:space="preserve">04/17/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200417</t>
@@ -311,9 +305,6 @@
     <t xml:space="preserve">VSP0180</t>
   </si>
   <si>
-    <t xml:space="preserve">04/17/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0181</t>
   </si>
   <si>
@@ -380,7 +371,7 @@
     <t xml:space="preserve">VSP0020</t>
   </si>
   <si>
-    <t xml:space="preserve">4/22/2020</t>
+    <t xml:space="preserve">04/22/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200422</t>
@@ -503,7 +494,7 @@
     <t xml:space="preserve">VSP0029</t>
   </si>
   <si>
-    <t xml:space="preserve">4/27/2020</t>
+    <t xml:space="preserve">04/27/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200427</t>
@@ -542,7 +533,7 @@
     <t xml:space="preserve">VSP0037</t>
   </si>
   <si>
-    <t xml:space="preserve">4/29/2020</t>
+    <t xml:space="preserve">04/29/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200429</t>
@@ -773,9 +764,6 @@
     <t xml:space="preserve">VSP0318-1</t>
   </si>
   <si>
-    <t xml:space="preserve">5/6/20</t>
-  </si>
-  <si>
     <t xml:space="preserve">256</t>
   </si>
   <si>
@@ -899,12 +887,6 @@
     <t xml:space="preserve">VSP0262-1</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/20</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0263-1</t>
   </si>
   <si>
@@ -914,9 +896,6 @@
     <t xml:space="preserve">VSP0320-1</t>
   </si>
   <si>
-    <t xml:space="preserve">5/22/20</t>
-  </si>
-  <si>
     <t xml:space="preserve">269</t>
   </si>
   <si>
@@ -983,7 +962,7 @@
     <t xml:space="preserve">Stool</t>
   </si>
   <si>
-    <t xml:space="preserve">6//17/20</t>
+    <t xml:space="preserve">06/17/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200617</t>
@@ -1001,7 +980,7 @@
     <t xml:space="preserve">VSP0261-1</t>
   </si>
   <si>
-    <t xml:space="preserve">6/26/20</t>
+    <t xml:space="preserve">06/26/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200626</t>
@@ -1112,7 +1091,7 @@
     <t xml:space="preserve">VSP0256-1</t>
   </si>
   <si>
-    <t xml:space="preserve">07/17/20</t>
+    <t xml:space="preserve">07/17/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200717</t>
@@ -1127,7 +1106,7 @@
     <t xml:space="preserve">Vero cells</t>
   </si>
   <si>
-    <t xml:space="preserve">3/28/2020</t>
+    <t xml:space="preserve">03/28/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200328</t>
@@ -1139,6 +1118,15 @@
     <t xml:space="preserve">VSP0001-1b</t>
   </si>
   <si>
+    <t xml:space="preserve">CRD4J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9993-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterControl</t>
+  </si>
+  <si>
     <t xml:space="preserve">E6</t>
   </si>
   <si>
@@ -1161,6 +1149,162 @@
   </si>
   <si>
     <t xml:space="preserve">VSP0002-3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2J3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9997-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/25/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J327N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9998-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/05/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37GK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9991-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/13/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9986-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20_PCR-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9987-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O_RT-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9988-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20_PCR-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9989-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O_RT-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9981-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/09/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3NJJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9992-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/18/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9982-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9983-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9984-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MockR-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9985-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MockR-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J77FG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9994-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/03/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J77FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9995-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J78FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9996-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/20/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB8CJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9999-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/24/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200824</t>
   </si>
 </sst>
 </file>
@@ -1545,10 +1689,10 @@
         <v>1.04</v>
       </c>
       <c r="H2" t="n">
-        <v>56.9</v>
+        <v>57.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -1644,7 +1788,7 @@
         <v>42.5</v>
       </c>
       <c r="I5" t="n">
-        <v>8.8</v>
+        <v>8.7</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -1985,10 +2129,10 @@
       </c>
       <c r="G16"/>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="s">
         <v>38</v>
@@ -2285,7 +2429,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
         <v>29.86</v>
@@ -2305,17 +2449,17 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
         <v>29.88</v>
@@ -2335,17 +2479,17 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
         <v>29.8</v>
@@ -2365,7 +2509,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -2397,7 +2541,7 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -2429,7 +2573,7 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -2439,7 +2583,7 @@
         <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
         <v>6.17</v>
@@ -2459,7 +2603,7 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2469,7 +2613,7 @@
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
         <v>4.78</v>
@@ -2489,17 +2633,17 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G33" t="n">
         <v>5.32</v>
@@ -2519,17 +2663,17 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G34" t="n">
         <v>18.45</v>
@@ -2549,17 +2693,17 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G35" t="n">
         <v>4.83</v>
@@ -2579,17 +2723,17 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G36" t="n">
         <v>7.96</v>
@@ -2606,10 +2750,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2619,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>29.86</v>
@@ -2631,15 +2775,15 @@
         <v>99.7</v>
       </c>
       <c r="J37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2651,7 +2795,7 @@
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" t="n">
         <v>0.97</v>
@@ -2663,15 +2807,15 @@
         <v>62</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -2683,7 +2827,7 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G39" t="n">
         <v>0.48</v>
@@ -2695,15 +2839,15 @@
         <v>61.4</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -2715,7 +2859,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G40" t="n">
         <v>0.54</v>
@@ -2727,15 +2871,15 @@
         <v>61.4</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2745,7 +2889,7 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G41" t="n">
         <v>2.58</v>
@@ -2757,15 +2901,15 @@
         <v>52.6</v>
       </c>
       <c r="J41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
         <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2775,27 +2919,27 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G42" t="n">
         <v>1.57</v>
       </c>
       <c r="H42" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="I42" t="n">
         <v>44.8</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -2807,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43" t="n">
         <v>1.05</v>
@@ -2819,15 +2963,15 @@
         <v>18.8</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -2839,10 +2983,10 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G44" t="n">
-        <v>0.56</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>25.4</v>
@@ -2851,15 +2995,15 @@
         <v>18.6</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -2871,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G45" t="n">
         <v>1.3</v>
@@ -2883,15 +3027,15 @@
         <v>34.4</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -2903,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G46" t="n">
         <v>0.74</v>
@@ -2915,15 +3059,15 @@
         <v>13.2</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -2935,7 +3079,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G47" t="n">
         <v>1.14</v>
@@ -2947,15 +3091,15 @@
         <v>15.5</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -2967,7 +3111,7 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G48" t="n">
         <v>0.99</v>
@@ -2979,15 +3123,15 @@
         <v>31.5</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2997,7 +3141,7 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G49" t="n">
         <v>7.66</v>
@@ -3009,15 +3153,15 @@
         <v>92</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
         <v>87</v>
-      </c>
-      <c r="B50" t="s">
-        <v>89</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -3029,7 +3173,7 @@
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G50" t="n">
         <v>0.47</v>
@@ -3041,15 +3185,15 @@
         <v>11.1</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -3061,7 +3205,7 @@
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G51" t="n">
         <v>0.4</v>
@@ -3073,15 +3217,15 @@
         <v>20.4</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -3093,7 +3237,7 @@
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G52" t="n">
         <v>1.23</v>
@@ -3105,15 +3249,15 @@
         <v>42.8</v>
       </c>
       <c r="J52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -3125,21 +3269,21 @@
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -3151,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G54" t="n">
         <v>1.53</v>
@@ -3163,15 +3307,15 @@
         <v>40.2</v>
       </c>
       <c r="J54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -3183,27 +3327,27 @@
         <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G55" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="H55" t="n">
         <v>49.1</v>
       </c>
       <c r="I55" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="J55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -3215,7 +3359,7 @@
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G56" t="n">
         <v>1.69</v>
@@ -3227,15 +3371,15 @@
         <v>38.4</v>
       </c>
       <c r="J56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -3247,7 +3391,7 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G57" t="n">
         <v>3.4</v>
@@ -3259,15 +3403,15 @@
         <v>61.6</v>
       </c>
       <c r="J57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -3277,7 +3421,7 @@
         <v>54</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G58" t="n">
         <v>29.87</v>
@@ -3289,25 +3433,25 @@
         <v>99.7</v>
       </c>
       <c r="J58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
         <v>97</v>
-      </c>
-      <c r="B59" t="s">
-        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G59" t="n">
         <v>29.34</v>
@@ -3319,25 +3463,25 @@
         <v>99.9</v>
       </c>
       <c r="J59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G60" t="n">
         <v>29.88</v>
@@ -3349,15 +3493,15 @@
         <v>99.9</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -3367,7 +3511,7 @@
         <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G61" t="n">
         <v>4.79</v>
@@ -3379,15 +3523,15 @@
         <v>85.5</v>
       </c>
       <c r="J61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -3397,7 +3541,7 @@
         <v>54</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G62" t="n">
         <v>7.66</v>
@@ -3409,15 +3553,15 @@
         <v>90.1</v>
       </c>
       <c r="J62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -3426,10 +3570,10 @@
         <v>30200000000</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G63" t="n">
         <v>16.59</v>
@@ -3441,15 +3585,15 @@
         <v>92.8</v>
       </c>
       <c r="J63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -3458,10 +3602,10 @@
         <v>30200000000</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G64" t="n">
         <v>19.45</v>
@@ -3473,15 +3617,15 @@
         <v>97</v>
       </c>
       <c r="J64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -3490,10 +3634,10 @@
         <v>151000000000</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G65" t="n">
         <v>29.34</v>
@@ -3505,15 +3649,15 @@
         <v>99.7</v>
       </c>
       <c r="J65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -3522,10 +3666,10 @@
         <v>26500000000</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G66" t="n">
         <v>11.99</v>
@@ -3537,15 +3681,15 @@
         <v>93.9</v>
       </c>
       <c r="J66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -3554,10 +3698,10 @@
         <v>26500000000</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G67" t="n">
         <v>7.58</v>
@@ -3569,15 +3713,15 @@
         <v>88.9</v>
       </c>
       <c r="J67" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -3586,10 +3730,10 @@
         <v>132500000000</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G68" t="n">
         <v>20.33</v>
@@ -3601,25 +3745,25 @@
         <v>99.4</v>
       </c>
       <c r="J68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F69" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G69" t="n">
         <v>29.96</v>
@@ -3631,25 +3775,25 @@
         <v>99.9</v>
       </c>
       <c r="J69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G70" t="n">
         <v>5.99</v>
@@ -3661,25 +3805,25 @@
         <v>89.6</v>
       </c>
       <c r="J70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
         <v>112</v>
-      </c>
-      <c r="B71" t="s">
-        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G71" t="n">
         <v>7.08</v>
@@ -3691,15 +3835,15 @@
         <v>89.7</v>
       </c>
       <c r="J71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -3709,7 +3853,7 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G72" t="n">
         <v>4.97</v>
@@ -3721,15 +3865,15 @@
         <v>80.2</v>
       </c>
       <c r="J72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -3741,7 +3885,7 @@
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G73" t="n">
         <v>0.51</v>
@@ -3753,15 +3897,15 @@
         <v>33.7</v>
       </c>
       <c r="J73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
         <v>116</v>
-      </c>
-      <c r="B74" t="s">
-        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -3773,7 +3917,7 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G74" t="n">
         <v>0.51</v>
@@ -3785,28 +3929,28 @@
         <v>55.5</v>
       </c>
       <c r="J74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G75" t="n">
-        <v>29.98</v>
+        <v>29.91</v>
       </c>
       <c r="H75" t="n">
         <v>99.8</v>
@@ -3815,15 +3959,15 @@
         <v>99.8</v>
       </c>
       <c r="J75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -3832,10 +3976,10 @@
         <v>846</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G76" t="n">
         <v>0.62</v>
@@ -3847,15 +3991,15 @@
         <v>58.3</v>
       </c>
       <c r="J76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -3864,10 +4008,10 @@
         <v>846</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F77" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G77" t="n">
         <v>0.49</v>
@@ -3879,28 +4023,28 @@
         <v>60.9</v>
       </c>
       <c r="J77" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G78" t="n">
-        <v>29.9</v>
+        <v>29.91</v>
       </c>
       <c r="H78" t="n">
         <v>99.8</v>
@@ -3909,15 +4053,15 @@
         <v>99.8</v>
       </c>
       <c r="J78" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -3927,7 +4071,7 @@
         <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G79" t="n">
         <v>29.82</v>
@@ -3939,25 +4083,25 @@
         <v>99.8</v>
       </c>
       <c r="J79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80"/>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G80" t="n">
         <v>29.68</v>
@@ -3969,28 +4113,28 @@
         <v>98.8</v>
       </c>
       <c r="J80" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
         <v>127</v>
-      </c>
-      <c r="B81" t="s">
-        <v>130</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G81" t="n">
-        <v>18.75</v>
+        <v>18.98</v>
       </c>
       <c r="H81" t="n">
         <v>98.5</v>
@@ -3999,15 +4143,15 @@
         <v>98.5</v>
       </c>
       <c r="J81" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -4017,31 +4161,31 @@
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83"/>
       <c r="E83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G83" t="n">
         <v>29.9</v>
@@ -4053,15 +4197,15 @@
         <v>99.8</v>
       </c>
       <c r="J83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -4073,7 +4217,7 @@
         <v>54</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G84" t="n">
         <v>0.52</v>
@@ -4085,15 +4229,15 @@
         <v>61.9</v>
       </c>
       <c r="J84" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -4105,7 +4249,7 @@
         <v>54</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G85" t="n">
         <v>0.57</v>
@@ -4117,15 +4261,15 @@
         <v>62.1</v>
       </c>
       <c r="J85" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -4137,7 +4281,7 @@
         <v>54</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G86" t="n">
         <v>29.82</v>
@@ -4149,15 +4293,15 @@
         <v>99.8</v>
       </c>
       <c r="J86" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -4166,10 +4310,10 @@
         <v>268000</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G87" t="n">
         <v>1.75</v>
@@ -4181,15 +4325,15 @@
         <v>37.7</v>
       </c>
       <c r="J87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -4198,30 +4342,30 @@
         <v>1340000</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G88" t="n">
         <v>0.24</v>
       </c>
       <c r="H88" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
@@ -4230,10 +4374,10 @@
         <v>1340000</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G89" t="n">
         <v>29.68</v>
@@ -4245,15 +4389,15 @@
         <v>98.8</v>
       </c>
       <c r="J89" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -4262,10 +4406,10 @@
         <v>97.5</v>
       </c>
       <c r="E90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F90" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G90" t="n">
         <v>6.54</v>
@@ -4277,15 +4421,15 @@
         <v>88.2</v>
       </c>
       <c r="J90" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -4294,13 +4438,13 @@
         <v>97.5</v>
       </c>
       <c r="E91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F91" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G91" t="n">
-        <v>9.29</v>
+        <v>9.23</v>
       </c>
       <c r="H91" t="n">
         <v>90.5</v>
@@ -4309,15 +4453,15 @@
         <v>90</v>
       </c>
       <c r="J91" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -4326,10 +4470,10 @@
         <v>97.5</v>
       </c>
       <c r="E92" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F92" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G92" t="n">
         <v>6.37</v>
@@ -4341,15 +4485,15 @@
         <v>85.5</v>
       </c>
       <c r="J92" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -4361,21 +4505,21 @@
         <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -4387,21 +4531,21 @@
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -4410,10 +4554,10 @@
         <v>2040</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G95" t="n">
         <v>9.6</v>
@@ -4425,15 +4569,15 @@
         <v>93.5</v>
       </c>
       <c r="J95" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -4442,10 +4586,10 @@
         <v>10200</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F96" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G96" t="n">
         <v>22.61</v>
@@ -4457,15 +4601,15 @@
         <v>99.1</v>
       </c>
       <c r="J96" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -4474,10 +4618,10 @@
         <v>10200</v>
       </c>
       <c r="E97" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G97" t="n">
         <v>29.87</v>
@@ -4489,15 +4633,15 @@
         <v>99.8</v>
       </c>
       <c r="J97" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -4506,10 +4650,10 @@
         <v>85100</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G98" t="n">
         <v>29.82</v>
@@ -4521,28 +4665,28 @@
         <v>99.8</v>
       </c>
       <c r="J98" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G99" t="n">
-        <v>10.31</v>
+        <v>10.28</v>
       </c>
       <c r="H99" t="n">
         <v>94.1</v>
@@ -4551,15 +4695,15 @@
         <v>92.9</v>
       </c>
       <c r="J99" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" t="s">
         <v>154</v>
-      </c>
-      <c r="B100" t="s">
-        <v>157</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
@@ -4568,30 +4712,30 @@
         <v>147.5</v>
       </c>
       <c r="E100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G100" t="n">
         <v>2.11</v>
       </c>
       <c r="H100" t="n">
-        <v>58.1</v>
+        <v>57.9</v>
       </c>
       <c r="I100" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="J100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -4600,13 +4744,13 @@
         <v>147.5</v>
       </c>
       <c r="E101" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G101" t="n">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="H101" t="n">
         <v>58</v>
@@ -4615,15 +4759,15 @@
         <v>55.1</v>
       </c>
       <c r="J101" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -4632,10 +4776,10 @@
         <v>147.5</v>
       </c>
       <c r="E102" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G102" t="n">
         <v>2.93</v>
@@ -4647,15 +4791,15 @@
         <v>71.9</v>
       </c>
       <c r="J102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -4664,70 +4808,70 @@
         <v>147.5</v>
       </c>
       <c r="E103" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G103" t="n">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="H103" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="I103" t="n">
         <v>53.5</v>
       </c>
       <c r="J103" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
       </c>
       <c r="D104"/>
       <c r="E104" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G104" t="n">
         <v>0.5</v>
       </c>
       <c r="H104" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="I104" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="J104" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105"/>
       <c r="E105" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F105" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G105" t="n">
         <v>2.47</v>
@@ -4739,15 +4883,15 @@
         <v>54.2</v>
       </c>
       <c r="J105" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -4756,30 +4900,30 @@
         <v>443</v>
       </c>
       <c r="E106" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F106" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G106" t="n">
         <v>0.5</v>
       </c>
       <c r="H106" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="I106" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="J106" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -4788,24 +4932,24 @@
         <v>443</v>
       </c>
       <c r="E107" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
@@ -4814,30 +4958,30 @@
         <v>371000</v>
       </c>
       <c r="E108" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G108" t="n">
         <v>1.05</v>
       </c>
       <c r="H108" t="n">
-        <v>50.4</v>
+        <v>50.3</v>
       </c>
       <c r="I108" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="J108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
@@ -4846,34 +4990,34 @@
         <v>371000</v>
       </c>
       <c r="E109" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F109" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F110" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G110" t="n">
         <v>1.96</v>
@@ -4885,15 +5029,15 @@
         <v>52.1</v>
       </c>
       <c r="J110" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -4902,10 +5046,10 @@
         <v>176000</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G111" t="n">
         <v>29.87</v>
@@ -4917,25 +5061,25 @@
         <v>99.8</v>
       </c>
       <c r="J111" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
       </c>
       <c r="D112"/>
       <c r="E112" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F112" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G112" t="n">
         <v>29.97</v>
@@ -4947,25 +5091,25 @@
         <v>99.8</v>
       </c>
       <c r="J112" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G113" t="n">
         <v>29.84</v>
@@ -4977,15 +5121,15 @@
         <v>99.8</v>
       </c>
       <c r="J113" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" t="s">
         <v>172</v>
-      </c>
-      <c r="B114" t="s">
-        <v>175</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -4995,7 +5139,7 @@
         <v>54</v>
       </c>
       <c r="F114" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G114" t="n">
         <v>24.92</v>
@@ -5007,25 +5151,25 @@
         <v>98.9</v>
       </c>
       <c r="J114" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115"/>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F115" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G115" t="n">
         <v>29.92</v>
@@ -5037,15 +5181,15 @@
         <v>99.5</v>
       </c>
       <c r="J115" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
@@ -5054,10 +5198,10 @@
         <v>597</v>
       </c>
       <c r="E116" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F116" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G116" t="n">
         <v>28.58</v>
@@ -5069,15 +5213,15 @@
         <v>99.8</v>
       </c>
       <c r="J116" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C117" t="s">
         <v>17</v>
@@ -5086,10 +5230,10 @@
         <v>597</v>
       </c>
       <c r="E117" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F117" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G117" t="n">
         <v>0.2</v>
@@ -5101,15 +5245,15 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
@@ -5118,10 +5262,10 @@
         <v>2985</v>
       </c>
       <c r="E118" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F118" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G118" t="n">
         <v>29.89</v>
@@ -5133,15 +5277,15 @@
         <v>99.5</v>
       </c>
       <c r="J118" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
@@ -5150,10 +5294,10 @@
         <v>379000</v>
       </c>
       <c r="E119" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G119" t="n">
         <v>29.81</v>
@@ -5165,15 +5309,15 @@
         <v>99.8</v>
       </c>
       <c r="J119" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C120" t="s">
         <v>17</v>
@@ -5182,24 +5326,24 @@
         <v>379000</v>
       </c>
       <c r="E120" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F120" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -5208,10 +5352,10 @@
         <v>1895000</v>
       </c>
       <c r="E121" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F121" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G121" t="n">
         <v>22.45</v>
@@ -5223,15 +5367,15 @@
         <v>98.5</v>
       </c>
       <c r="J121" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C122" t="s">
         <v>17</v>
@@ -5243,7 +5387,7 @@
         <v>54</v>
       </c>
       <c r="F122" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G122" t="n">
         <v>6.66</v>
@@ -5255,15 +5399,15 @@
         <v>86.2</v>
       </c>
       <c r="J122" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C123" t="s">
         <v>17</v>
@@ -5275,21 +5419,21 @@
         <v>54</v>
       </c>
       <c r="F123" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
@@ -5301,10 +5445,10 @@
         <v>54</v>
       </c>
       <c r="F124" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G124" t="n">
-        <v>11.47</v>
+        <v>11.42</v>
       </c>
       <c r="H124" t="n">
         <v>95.2</v>
@@ -5313,15 +5457,15 @@
         <v>94.4</v>
       </c>
       <c r="J124" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B125" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
@@ -5330,10 +5474,10 @@
         <v>412</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G125" t="n">
         <v>0.8</v>
@@ -5345,15 +5489,15 @@
         <v>61</v>
       </c>
       <c r="J125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C126" t="s">
         <v>17</v>
@@ -5362,10 +5506,10 @@
         <v>412</v>
       </c>
       <c r="E126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F126" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G126" t="n">
         <v>0.56</v>
@@ -5377,15 +5521,15 @@
         <v>62.1</v>
       </c>
       <c r="J126" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C127" t="s">
         <v>17</v>
@@ -5394,10 +5538,10 @@
         <v>2060</v>
       </c>
       <c r="E127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F127" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G127" t="n">
         <v>22.32</v>
@@ -5409,45 +5553,45 @@
         <v>98.9</v>
       </c>
       <c r="J127" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
         <v>17</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F128" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G128" t="n">
         <v>4.7</v>
       </c>
       <c r="H128" t="n">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="I128" t="n">
         <v>77</v>
       </c>
       <c r="J128" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -5457,7 +5601,7 @@
         <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G129" t="n">
         <v>29.89</v>
@@ -5469,15 +5613,15 @@
         <v>99.8</v>
       </c>
       <c r="J129" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
@@ -5489,7 +5633,7 @@
         <v>54</v>
       </c>
       <c r="F130" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G130" t="n">
         <v>0.52</v>
@@ -5501,15 +5645,15 @@
         <v>60.6</v>
       </c>
       <c r="J130" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" t="s">
         <v>194</v>
-      </c>
-      <c r="B131" t="s">
-        <v>197</v>
       </c>
       <c r="C131" t="s">
         <v>17</v>
@@ -5521,7 +5665,7 @@
         <v>54</v>
       </c>
       <c r="F131" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G131" t="n">
         <v>0.77</v>
@@ -5533,15 +5677,15 @@
         <v>62.1</v>
       </c>
       <c r="J131" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C132" t="s">
         <v>17</v>
@@ -5553,7 +5697,7 @@
         <v>54</v>
       </c>
       <c r="F132" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G132" t="n">
         <v>29.89</v>
@@ -5565,15 +5709,15 @@
         <v>99.8</v>
       </c>
       <c r="J132" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -5583,7 +5727,7 @@
         <v>54</v>
       </c>
       <c r="F133" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G133" t="n">
         <v>30.06</v>
@@ -5595,25 +5739,25 @@
         <v>99.8</v>
       </c>
       <c r="J133" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
       </c>
       <c r="D134"/>
       <c r="E134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F134" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G134" t="n">
         <v>27.48</v>
@@ -5625,15 +5769,15 @@
         <v>99.8</v>
       </c>
       <c r="J134" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" t="s">
         <v>199</v>
-      </c>
-      <c r="B135" t="s">
-        <v>202</v>
       </c>
       <c r="C135" t="s">
         <v>17</v>
@@ -5645,7 +5789,7 @@
         <v>54</v>
       </c>
       <c r="F135" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G135" t="n">
         <v>29.83</v>
@@ -5657,15 +5801,15 @@
         <v>99.8</v>
       </c>
       <c r="J135" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
         <v>17</v>
@@ -5677,21 +5821,21 @@
         <v>54</v>
       </c>
       <c r="F136" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G136"/>
       <c r="H136"/>
       <c r="I136"/>
       <c r="J136" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
@@ -5701,10 +5845,10 @@
         <v>54</v>
       </c>
       <c r="F137" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G137" t="n">
-        <v>30.13</v>
+        <v>19.05</v>
       </c>
       <c r="H137" t="n">
         <v>99.8</v>
@@ -5713,15 +5857,15 @@
         <v>99.5</v>
       </c>
       <c r="J137" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
@@ -5730,10 +5874,10 @@
         <v>6490</v>
       </c>
       <c r="E138" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F138" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G138" t="n">
         <v>1.12</v>
@@ -5745,15 +5889,15 @@
         <v>63.2</v>
       </c>
       <c r="J138" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -5762,24 +5906,24 @@
         <v>6490</v>
       </c>
       <c r="E139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
       <c r="I139"/>
       <c r="J139" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
@@ -5788,10 +5932,10 @@
         <v>6490</v>
       </c>
       <c r="E140" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F140" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G140" t="n">
         <v>1.09</v>
@@ -5803,15 +5947,15 @@
         <v>64.7</v>
       </c>
       <c r="J140" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B141" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -5820,10 +5964,10 @@
         <v>364000</v>
       </c>
       <c r="E141" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F141" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G141" t="n">
         <v>29.45</v>
@@ -5835,15 +5979,15 @@
         <v>99.8</v>
       </c>
       <c r="J141" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
@@ -5853,7 +5997,7 @@
         <v>54</v>
       </c>
       <c r="F142" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G142" t="n">
         <v>29.88</v>
@@ -5865,15 +6009,15 @@
         <v>99.8</v>
       </c>
       <c r="J142" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
@@ -5883,25 +6027,25 @@
         <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G143"/>
       <c r="H143" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I143" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J143" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" t="s">
         <v>212</v>
-      </c>
-      <c r="B144" t="s">
-        <v>215</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
@@ -5913,7 +6057,7 @@
         <v>54</v>
       </c>
       <c r="F144" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G144" t="n">
         <v>29.84</v>
@@ -5925,15 +6069,15 @@
         <v>99.7</v>
       </c>
       <c r="J144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -5945,7 +6089,7 @@
         <v>54</v>
       </c>
       <c r="F145" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G145" t="n">
         <v>0.32</v>
@@ -5957,15 +6101,15 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
@@ -5977,7 +6121,7 @@
         <v>54</v>
       </c>
       <c r="F146" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G146" t="n">
         <v>16.6</v>
@@ -5989,15 +6133,15 @@
         <v>99.7</v>
       </c>
       <c r="J146" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
@@ -6006,10 +6150,10 @@
         <v>667</v>
       </c>
       <c r="E147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F147" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G147" t="n">
         <v>29.72</v>
@@ -6021,15 +6165,15 @@
         <v>99.2</v>
       </c>
       <c r="J147" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C148" t="s">
         <v>17</v>
@@ -6038,10 +6182,10 @@
         <v>222000</v>
       </c>
       <c r="E148" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F148" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G148" t="n">
         <v>29.89</v>
@@ -6053,15 +6197,15 @@
         <v>99.8</v>
       </c>
       <c r="J148" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
@@ -6073,7 +6217,7 @@
         <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G149" t="n">
         <v>29.31</v>
@@ -6085,15 +6229,15 @@
         <v>99.7</v>
       </c>
       <c r="J149" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B150" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
         <v>17</v>
@@ -6105,25 +6249,25 @@
         <v>13</v>
       </c>
       <c r="F150" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G150"/>
       <c r="H150" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I150" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J150" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C151" t="s">
         <v>17</v>
@@ -6135,21 +6279,21 @@
         <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G151"/>
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C152" t="s">
         <v>17</v>
@@ -6161,21 +6305,21 @@
         <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G152"/>
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C153" t="s">
         <v>17</v>
@@ -6187,31 +6331,31 @@
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G153"/>
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
       </c>
       <c r="D154"/>
       <c r="E154" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F154" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G154" t="n">
         <v>1.74</v>
@@ -6220,18 +6364,18 @@
         <v>51.9</v>
       </c>
       <c r="I154" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="J154" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
@@ -6240,10 +6384,10 @@
         <v>2820</v>
       </c>
       <c r="E155" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F155" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G155" t="n">
         <v>0.4</v>
@@ -6255,15 +6399,15 @@
         <v>15.4</v>
       </c>
       <c r="J155" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" t="s">
         <v>227</v>
-      </c>
-      <c r="B156" t="s">
-        <v>230</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
@@ -6272,30 +6416,30 @@
         <v>2820</v>
       </c>
       <c r="E156" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F156" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G156" t="n">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="I156" t="n">
         <v>20</v>
       </c>
       <c r="J156" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B157" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
@@ -6304,30 +6448,30 @@
         <v>2820</v>
       </c>
       <c r="E157" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F157" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G157" t="n">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="H157" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="I157" t="n">
         <v>15.3</v>
       </c>
       <c r="J157" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
@@ -6336,10 +6480,10 @@
         <v>2820</v>
       </c>
       <c r="E158" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F158" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G158" t="n">
         <v>0.8</v>
@@ -6351,25 +6495,25 @@
         <v>13.9</v>
       </c>
       <c r="J158" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B159" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
       </c>
       <c r="D159"/>
       <c r="E159" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F159" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G159" t="n">
         <v>21.42</v>
@@ -6381,15 +6525,15 @@
         <v>99</v>
       </c>
       <c r="J159" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
@@ -6398,10 +6542,10 @@
         <v>2190</v>
       </c>
       <c r="E160" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F160" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G160" t="n">
         <v>4.73</v>
@@ -6413,15 +6557,15 @@
         <v>81.3</v>
       </c>
       <c r="J160" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>230</v>
+      </c>
+      <c r="B161" t="s">
         <v>233</v>
-      </c>
-      <c r="B161" t="s">
-        <v>236</v>
       </c>
       <c r="C161" t="s">
         <v>17</v>
@@ -6430,10 +6574,10 @@
         <v>2190</v>
       </c>
       <c r="E161" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F161" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G161" t="n">
         <v>7.49</v>
@@ -6445,15 +6589,15 @@
         <v>89.8</v>
       </c>
       <c r="J161" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B162" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C162" t="s">
         <v>17</v>
@@ -6462,10 +6606,10 @@
         <v>2190</v>
       </c>
       <c r="E162" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F162" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G162" t="n">
         <v>10.14</v>
@@ -6477,15 +6621,15 @@
         <v>96.5</v>
       </c>
       <c r="J162" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C163" t="s">
         <v>17</v>
@@ -6494,13 +6638,13 @@
         <v>2190</v>
       </c>
       <c r="E163" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F163" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G163" t="n">
-        <v>10.2</v>
+        <v>10.21</v>
       </c>
       <c r="H163" t="n">
         <v>90.7</v>
@@ -6509,15 +6653,15 @@
         <v>90.1</v>
       </c>
       <c r="J163" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B164" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
@@ -6527,27 +6671,27 @@
         <v>13</v>
       </c>
       <c r="F164" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G164" t="n">
         <v>5.12</v>
       </c>
       <c r="H164" t="n">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="I164" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="J164" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B165" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C165" t="s">
         <v>17</v>
@@ -6559,7 +6703,7 @@
         <v>13</v>
       </c>
       <c r="F165" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G165" t="n">
         <v>3.39</v>
@@ -6571,15 +6715,15 @@
         <v>72.5</v>
       </c>
       <c r="J165" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>236</v>
+      </c>
+      <c r="B166" t="s">
         <v>239</v>
-      </c>
-      <c r="B166" t="s">
-        <v>242</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
@@ -6591,21 +6735,21 @@
         <v>13</v>
       </c>
       <c r="F166" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G166"/>
       <c r="H166"/>
       <c r="I166"/>
       <c r="J166" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B167" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C167" t="s">
         <v>17</v>
@@ -6617,7 +6761,7 @@
         <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G167" t="n">
         <v>1.88</v>
@@ -6626,28 +6770,28 @@
         <v>73.8</v>
       </c>
       <c r="I167" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="J167" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B168" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
       <c r="D168"/>
       <c r="E168" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F168" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G168" t="n">
         <v>29.94</v>
@@ -6659,25 +6803,25 @@
         <v>99.8</v>
       </c>
       <c r="J168" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B169" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
       <c r="D169"/>
       <c r="E169" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G169" t="n">
         <v>30</v>
@@ -6689,15 +6833,15 @@
         <v>99.7</v>
       </c>
       <c r="J169" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>241</v>
+      </c>
+      <c r="B170" t="s">
         <v>244</v>
-      </c>
-      <c r="B170" t="s">
-        <v>247</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
@@ -6706,10 +6850,10 @@
         <v>7550000</v>
       </c>
       <c r="E170" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F170" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G170" t="n">
         <v>29.88</v>
@@ -6721,15 +6865,15 @@
         <v>99.8</v>
       </c>
       <c r="J170" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C171" t="s">
         <v>17</v>
@@ -6738,10 +6882,10 @@
         <v>7550000</v>
       </c>
       <c r="E171" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F171" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G171" t="n">
         <v>29.85</v>
@@ -6753,15 +6897,15 @@
         <v>99.3</v>
       </c>
       <c r="J171" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C172" t="s">
         <v>17</v>
@@ -6773,10 +6917,10 @@
         <v>13</v>
       </c>
       <c r="F172" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G172" t="n">
-        <v>29.87</v>
+        <v>29.82</v>
       </c>
       <c r="H172" t="n">
         <v>99.8</v>
@@ -6785,15 +6929,15 @@
         <v>99.8</v>
       </c>
       <c r="J172" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B173" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C173" t="s">
         <v>17</v>
@@ -6802,10 +6946,10 @@
         <v>570000</v>
       </c>
       <c r="E173" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F173" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G173" t="n">
         <v>29.91</v>
@@ -6817,15 +6961,15 @@
         <v>99.7</v>
       </c>
       <c r="J173" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B174" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C174" t="s">
         <v>17</v>
@@ -6834,10 +6978,10 @@
         <v>570000</v>
       </c>
       <c r="E174" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F174" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G174" t="n">
         <v>29.86</v>
@@ -6849,25 +6993,25 @@
         <v>98.6</v>
       </c>
       <c r="J174" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B175" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C175" t="s">
         <v>17</v>
       </c>
       <c r="D175"/>
       <c r="E175" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F175" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="G175" t="n">
         <v>24.79</v>
@@ -6879,28 +7023,28 @@
         <v>99.1</v>
       </c>
       <c r="J175" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B176" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
       </c>
       <c r="D176"/>
       <c r="E176" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F176" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G176" t="n">
-        <v>30.07</v>
+        <v>29.99</v>
       </c>
       <c r="H176" t="n">
         <v>99.9</v>
@@ -6909,25 +7053,25 @@
         <v>99.9</v>
       </c>
       <c r="J176" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177" t="s">
         <v>254</v>
-      </c>
-      <c r="B177" t="s">
-        <v>258</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177"/>
       <c r="E177" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F177" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G177" t="n">
         <v>2.63</v>
@@ -6936,18 +7080,18 @@
         <v>62</v>
       </c>
       <c r="I177" t="n">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="J177" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B178" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C178" t="s">
         <v>17</v>
@@ -6959,7 +7103,7 @@
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G178" t="n">
         <v>29.82</v>
@@ -6971,15 +7115,15 @@
         <v>99.7</v>
       </c>
       <c r="J178" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B179" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C179" t="s">
         <v>17</v>
@@ -6988,10 +7132,10 @@
         <v>595000</v>
       </c>
       <c r="E179" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F179" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G179" t="n">
         <v>29.88</v>
@@ -7003,15 +7147,15 @@
         <v>99.8</v>
       </c>
       <c r="J179" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B180" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C180" t="s">
         <v>17</v>
@@ -7020,13 +7164,13 @@
         <v>595000</v>
       </c>
       <c r="E180" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F180" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G180" t="n">
-        <v>30.07</v>
+        <v>29.99</v>
       </c>
       <c r="H180" t="n">
         <v>99.9</v>
@@ -7035,15 +7179,15 @@
         <v>99.8</v>
       </c>
       <c r="J180" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C181" t="s">
         <v>17</v>
@@ -7052,10 +7196,10 @@
         <v>269</v>
       </c>
       <c r="E181" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F181" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G181" t="n">
         <v>2.67</v>
@@ -7064,18 +7208,18 @@
         <v>56.6</v>
       </c>
       <c r="I181" t="n">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="J181" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C182" t="s">
         <v>17</v>
@@ -7084,30 +7228,30 @@
         <v>1345</v>
       </c>
       <c r="E182" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F182" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G182" t="n">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="H182" t="n">
-        <v>8.9</v>
+        <v>9.2</v>
       </c>
       <c r="I182" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J182" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C183" t="s">
         <v>17</v>
@@ -7116,30 +7260,30 @@
         <v>1345</v>
       </c>
       <c r="E183" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F183" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G183" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H183" t="n">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="I183" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="J183" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B184" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C184" t="s">
         <v>17</v>
@@ -7148,30 +7292,30 @@
         <v>1345</v>
       </c>
       <c r="E184" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F184" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G184" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="I184" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J184" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C185" t="s">
         <v>17</v>
@@ -7183,7 +7327,7 @@
         <v>13</v>
       </c>
       <c r="F185" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G185" t="n">
         <v>29.89</v>
@@ -7195,15 +7339,15 @@
         <v>99.8</v>
       </c>
       <c r="J185" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B186" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C186" t="s">
         <v>17</v>
@@ -7212,10 +7356,10 @@
         <v>51800</v>
       </c>
       <c r="E186" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F186" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G186" t="n">
         <v>29.93</v>
@@ -7227,15 +7371,15 @@
         <v>99.8</v>
       </c>
       <c r="J186" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B187" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
@@ -7245,7 +7389,7 @@
         <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G187" t="n">
         <v>7.26</v>
@@ -7254,28 +7398,28 @@
         <v>98.1</v>
       </c>
       <c r="I187" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="J187" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C188" t="s">
         <v>17</v>
       </c>
       <c r="D188"/>
       <c r="E188" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F188" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G188" t="n">
         <v>29.82</v>
@@ -7287,15 +7431,15 @@
         <v>99.7</v>
       </c>
       <c r="J188" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C189" t="s">
         <v>17</v>
@@ -7305,10 +7449,10 @@
         <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G189" t="n">
-        <v>29.86</v>
+        <v>29.81</v>
       </c>
       <c r="H189" t="n">
         <v>99.7</v>
@@ -7317,15 +7461,15 @@
         <v>99.6</v>
       </c>
       <c r="J189" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B190" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C190" t="s">
         <v>17</v>
@@ -7334,10 +7478,10 @@
         <v>172000</v>
       </c>
       <c r="E190" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F190" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G190" t="n">
         <v>29.85</v>
@@ -7349,25 +7493,25 @@
         <v>99.8</v>
       </c>
       <c r="J190" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B191" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C191" t="s">
         <v>17</v>
       </c>
       <c r="D191"/>
       <c r="E191" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F191" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G191" t="n">
         <v>8.68</v>
@@ -7379,25 +7523,25 @@
         <v>89.5</v>
       </c>
       <c r="J191" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B192" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
       </c>
       <c r="D192"/>
       <c r="E192" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F192" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G192" t="n">
         <v>22.33</v>
@@ -7409,25 +7553,25 @@
         <v>99</v>
       </c>
       <c r="J192" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>279</v>
+      </c>
+      <c r="B193" t="s">
         <v>283</v>
-      </c>
-      <c r="B193" t="s">
-        <v>287</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
       </c>
       <c r="D193"/>
       <c r="E193" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F193" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G193" t="n">
         <v>29.75</v>
@@ -7439,15 +7583,15 @@
         <v>99.8</v>
       </c>
       <c r="J193" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B194" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C194" t="s">
         <v>17</v>
@@ -7456,10 +7600,10 @@
         <v>17000</v>
       </c>
       <c r="E194" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F194" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G194" t="n">
         <v>21.42</v>
@@ -7471,15 +7615,15 @@
         <v>98.2</v>
       </c>
       <c r="J194" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B195" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C195" t="s">
         <v>17</v>
@@ -7488,10 +7632,10 @@
         <v>85000</v>
       </c>
       <c r="E195" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F195" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G195" t="n">
         <v>22.33</v>
@@ -7503,15 +7647,15 @@
         <v>98.6</v>
       </c>
       <c r="J195" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B196" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C196" t="s">
         <v>17</v>
@@ -7520,10 +7664,10 @@
         <v>1530000</v>
       </c>
       <c r="E196" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F196" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G196" t="n">
         <v>29.75</v>
@@ -7535,15 +7679,15 @@
         <v>99.8</v>
       </c>
       <c r="J196" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B197" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C197" t="s">
         <v>17</v>
@@ -7552,10 +7696,10 @@
         <v>7650000</v>
       </c>
       <c r="E197" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F197" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G197" t="n">
         <v>29.84</v>
@@ -7567,25 +7711,25 @@
         <v>99.8</v>
       </c>
       <c r="J197" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C198" t="s">
         <v>17</v>
       </c>
       <c r="D198"/>
       <c r="E198" t="s">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G198" t="n">
         <v>29.98</v>
@@ -7597,25 +7741,25 @@
         <v>99.8</v>
       </c>
       <c r="J198" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B199" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
       </c>
       <c r="D199"/>
       <c r="E199" t="s">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="F199" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G199" t="n">
         <v>29.86</v>
@@ -7627,25 +7771,25 @@
         <v>99.6</v>
       </c>
       <c r="J199" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B200" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C200" t="s">
         <v>17</v>
       </c>
       <c r="D200"/>
       <c r="E200" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F200" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G200" t="n">
         <v>22.25</v>
@@ -7657,25 +7801,25 @@
         <v>98.5</v>
       </c>
       <c r="J200" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C201" t="s">
         <v>17</v>
       </c>
       <c r="D201"/>
       <c r="E201" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F201" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G201" t="n">
         <v>29.86</v>
@@ -7687,25 +7831,25 @@
         <v>99.8</v>
       </c>
       <c r="J201" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B202" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
       </c>
       <c r="D202"/>
       <c r="E202" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F202" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G202" t="n">
         <v>3.7</v>
@@ -7717,25 +7861,25 @@
         <v>72.9</v>
       </c>
       <c r="J202" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C203" t="s">
         <v>17</v>
       </c>
       <c r="D203"/>
       <c r="E203" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F203" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G203" t="n">
         <v>29.84</v>
@@ -7747,15 +7891,15 @@
         <v>99.5</v>
       </c>
       <c r="J203" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C204" t="s">
         <v>17</v>
@@ -7767,7 +7911,7 @@
         <v>13</v>
       </c>
       <c r="F204" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G204" t="n">
         <v>29.82</v>
@@ -7779,15 +7923,15 @@
         <v>99.8</v>
       </c>
       <c r="J204" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B205" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C205" t="s">
         <v>17</v>
@@ -7796,10 +7940,10 @@
         <v>59.7</v>
       </c>
       <c r="E205" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F205" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G205" t="n">
         <v>1.03</v>
@@ -7808,58 +7952,58 @@
         <v>72.3</v>
       </c>
       <c r="I205" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="J205" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>294</v>
+      </c>
+      <c r="B206" t="s">
         <v>301</v>
-      </c>
-      <c r="B206" t="s">
-        <v>308</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
       </c>
       <c r="D206"/>
       <c r="E206" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F206" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="I206" t="n">
         <v>26</v>
       </c>
       <c r="J206" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B207" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
       </c>
       <c r="D207"/>
       <c r="E207" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F207" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G207" t="n">
         <v>1.02</v>
@@ -7871,25 +8015,25 @@
         <v>35</v>
       </c>
       <c r="J207" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B208" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C208" t="s">
         <v>17</v>
       </c>
       <c r="D208"/>
       <c r="E208" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F208" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G208" t="n">
         <v>0.93</v>
@@ -7901,15 +8045,15 @@
         <v>35.6</v>
       </c>
       <c r="J208" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B209" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
@@ -7919,10 +8063,10 @@
         <v>13</v>
       </c>
       <c r="F209" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G209" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="H209" t="n">
         <v>84.5</v>
@@ -7931,15 +8075,15 @@
         <v>82</v>
       </c>
       <c r="J209" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B210" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
@@ -7951,7 +8095,7 @@
         <v>13</v>
       </c>
       <c r="F210" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G210" t="n">
         <v>29.83</v>
@@ -7963,15 +8107,15 @@
         <v>99.8</v>
       </c>
       <c r="J210" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B211" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C211" t="s">
         <v>17</v>
@@ -7980,10 +8124,10 @@
         <v>14500</v>
       </c>
       <c r="E211" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F211" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G211" t="n">
         <v>29.41</v>
@@ -7995,15 +8139,15 @@
         <v>99.8</v>
       </c>
       <c r="J211" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B212" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C212" t="s">
         <v>17</v>
@@ -8015,7 +8159,7 @@
         <v>13</v>
       </c>
       <c r="F212" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G212" t="n">
         <v>25.63</v>
@@ -8027,15 +8171,15 @@
         <v>98.7</v>
       </c>
       <c r="J212" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B213" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
@@ -8044,10 +8188,10 @@
         <v>14300</v>
       </c>
       <c r="E213" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F213" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G213" t="n">
         <v>12.5</v>
@@ -8059,107 +8203,107 @@
         <v>97.7</v>
       </c>
       <c r="J213" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B214" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C214" t="s">
         <v>17</v>
       </c>
       <c r="D214"/>
       <c r="E214" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F214" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G214"/>
       <c r="H214"/>
       <c r="I214"/>
       <c r="J214" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C215" t="s">
         <v>17</v>
       </c>
       <c r="D215"/>
       <c r="E215" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F215" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G215" t="n">
         <v>4.35</v>
       </c>
       <c r="H215" t="n">
-        <v>76.2</v>
+        <v>76.4</v>
       </c>
       <c r="I215" t="n">
         <v>44.6</v>
       </c>
       <c r="J215" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B216" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C216" t="s">
         <v>17</v>
       </c>
       <c r="D216"/>
       <c r="E216" t="s">
+        <v>315</v>
+      </c>
+      <c r="F216" t="s">
         <v>322</v>
-      </c>
-      <c r="F216" t="s">
-        <v>329</v>
       </c>
       <c r="G216"/>
       <c r="H216" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I216" t="n">
         <v>1.1</v>
       </c>
       <c r="J216" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B217" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C217" t="s">
         <v>12</v>
       </c>
       <c r="D217"/>
       <c r="E217" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F217" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G217" t="n">
         <v>29.8</v>
@@ -8171,25 +8315,25 @@
         <v>99.8</v>
       </c>
       <c r="J217" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B218" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C218" t="s">
         <v>12</v>
       </c>
       <c r="D218"/>
       <c r="E218" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F218" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G218" t="n">
         <v>24.18</v>
@@ -8201,15 +8345,15 @@
         <v>99.8</v>
       </c>
       <c r="J218" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
+        <v>324</v>
+      </c>
+      <c r="B219" t="s">
         <v>331</v>
-      </c>
-      <c r="B219" t="s">
-        <v>338</v>
       </c>
       <c r="C219" t="s">
         <v>17</v>
@@ -8218,10 +8362,10 @@
         <v>11750</v>
       </c>
       <c r="E219" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F219" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G219" t="n">
         <v>27.24</v>
@@ -8233,15 +8377,15 @@
         <v>99.8</v>
       </c>
       <c r="J219" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B220" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C220" t="s">
         <v>17</v>
@@ -8250,10 +8394,10 @@
         <v>11750</v>
       </c>
       <c r="E220" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F220" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G220" t="n">
         <v>29.8</v>
@@ -8265,15 +8409,15 @@
         <v>99.8</v>
       </c>
       <c r="J220" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B221" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C221" t="s">
         <v>17</v>
@@ -8282,13 +8426,13 @@
         <v>27900</v>
       </c>
       <c r="E221" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F221" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G221" t="n">
-        <v>29.87</v>
+        <v>29.86</v>
       </c>
       <c r="H221" t="n">
         <v>99.8</v>
@@ -8297,15 +8441,15 @@
         <v>99.8</v>
       </c>
       <c r="J221" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B222" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C222" t="s">
         <v>17</v>
@@ -8314,10 +8458,10 @@
         <v>27900</v>
       </c>
       <c r="E222" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F222" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G222" t="n">
         <v>29.91</v>
@@ -8329,15 +8473,15 @@
         <v>99.8</v>
       </c>
       <c r="J222" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B223" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C223" t="s">
         <v>17</v>
@@ -8364,20 +8508,20 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B224" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
       </c>
       <c r="D224"/>
       <c r="E224" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F224" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G224" t="n">
         <v>7.46</v>
@@ -8386,28 +8530,28 @@
         <v>98</v>
       </c>
       <c r="I224" t="n">
-        <v>90.3</v>
+        <v>89.8</v>
       </c>
       <c r="J224" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B225" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C225" t="s">
         <v>17</v>
       </c>
       <c r="D225"/>
       <c r="E225" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F225" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G225"/>
       <c r="H225" t="n">
@@ -8417,49 +8561,49 @@
         <v>1.3</v>
       </c>
       <c r="J225" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>337</v>
+      </c>
+      <c r="B226" t="s">
         <v>344</v>
-      </c>
-      <c r="B226" t="s">
-        <v>351</v>
       </c>
       <c r="C226" t="s">
         <v>17</v>
       </c>
       <c r="D226"/>
       <c r="E226" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F226" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G226"/>
       <c r="H226"/>
       <c r="I226"/>
       <c r="J226" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B227" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C227" t="s">
         <v>17</v>
       </c>
       <c r="D227"/>
       <c r="E227" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F227" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G227" t="n">
         <v>7.46</v>
@@ -8468,28 +8612,28 @@
         <v>97.9</v>
       </c>
       <c r="I227" t="n">
-        <v>90.2</v>
+        <v>89.9</v>
       </c>
       <c r="J227" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B228" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C228" t="s">
         <v>17</v>
       </c>
       <c r="D228"/>
       <c r="E228" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F228" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G228"/>
       <c r="H228" t="n">
@@ -8499,15 +8643,15 @@
         <v>1.7</v>
       </c>
       <c r="J228" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B229" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C229" t="s">
         <v>17</v>
@@ -8516,40 +8660,40 @@
         <v>37.55</v>
       </c>
       <c r="E229" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F229" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H229" t="n">
-        <v>8.2</v>
+        <v>7.5</v>
       </c>
       <c r="I229" t="n">
         <v>4.2</v>
       </c>
       <c r="J229" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B230" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C230" t="s">
         <v>17</v>
       </c>
       <c r="D230"/>
       <c r="E230" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F230" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G230" t="n">
         <v>8.38</v>
@@ -8561,71 +8705,71 @@
         <v>83.1</v>
       </c>
       <c r="J230" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B231" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C231" t="s">
         <v>17</v>
       </c>
       <c r="D231"/>
       <c r="E231" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F231" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G231"/>
       <c r="H231" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="I231" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J231" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B232" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C232" t="s">
         <v>17</v>
       </c>
       <c r="D232"/>
       <c r="E232" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F232" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G232"/>
       <c r="H232" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J232" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B233" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C233" t="s">
         <v>17</v>
@@ -8634,10 +8778,10 @@
         <v>313.5</v>
       </c>
       <c r="E233" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F233" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G233" t="n">
         <v>22.6</v>
@@ -8649,25 +8793,25 @@
         <v>99.1</v>
       </c>
       <c r="J233" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B234" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
       </c>
       <c r="D234"/>
       <c r="E234" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F234" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G234" t="n">
         <v>27.21</v>
@@ -8679,15 +8823,15 @@
         <v>99.8</v>
       </c>
       <c r="J234" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B235" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C235" t="s">
         <v>17</v>
@@ -8696,10 +8840,10 @@
         <v>294000000</v>
       </c>
       <c r="E235" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F235" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G235" t="n">
         <v>11.95</v>
@@ -8711,15 +8855,15 @@
         <v>96.5</v>
       </c>
       <c r="J235" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B236" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C236" t="s">
         <v>17</v>
@@ -8728,10 +8872,10 @@
         <v>294000000</v>
       </c>
       <c r="E236" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F236" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G236" t="n">
         <v>22.89</v>
@@ -8743,77 +8887,73 @@
         <v>98.2</v>
       </c>
       <c r="J236" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B237" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C237" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D237"/>
       <c r="E237" t="s">
         <v>370</v>
       </c>
       <c r="F237" t="s">
-        <v>371</v>
-      </c>
-      <c r="G237" t="n">
-        <v>30.02</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G237"/>
       <c r="H237" t="n">
-        <v>99.8</v>
+        <v>4.7</v>
       </c>
       <c r="I237" t="n">
-        <v>99.8</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B238" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
-      </c>
-      <c r="D238" t="n">
-        <v>92000000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D238"/>
       <c r="E238" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F238" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G238" t="n">
-        <v>7.34</v>
+        <v>30.02</v>
       </c>
       <c r="H238" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I238" t="n">
-        <v>94.4</v>
+        <v>99.8</v>
       </c>
       <c r="J238" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B239" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C239" t="s">
         <v>17</v>
@@ -8822,30 +8962,30 @@
         <v>92000000</v>
       </c>
       <c r="E239" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F239" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G239" t="n">
-        <v>11.15</v>
+        <v>7.34</v>
       </c>
       <c r="H239" t="n">
-        <v>98.5</v>
+        <v>99.7</v>
       </c>
       <c r="I239" t="n">
-        <v>90.5</v>
+        <v>94.4</v>
       </c>
       <c r="J239" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B240" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C240" t="s">
         <v>17</v>
@@ -8854,30 +8994,30 @@
         <v>92000000</v>
       </c>
       <c r="E240" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F240" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G240" t="n">
-        <v>1.67</v>
+        <v>11.15</v>
       </c>
       <c r="H240" t="n">
-        <v>87.7</v>
+        <v>98.5</v>
       </c>
       <c r="I240" t="n">
-        <v>67.3</v>
+        <v>90.5</v>
       </c>
       <c r="J240" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
+        <v>371</v>
+      </c>
+      <c r="B241" t="s">
         <v>375</v>
-      </c>
-      <c r="B241" t="s">
-        <v>380</v>
       </c>
       <c r="C241" t="s">
         <v>17</v>
@@ -8886,30 +9026,30 @@
         <v>92000000</v>
       </c>
       <c r="E241" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F241" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G241" t="n">
-        <v>3.41</v>
+        <v>1.67</v>
       </c>
       <c r="H241" t="n">
-        <v>89.5</v>
+        <v>87.7</v>
       </c>
       <c r="I241" t="n">
-        <v>70.5</v>
+        <v>67.3</v>
       </c>
       <c r="J241" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B242" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C242" t="s">
         <v>17</v>
@@ -8918,30 +9058,30 @@
         <v>92000000</v>
       </c>
       <c r="E242" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F242" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G242" t="n">
-        <v>29.82</v>
+        <v>3.41</v>
       </c>
       <c r="H242" t="n">
-        <v>99.8</v>
+        <v>89.5</v>
       </c>
       <c r="I242" t="n">
-        <v>98.3</v>
+        <v>70.4</v>
       </c>
       <c r="J242" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B243" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C243" t="s">
         <v>17</v>
@@ -8950,16 +9090,524 @@
         <v>92000000</v>
       </c>
       <c r="E243" t="s">
+        <v>363</v>
+      </c>
+      <c r="F243" t="s">
+        <v>364</v>
+      </c>
+      <c r="G243" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H243" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I243" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J243" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>371</v>
+      </c>
+      <c r="B244" t="s">
+        <v>378</v>
+      </c>
+      <c r="C244" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" t="n">
+        <v>92000000</v>
+      </c>
+      <c r="E244" t="s">
+        <v>363</v>
+      </c>
+      <c r="F244" t="s">
+        <v>364</v>
+      </c>
+      <c r="G244"/>
+      <c r="H244"/>
+      <c r="I244"/>
+      <c r="J244" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>379</v>
+      </c>
+      <c r="B245" t="s">
+        <v>380</v>
+      </c>
+      <c r="C245" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245"/>
+      <c r="E245" t="s">
         <v>370</v>
       </c>
-      <c r="F243" t="s">
-        <v>371</v>
-      </c>
-      <c r="G243"/>
-      <c r="H243"/>
-      <c r="I243"/>
-      <c r="J243" t="s">
-        <v>372</v>
+      <c r="F245" t="s">
+        <v>381</v>
+      </c>
+      <c r="G245"/>
+      <c r="H245" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J245" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>383</v>
+      </c>
+      <c r="B246" t="s">
+        <v>384</v>
+      </c>
+      <c r="C246" t="s">
+        <v>17</v>
+      </c>
+      <c r="D246"/>
+      <c r="E246" t="s">
+        <v>370</v>
+      </c>
+      <c r="F246" t="s">
+        <v>385</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H246" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J246" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>387</v>
+      </c>
+      <c r="B247" t="s">
+        <v>388</v>
+      </c>
+      <c r="C247" t="s">
+        <v>17</v>
+      </c>
+      <c r="D247"/>
+      <c r="E247" t="s">
+        <v>370</v>
+      </c>
+      <c r="F247" t="s">
+        <v>389</v>
+      </c>
+      <c r="G247"/>
+      <c r="H247" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J247" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>391</v>
+      </c>
+      <c r="B248" t="s">
+        <v>392</v>
+      </c>
+      <c r="C248" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248"/>
+      <c r="E248" t="s">
+        <v>393</v>
+      </c>
+      <c r="F248" t="s">
+        <v>277</v>
+      </c>
+      <c r="G248"/>
+      <c r="H248" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J248" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>391</v>
+      </c>
+      <c r="B249" t="s">
+        <v>394</v>
+      </c>
+      <c r="C249" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249"/>
+      <c r="E249" t="s">
+        <v>395</v>
+      </c>
+      <c r="F249" t="s">
+        <v>277</v>
+      </c>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>391</v>
+      </c>
+      <c r="B250" t="s">
+        <v>396</v>
+      </c>
+      <c r="C250" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250"/>
+      <c r="E250" t="s">
+        <v>397</v>
+      </c>
+      <c r="F250" t="s">
+        <v>277</v>
+      </c>
+      <c r="G250"/>
+      <c r="H250" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J250" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>391</v>
+      </c>
+      <c r="B251" t="s">
+        <v>398</v>
+      </c>
+      <c r="C251" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251"/>
+      <c r="E251" t="s">
+        <v>399</v>
+      </c>
+      <c r="F251" t="s">
+        <v>277</v>
+      </c>
+      <c r="G251"/>
+      <c r="H251" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J251" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>400</v>
+      </c>
+      <c r="B252" t="s">
+        <v>401</v>
+      </c>
+      <c r="C252" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252"/>
+      <c r="E252" t="s">
+        <v>402</v>
+      </c>
+      <c r="F252" t="s">
+        <v>403</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H252" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J252" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>405</v>
+      </c>
+      <c r="B253" t="s">
+        <v>406</v>
+      </c>
+      <c r="C253" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253"/>
+      <c r="E253" t="s">
+        <v>370</v>
+      </c>
+      <c r="F253" t="s">
+        <v>407</v>
+      </c>
+      <c r="G253"/>
+      <c r="H253" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J253" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>409</v>
+      </c>
+      <c r="B254" t="s">
+        <v>410</v>
+      </c>
+      <c r="C254" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254"/>
+      <c r="E254" t="s">
+        <v>411</v>
+      </c>
+      <c r="F254" t="s">
+        <v>296</v>
+      </c>
+      <c r="G254"/>
+      <c r="H254" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>409</v>
+      </c>
+      <c r="B255" t="s">
+        <v>412</v>
+      </c>
+      <c r="C255" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255"/>
+      <c r="E255" t="s">
+        <v>402</v>
+      </c>
+      <c r="F255" t="s">
+        <v>296</v>
+      </c>
+      <c r="G255"/>
+      <c r="H255" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J255" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>409</v>
+      </c>
+      <c r="B256" t="s">
+        <v>413</v>
+      </c>
+      <c r="C256" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256"/>
+      <c r="E256" t="s">
+        <v>414</v>
+      </c>
+      <c r="F256" t="s">
+        <v>296</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H256" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="I256" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J256" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>409</v>
+      </c>
+      <c r="B257" t="s">
+        <v>415</v>
+      </c>
+      <c r="C257" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257"/>
+      <c r="E257" t="s">
+        <v>416</v>
+      </c>
+      <c r="F257" t="s">
+        <v>296</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H257" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="I257" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J257" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>417</v>
+      </c>
+      <c r="B258" t="s">
+        <v>418</v>
+      </c>
+      <c r="C258" t="s">
+        <v>17</v>
+      </c>
+      <c r="D258"/>
+      <c r="E258" t="s">
+        <v>370</v>
+      </c>
+      <c r="F258" t="s">
+        <v>419</v>
+      </c>
+      <c r="G258"/>
+      <c r="H258" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J258" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>421</v>
+      </c>
+      <c r="B259" t="s">
+        <v>422</v>
+      </c>
+      <c r="C259" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259"/>
+      <c r="E259" t="s">
+        <v>370</v>
+      </c>
+      <c r="F259" t="s">
+        <v>339</v>
+      </c>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>423</v>
+      </c>
+      <c r="B260" t="s">
+        <v>424</v>
+      </c>
+      <c r="C260" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260"/>
+      <c r="E260" t="s">
+        <v>370</v>
+      </c>
+      <c r="F260" t="s">
+        <v>425</v>
+      </c>
+      <c r="G260"/>
+      <c r="H260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J260" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>427</v>
+      </c>
+      <c r="B261" t="s">
+        <v>428</v>
+      </c>
+      <c r="C261" t="s">
+        <v>17</v>
+      </c>
+      <c r="D261"/>
+      <c r="E261" t="s">
+        <v>370</v>
+      </c>
+      <c r="F261" t="s">
+        <v>429</v>
+      </c>
+      <c r="G261"/>
+      <c r="H261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J261" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/sampleSummary.xlsx
+++ b/summaries/sampleSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -47,439 +47,364 @@
     <t xml:space="preserve">sampleName</t>
   </si>
   <si>
-    <t xml:space="preserve">SRR11783571</t>
+    <t xml:space="preserve">deWit_RM1_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8016-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> single experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM1_Remdesivir RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8022-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM1_Remdesivir LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8023-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM1_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8042-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nose_swab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM1_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM10_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8040-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM10_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8001-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectal_swab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8012-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8027-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8028-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM12_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8000-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM12_Vehicle Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8006-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM12_Vehicle RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8039-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM12_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM2_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8002-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM2_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8013-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM2_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8025-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM2_Remdesivir RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8026-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM2_Remdesivir LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8011-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir RLLL 20200608</t>
   </si>
   <si>
     <t xml:space="preserve">VSP8024-1</t>
   </si>
   <si>
-    <t xml:space="preserve"> single experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783571 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8025-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783572 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8013-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783573 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8006-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783575 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8000-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783576 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8039-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783578 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8001-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783579 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8026-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783580 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8027-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783581 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8012-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783582 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8028-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783584 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8040-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783589 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783590</t>
+    <t xml:space="preserve">deWit_RM3_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8030-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8031-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8005-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8010-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8043-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8044-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8045-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8004-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8019-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8020-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8021-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8008-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8009-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8018-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8037-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8038-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8003-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8015-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8017-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8035-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8036-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8029-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8033-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8034-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8041-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8007-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8014-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8032-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle LLLL 20200608</t>
   </si>
   <si>
     <t xml:space="preserve">VSP8046-1</t>
   </si>
   <si>
-    <t xml:space="preserve">SRR11783590 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8002-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783591 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8014-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783592 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8032-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783593 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8007-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783594 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8029-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783595 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8033-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783596 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8034-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783598 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8041-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783599 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8015-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783600 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8035-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783601 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8016-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783602 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8003-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783603 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8017-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783604 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8036-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783605 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8008-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783606 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8018-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783607 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8037-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783608 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8038-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783609 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8009-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783610 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8019-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783611 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8004-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783612 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8042-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783613 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8020-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783614 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8021-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783615 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8043-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783616 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8044-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783617 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8005-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783618 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8010-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783619 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8045-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783620 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8030-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783621 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8011-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783622 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8031-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783623 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8022-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783624 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8023-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783625 Unk 20200929</t>
+    <t xml:space="preserve">deWit_RM9_Vehicle RLLL 20200608</t>
   </si>
 </sst>
 </file>
@@ -863,14 +788,12 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="n">
-        <v>29.94</v>
-      </c>
+      <c r="G2"/>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -881,29 +804,29 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>2.72</v>
+        <v>12.02</v>
       </c>
       <c r="H3" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>94.5</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -914,171 +837,173 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>29.96</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>95.4</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5"/>
+        <v>28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.84</v>
+      </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>54.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>51.9</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>4.04</v>
       </c>
       <c r="H6" t="n">
-        <v>85.7</v>
+        <v>99.7</v>
       </c>
       <c r="I6" t="n">
-        <v>83.7</v>
+        <v>99.3</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.55</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G7"/>
       <c r="H7" t="n">
-        <v>99</v>
+        <v>13.9</v>
       </c>
       <c r="I7" t="n">
-        <v>98.9</v>
+        <v>12.4</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8"/>
+        <v>28</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.96</v>
+      </c>
       <c r="H8" t="n">
-        <v>13.9</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>12.4</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1091,93 +1016,93 @@
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.62</v>
+        <v>0.39</v>
       </c>
       <c r="H9" t="n">
-        <v>35.5</v>
+        <v>21.6</v>
       </c>
       <c r="I9" t="n">
-        <v>34.2</v>
+        <v>20.5</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.59</v>
       </c>
       <c r="H10" t="n">
-        <v>21.6</v>
+        <v>62.4</v>
       </c>
       <c r="I10" t="n">
-        <v>20.5</v>
+        <v>59.4</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>10.96</v>
+        <v>1.38</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>83.7</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1189,122 +1114,120 @@
       <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.59</v>
-      </c>
+      <c r="G12"/>
       <c r="H12" t="n">
-        <v>62.4</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>59.4</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>4.04</v>
+        <v>6.55</v>
       </c>
       <c r="H13" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="I13" t="n">
-        <v>99.3</v>
+        <v>98.9</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="n">
-        <v>23.43</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G14"/>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>9.4</v>
       </c>
       <c r="I14" t="n">
-        <v>99.9</v>
+        <v>8.8</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15"/>
+        <v>28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29.96</v>
+      </c>
       <c r="H15" t="n">
-        <v>9.4</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>8.8</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1320,13 +1243,13 @@
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>30.01</v>
+        <v>2.72</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I16" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -1337,43 +1260,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>15.75</v>
+        <v>0.62</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>35.5</v>
       </c>
       <c r="I17" t="n">
-        <v>100</v>
+        <v>34.2</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1398,28 +1321,28 @@
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>29.96</v>
+        <v>29.94</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
@@ -1428,64 +1351,64 @@
         <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>26.52</v>
+        <v>7.85</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="I20" t="n">
-        <v>100</v>
+        <v>99.1</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>30.09</v>
+        <v>29.97</v>
       </c>
       <c r="H21" t="n">
         <v>100</v>
@@ -1494,31 +1417,31 @@
         <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>30.11</v>
+        <v>30.1</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
@@ -1527,84 +1450,84 @@
         <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>29.98</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>100</v>
+        <v>83.6</v>
       </c>
       <c r="I23" t="n">
-        <v>99.9</v>
+        <v>81.8</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>29.84</v>
+        <v>1.27</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>86.9</v>
       </c>
       <c r="I24" t="n">
-        <v>100</v>
+        <v>85.5</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1618,90 +1541,90 @@
       </c>
       <c r="G25"/>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>8.63</v>
+        <v>29.98</v>
       </c>
       <c r="H26" t="n">
-        <v>99.3</v>
+        <v>99.9</v>
       </c>
       <c r="I26" t="n">
-        <v>99</v>
+        <v>99.9</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G27" t="n">
-        <v>11.71</v>
+        <v>0.55</v>
       </c>
       <c r="H27" t="n">
-        <v>99.9</v>
+        <v>40.3</v>
       </c>
       <c r="I27" t="n">
-        <v>99.9</v>
+        <v>37.6</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1714,157 +1637,159 @@
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>29.87</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="I28" t="n">
-        <v>100</v>
+        <v>92.9</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>1.12</v>
+        <v>21.99</v>
       </c>
       <c r="H29" t="n">
-        <v>79</v>
+        <v>99.9</v>
       </c>
       <c r="I29" t="n">
-        <v>77.1</v>
+        <v>99.9</v>
       </c>
       <c r="J29" t="s">
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>17.6</v>
+        <v>29.86</v>
       </c>
       <c r="H30" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>24.48</v>
+        <v>1.12</v>
       </c>
       <c r="H31" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="I31" t="n">
-        <v>100</v>
+        <v>77.1</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32"/>
+        <v>23</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
       <c r="H32" t="n">
-        <v>14.6</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>14.4</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1877,192 +1802,190 @@
         <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>30</v>
+        <v>17.6</v>
       </c>
       <c r="H33" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I33" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G34" t="n">
-        <v>1.65</v>
+        <v>24.48</v>
       </c>
       <c r="H34" t="n">
-        <v>94.5</v>
+        <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>92.9</v>
+        <v>100</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.55</v>
-      </c>
+      <c r="G35"/>
       <c r="H35" t="n">
-        <v>40.3</v>
+        <v>14.6</v>
       </c>
       <c r="I35" t="n">
-        <v>37.6</v>
+        <v>14.4</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G36" t="n">
-        <v>0.84</v>
+        <v>8.63</v>
       </c>
       <c r="H36" t="n">
-        <v>54.5</v>
+        <v>99.3</v>
       </c>
       <c r="I36" t="n">
-        <v>51.9</v>
+        <v>99</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G37" t="n">
-        <v>21.99</v>
+        <v>29.98</v>
       </c>
       <c r="H37" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
         <v>99.9</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>29.86</v>
+        <v>11.71</v>
       </c>
       <c r="H38" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I38" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2075,71 +1998,73 @@
         <v>15</v>
       </c>
       <c r="G39" t="n">
-        <v>1.27</v>
+        <v>29.84</v>
       </c>
       <c r="H39" t="n">
-        <v>86.9</v>
+        <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>85.5</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40"/>
+        <v>23</v>
+      </c>
+      <c r="G40" t="n">
+        <v>29.87</v>
+      </c>
       <c r="H40" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G41" t="n">
-        <v>30.1</v>
+        <v>29.96</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -2148,18 +2073,18 @@
         <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2172,103 +2097,103 @@
         <v>15</v>
       </c>
       <c r="G42" t="n">
-        <v>1.45</v>
+        <v>26.52</v>
       </c>
       <c r="H42" t="n">
-        <v>83.6</v>
+        <v>100</v>
       </c>
       <c r="I42" t="n">
-        <v>81.8</v>
+        <v>100</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
       </c>
       <c r="G43" t="n">
-        <v>29.98</v>
+        <v>30.09</v>
       </c>
       <c r="H43" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="I43" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="J43" t="s">
         <v>16</v>
       </c>
       <c r="K43" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G44" t="n">
-        <v>7.85</v>
+        <v>30.11</v>
       </c>
       <c r="H44" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="I44" t="n">
-        <v>99.1</v>
+        <v>100</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G45" t="n">
         <v>30.09</v>
@@ -2280,31 +2205,31 @@
         <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G46" t="n">
-        <v>29.97</v>
+        <v>30.01</v>
       </c>
       <c r="H46" t="n">
         <v>100</v>
@@ -2313,31 +2238,31 @@
         <v>100</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
       </c>
       <c r="G47" t="n">
-        <v>12.02</v>
+        <v>15.75</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -2349,15 +2274,15 @@
         <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2370,19 +2295,19 @@
         <v>15</v>
       </c>
       <c r="G48" t="n">
-        <v>2.52</v>
+        <v>23.43</v>
       </c>
       <c r="H48" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I48" t="n">
-        <v>95.4</v>
+        <v>99.9</v>
       </c>
       <c r="J48" t="s">
         <v>16</v>
       </c>
       <c r="K48" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/sampleSummary.xlsx
+++ b/summaries/sampleSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -47,16 +47,952 @@
     <t xml:space="preserve">sampleName</t>
   </si>
   <si>
-    <t xml:space="preserve">deWit_RM1_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8016-1</t>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0008-1m</t>
   </si>
   <si>
     <t xml:space="preserve"> single experiment</t>
   </si>
   <si>
-    <t xml:space="preserve">RLLL</t>
+    <t xml:space="preserve">VSP0008-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0009-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 ETA 20200330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0010-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0010-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0010-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0010-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0010-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0209-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205 Unk 20200615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0011-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0011-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0012-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0012-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0184-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE NP 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0185-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE OP 20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0186-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE ETA 20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0013-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 ETA 20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213 ETA 20200415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0014-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0014-2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218 ETA 20200415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218 ETA 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0015-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0015-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0016-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0016-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219 ETA 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0017-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0017-2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0017-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0017-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0017-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0017-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE OP 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE OP 20200420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0180-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE NP 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0181-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0181-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0182-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0182-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0183-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-TCE OP 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0018-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225 ETA 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227 OP 20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0020-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0020-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 NP 20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 OP 20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 ETA 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP-OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 NP-OP 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0021-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0021-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0022-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0022-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0022-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0187-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0187-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0188-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0188-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0188-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0189-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saliva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 Saliva 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP-OP-HI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 NP-OP-HI 20200424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0079-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0079-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0079-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0079-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235 NP-OP 20200427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0029-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0030-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0030-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0080-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235 NP-OP 20200424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237 NP-OP 20200427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237 OP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0033-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0033-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0034-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0034-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0037-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0037-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0038-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0038-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0084-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237 Saliva 20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0039-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0039-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 OP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0041-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0041-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0042-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0042-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0046-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240 NP-OP 20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 ETA 20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0044-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0044-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0045-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 OP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0047-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 NP-OP 20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0052-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 ETA 20200504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0085-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0085-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0085-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0085-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245 NP-OP 20200504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0061-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0061-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0061-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0061-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247 NP-OP 20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0050-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0050-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0050-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0050-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248 ETA 20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0086-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0086-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0086-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 NP-OP 20200504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 NP-OP 20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0065-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0065-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0088-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 ETA 20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0089-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0089-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0318-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 NP-OP 20200508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 NP-OP 20200511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0100-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 ETA 20200508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0107-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0107-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0118-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0118-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0118-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0118-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0123-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 ETA 20200511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0102-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257 NP-OP 20200508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0140-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261 ETA 20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0141-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262 NP-OP 20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0142-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263 ETA 20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0143-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263 NP-OP 20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0148-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263 NP-OP 20200518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0262-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-TCE NP-OP 20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0263-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-TCE NP-OP 20200522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266 NP-OP 20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266 NP-OP 20200522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0155-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0155-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0163-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0163-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0319-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0320-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269 NP-OP 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0166-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269 NP-OP 20200522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0176-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269 ETA 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0177-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0177-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0177-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0177-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0200-1</t>
   </si>
   <si>
     <t xml:space="preserve">2020-06-08</t>
@@ -65,346 +1001,478 @@
     <t xml:space="preserve">20200608</t>
   </si>
   <si>
-    <t xml:space="preserve">deWit_RM1_Remdesivir RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8022-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM1_Remdesivir LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8023-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM1_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8042-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nose_swab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM1_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM10_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8040-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM10_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM11_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8001-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rectal_swab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM11_Vehicle Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8012-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM11_Vehicle Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8027-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM11_Vehicle RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8028-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM11_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM12_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8000-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM12_Vehicle Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8006-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM12_Vehicle RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8039-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM12_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM2_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8002-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM2_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8013-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM2_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8025-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM2_Remdesivir RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8026-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM2_Remdesivir LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8011-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8024-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8030-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8031-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8005-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8010-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8043-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8044-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8045-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM5_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8004-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM5_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8019-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM5_Remdesivir RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8020-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM5_Remdesivir LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8021-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM5_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8008-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8009-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8018-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8037-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8038-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8003-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8015-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8017-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8035-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8036-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8029-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8033-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8034-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8041-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8007-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8014-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8032-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8046-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle RLLL 20200608</t>
+    <t xml:space="preserve">269 ETA 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0202-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269 ETA 20200612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0179-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272 NP-OP 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0195-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272 ETA 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0196-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272 NP-OP 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0260-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272 Stool 20200617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0206-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279 NP-OP 20200612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0261-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288 Stool 20200626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290 NP-OP 20200629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290 NP-OP 20200701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0230-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0230-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0233-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0233-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0210-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297 Unk 20200615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 NP-OP 20200713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0242-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 NP-OP 20200710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0243-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 Saliva 20200710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0244-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0244-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0246-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303 NP-OP 20200713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0248-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304 NP-OP 20200713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0254-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305 NP-OP 20200715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0255-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306 NP-OP 20200715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0256-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307 NP-OP 20200717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0001-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vero cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCLB Vero cells 20200328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRD4J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9993-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRD4J WaterControl 20200626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6 Vero cells 20200328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0002-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0002-2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0002-3m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2J3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9997-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2J3B WaterControl 20200725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J327N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9998-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J327N WaterControl 20200805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37GK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9991-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37GK WaterControl 20200613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9986-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20_PCR-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37K3 H20_PCR-1b 20200518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9987-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O_RT-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37K3 H2O_RT-1b 20200518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9988-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20_PCR-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37K3 H20_PCR-1a 20200518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9989-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O_RT-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37K3 H2O_RT-1a 20200518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9981-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J37ML H2O-1a 20200609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3NJJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9992-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3NJJ WaterControl 20200618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9982-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3R26 H2O-1b 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9983-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3R26 H2O-1a 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9984-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MockR-1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3R26 MockR-1b 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9985-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MockR-1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3R26 MockR-1a 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J77FG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9994-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J77FG WaterControl 20200703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J77FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9995-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J77FR WaterControl 20200713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J78FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9996-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J78FF WaterControl 20200720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB8CJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP9999-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB8CJ WaterControl 20200824</t>
   </si>
 </sst>
 </file>
@@ -788,12 +1856,14 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" t="n">
+        <v>1.04</v>
+      </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>57.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>26.4</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -810,29 +1880,29 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>12.02</v>
+        <v>1.04</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>28.8</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>21.8</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -840,175 +1910,183 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4"/>
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4410</v>
+      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
-        <v>96</v>
+        <v>42.5</v>
       </c>
       <c r="I4" t="n">
-        <v>95.4</v>
+        <v>8.7</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>0.84</v>
+        <v>29.82</v>
       </c>
       <c r="H5" t="n">
-        <v>54.5</v>
+        <v>99.8</v>
       </c>
       <c r="I5" t="n">
-        <v>51.9</v>
+        <v>99.8</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>4.04</v>
+        <v>29.84</v>
       </c>
       <c r="H6" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I6" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7"/>
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.43</v>
+      </c>
       <c r="H7" t="n">
-        <v>13.9</v>
+        <v>93.1</v>
       </c>
       <c r="I7" t="n">
-        <v>12.4</v>
+        <v>79.2</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8"/>
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14750</v>
+      </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9"/>
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2950</v>
+      </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
@@ -1016,221 +2094,229 @@
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.39</v>
+        <v>9.76</v>
       </c>
       <c r="H9" t="n">
-        <v>21.6</v>
+        <v>96.9</v>
       </c>
       <c r="I9" t="n">
-        <v>20.5</v>
+        <v>91.8</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10"/>
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2950</v>
+      </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.59</v>
+        <v>10.36</v>
       </c>
       <c r="H10" t="n">
-        <v>62.4</v>
+        <v>97.4</v>
       </c>
       <c r="I10" t="n">
-        <v>59.4</v>
+        <v>93.6</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11"/>
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2950</v>
+      </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="H11" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>28</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H11" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>6.55</v>
+        <v>29.85</v>
       </c>
       <c r="H13" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="I13" t="n">
-        <v>98.9</v>
+        <v>99.4</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14"/>
+        <v>15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.72</v>
+      </c>
       <c r="H14" t="n">
-        <v>9.4</v>
+        <v>51.7</v>
       </c>
       <c r="I14" t="n">
-        <v>8.8</v>
+        <v>21.5</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15"/>
+        <v>19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2150000</v>
+      </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>29.96</v>
+        <v>29.85</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I15" t="n">
-        <v>100</v>
+        <v>99.1</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1243,65 +2329,67 @@
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>2.72</v>
+        <v>29.86</v>
       </c>
       <c r="H16" t="n">
-        <v>96</v>
+        <v>99.8</v>
       </c>
       <c r="I16" t="n">
-        <v>94.5</v>
+        <v>99.7</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.62</v>
+        <v>1.29</v>
       </c>
       <c r="H17" t="n">
-        <v>35.5</v>
+        <v>71.1</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2</v>
+        <v>35.2</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18"/>
+        <v>19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>660000</v>
+      </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
@@ -1309,248 +2397,252 @@
         <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>30.09</v>
+        <v>29.86</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I18" t="n">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>29.94</v>
+        <v>29.86</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G20" t="n">
-        <v>7.85</v>
+        <v>29.88</v>
       </c>
       <c r="H20" t="n">
-        <v>99.3</v>
+        <v>99.9</v>
       </c>
       <c r="I20" t="n">
-        <v>99.1</v>
+        <v>99.8</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G21" t="n">
-        <v>29.97</v>
+        <v>29.8</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I21" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G22" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="H22" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>29.86</v>
       </c>
       <c r="H23" t="n">
-        <v>83.6</v>
+        <v>99.8</v>
       </c>
       <c r="I23" t="n">
-        <v>81.8</v>
+        <v>99.7</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24"/>
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1770000</v>
+      </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G24" t="n">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="H24" t="n">
-        <v>86.9</v>
+        <v>65.4</v>
       </c>
       <c r="I24" t="n">
-        <v>85.5</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25"/>
+        <v>66</v>
+      </c>
+      <c r="G25" t="n">
+        <v>29.82</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.5</v>
+        <v>99.8</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>99.7</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -1558,756 +2650,6236 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G26" t="n">
-        <v>29.98</v>
+        <v>2.58</v>
       </c>
       <c r="H26" t="n">
-        <v>99.9</v>
+        <v>67.9</v>
       </c>
       <c r="I26" t="n">
-        <v>99.9</v>
+        <v>52.6</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G27" t="n">
-        <v>0.55</v>
+        <v>1.57</v>
       </c>
       <c r="H27" t="n">
-        <v>40.3</v>
+        <v>55.8</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6</v>
+        <v>44.8</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.06</v>
       </c>
       <c r="H28" t="n">
-        <v>94.5</v>
+        <v>39.1</v>
       </c>
       <c r="I28" t="n">
-        <v>92.9</v>
+        <v>34.7</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29"/>
+        <v>19</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2190</v>
+      </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="G29" t="n">
-        <v>21.99</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
-        <v>99.9</v>
+        <v>52.6</v>
       </c>
       <c r="I29" t="n">
-        <v>99.9</v>
+        <v>34.4</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G30" t="n">
-        <v>29.86</v>
+        <v>1.57</v>
       </c>
       <c r="H30" t="n">
-        <v>100</v>
+        <v>41.2</v>
       </c>
       <c r="I30" t="n">
-        <v>100</v>
+        <v>26.9</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31"/>
+        <v>19</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2810</v>
+      </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G31" t="n">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="H31" t="n">
-        <v>79</v>
+        <v>34.6</v>
       </c>
       <c r="I31" t="n">
-        <v>77.1</v>
+        <v>31.5</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G32" t="n">
-        <v>30</v>
+        <v>7.66</v>
       </c>
       <c r="H32" t="n">
-        <v>100</v>
+        <v>93.1</v>
       </c>
       <c r="I32" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G33" t="n">
-        <v>17.6</v>
+        <v>0.93</v>
       </c>
       <c r="H33" t="n">
-        <v>99.9</v>
+        <v>39.3</v>
       </c>
       <c r="I33" t="n">
-        <v>99.9</v>
+        <v>31.2</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G34" t="n">
-        <v>24.48</v>
+        <v>1.23</v>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>46.3</v>
       </c>
       <c r="I34" t="n">
-        <v>100</v>
+        <v>42.8</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35"/>
+        <v>19</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9350</v>
+      </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35"/>
+        <v>75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.53</v>
+      </c>
       <c r="H35" t="n">
-        <v>14.6</v>
+        <v>48.6</v>
       </c>
       <c r="I35" t="n">
-        <v>14.4</v>
+        <v>40.2</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36"/>
+        <v>19</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1870</v>
+      </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G36" t="n">
-        <v>8.63</v>
+        <v>1.02</v>
       </c>
       <c r="H36" t="n">
-        <v>99.3</v>
+        <v>49.1</v>
       </c>
       <c r="I36" t="n">
-        <v>99</v>
+        <v>46.5</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37"/>
+        <v>19</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1870</v>
+      </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G37" t="n">
-        <v>29.98</v>
+        <v>1.69</v>
       </c>
       <c r="H37" t="n">
-        <v>100</v>
+        <v>43.2</v>
       </c>
       <c r="I37" t="n">
-        <v>99.9</v>
+        <v>38.4</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38"/>
+        <v>19</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1870</v>
+      </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G38" t="n">
-        <v>11.71</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
-        <v>99.9</v>
+        <v>64.1</v>
       </c>
       <c r="I38" t="n">
-        <v>99.9</v>
+        <v>61.6</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
-        <v>29.84</v>
+        <v>29.34</v>
       </c>
       <c r="H39" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I39" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="G40" t="n">
-        <v>29.87</v>
+        <v>29.88</v>
       </c>
       <c r="H40" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I40" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G41" t="n">
-        <v>29.96</v>
+        <v>29.87</v>
       </c>
       <c r="H41" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I41" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J41" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G42" t="n">
-        <v>26.52</v>
+        <v>30.04</v>
       </c>
       <c r="H42" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I42" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43"/>
+        <v>19</v>
+      </c>
+      <c r="D43" t="n">
+        <v>151000000000</v>
+      </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G43" t="n">
-        <v>30.09</v>
+        <v>29.34</v>
       </c>
       <c r="H43" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I43" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="G44" t="n">
-        <v>30.11</v>
+        <v>29.87</v>
       </c>
       <c r="H44" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I44" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45"/>
+        <v>19</v>
+      </c>
+      <c r="D45" t="n">
+        <v>132500000000</v>
+      </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="G45" t="n">
-        <v>30.09</v>
+        <v>20.33</v>
       </c>
       <c r="H45" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I45" t="n">
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G46" t="n">
-        <v>30.01</v>
+        <v>29.96</v>
       </c>
       <c r="H46" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I46" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G47" t="n">
-        <v>15.75</v>
+        <v>4.97</v>
       </c>
       <c r="H47" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I47" t="n">
-        <v>100</v>
+        <v>80.2</v>
       </c>
       <c r="J47" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="H48" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="H49" t="n">
+        <v>97.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="H50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J50" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H51" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J51" t="s">
+        <v>113</v>
+      </c>
+      <c r="K51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="H52" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="J52" t="s">
+        <v>113</v>
+      </c>
+      <c r="K52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="s">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="H48" t="n">
-        <v>100</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="F53" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H54" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H55" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H56" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J56" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="n">
+        <v>268000</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H57" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="J57" t="s">
+        <v>113</v>
+      </c>
+      <c r="K57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="H59" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60" t="s">
+        <v>124</v>
+      </c>
+      <c r="K60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="n">
+        <v>301</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61" t="s">
+        <v>124</v>
+      </c>
+      <c r="K61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2040</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H62" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>124</v>
+      </c>
+      <c r="K62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="H63" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="H64" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J64" t="s">
+        <v>124</v>
+      </c>
+      <c r="K64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="n">
+        <v>85100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H65" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I65" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J65" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" t="s">
+        <v>145</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="H66" t="n">
+        <v>94.1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="J66" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H67" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J67" t="s">
+        <v>146</v>
+      </c>
+      <c r="K67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H68" t="n">
+        <v>58</v>
+      </c>
+      <c r="I68" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>146</v>
+      </c>
+      <c r="K68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H69" t="n">
+        <v>73.6</v>
+      </c>
+      <c r="I69" t="n">
+        <v>71.9</v>
+      </c>
+      <c r="J69" t="s">
+        <v>146</v>
+      </c>
+      <c r="K69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H70" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="I70" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>146</v>
+      </c>
+      <c r="K70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H71" t="n">
+        <v>76</v>
+      </c>
+      <c r="I71" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J71" t="s">
+        <v>155</v>
+      </c>
+      <c r="K71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H73" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>155</v>
+      </c>
+      <c r="K73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H74" t="n">
+        <v>55</v>
+      </c>
+      <c r="I74" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>155</v>
+      </c>
+      <c r="K74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="n">
+        <v>176000</v>
+      </c>
+      <c r="E75" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="H75" t="n">
         <v>99.9</v>
       </c>
-      <c r="J48" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" t="s">
-        <v>130</v>
+      <c r="I75" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J75" t="s">
+        <v>146</v>
+      </c>
+      <c r="K75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" t="s">
+        <v>154</v>
+      </c>
+      <c r="G76" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="H76" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I76" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J76" t="s">
+        <v>155</v>
+      </c>
+      <c r="K76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" t="s">
+        <v>154</v>
+      </c>
+      <c r="G77" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="H77" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I77" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>155</v>
+      </c>
+      <c r="K77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" t="s">
+        <v>167</v>
+      </c>
+      <c r="G78" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="H78" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="J78" t="s">
+        <v>168</v>
+      </c>
+      <c r="K78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" t="s">
+        <v>167</v>
+      </c>
+      <c r="G79" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="H79" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I79" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>168</v>
+      </c>
+      <c r="K79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" t="s">
+        <v>154</v>
+      </c>
+      <c r="G80" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="H80" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I80" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J80" t="s">
+        <v>155</v>
+      </c>
+      <c r="K80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2985</v>
+      </c>
+      <c r="E81" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" t="s">
+        <v>154</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="H81" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I81" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>155</v>
+      </c>
+      <c r="K81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" t="s">
+        <v>154</v>
+      </c>
+      <c r="G82" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="H82" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I82" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J82" t="s">
+        <v>155</v>
+      </c>
+      <c r="K82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1895000</v>
+      </c>
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" t="s">
+        <v>154</v>
+      </c>
+      <c r="G83" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="H83" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="I83" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>155</v>
+      </c>
+      <c r="K83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="H84" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>168</v>
+      </c>
+      <c r="K84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="n">
+        <v>770</v>
+      </c>
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="H85" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="J85" t="s">
+        <v>168</v>
+      </c>
+      <c r="K85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="H86" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I86" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="J86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2060</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="H87" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I87" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="J87" t="s">
+        <v>168</v>
+      </c>
+      <c r="K87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H88" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s">
+        <v>182</v>
+      </c>
+      <c r="K88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" t="s">
+        <v>167</v>
+      </c>
+      <c r="G89" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="H89" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J89" t="s">
+        <v>168</v>
+      </c>
+      <c r="K89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" t="s">
+        <v>167</v>
+      </c>
+      <c r="G90" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="H90" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="J90" t="s">
+        <v>168</v>
+      </c>
+      <c r="K90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2465</v>
+      </c>
+      <c r="E91" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" t="s">
+        <v>167</v>
+      </c>
+      <c r="G91" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="H91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J91" t="s">
+        <v>168</v>
+      </c>
+      <c r="K91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" t="s">
+        <v>167</v>
+      </c>
+      <c r="G92" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="H92" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I92" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J92" t="s">
+        <v>168</v>
+      </c>
+      <c r="K92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" t="s">
+        <v>167</v>
+      </c>
+      <c r="G93" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="H93" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I93" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J93" t="s">
+        <v>168</v>
+      </c>
+      <c r="K93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" t="s">
+        <v>167</v>
+      </c>
+      <c r="G94" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="H94" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I94" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J94" t="s">
+        <v>168</v>
+      </c>
+      <c r="K94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95" t="s">
+        <v>167</v>
+      </c>
+      <c r="G95" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I95" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>168</v>
+      </c>
+      <c r="K95" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" t="s">
+        <v>167</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H96" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>168</v>
+      </c>
+      <c r="K96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6490</v>
+      </c>
+      <c r="E97" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" t="s">
+        <v>167</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H97" t="n">
+        <v>81</v>
+      </c>
+      <c r="I97" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="J97" t="s">
+        <v>168</v>
+      </c>
+      <c r="K97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="n">
+        <v>364000</v>
+      </c>
+      <c r="E98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" t="s">
+        <v>200</v>
+      </c>
+      <c r="G98" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="H98" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I98" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J98" t="s">
+        <v>201</v>
+      </c>
+      <c r="K98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" t="s">
+        <v>167</v>
+      </c>
+      <c r="G99" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="H99" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I99" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J99" t="s">
+        <v>168</v>
+      </c>
+      <c r="K99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>181</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J100" t="s">
+        <v>182</v>
+      </c>
+      <c r="K100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" t="s">
+        <v>52</v>
+      </c>
+      <c r="F101" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="H101" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I101" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J101" t="s">
+        <v>168</v>
+      </c>
+      <c r="K101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" t="n">
+        <v>197500</v>
+      </c>
+      <c r="E102" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" t="s">
+        <v>167</v>
+      </c>
+      <c r="G102" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H102" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I102" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J102" t="s">
+        <v>168</v>
+      </c>
+      <c r="K102" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" t="n">
+        <v>667</v>
+      </c>
+      <c r="E103" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" t="s">
+        <v>167</v>
+      </c>
+      <c r="G103" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="H103" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="I103" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>168</v>
+      </c>
+      <c r="K103" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" t="n">
+        <v>222000</v>
+      </c>
+      <c r="E104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" t="s">
+        <v>200</v>
+      </c>
+      <c r="G104" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="H104" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I104" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J104" t="s">
+        <v>201</v>
+      </c>
+      <c r="K104" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1420000</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>215</v>
+      </c>
+      <c r="G105" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="H105" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I105" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J106" t="s">
+        <v>182</v>
+      </c>
+      <c r="K106" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>181</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107" t="s">
+        <v>182</v>
+      </c>
+      <c r="K107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>181</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108" t="s">
+        <v>182</v>
+      </c>
+      <c r="K108" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>181</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109" t="s">
+        <v>182</v>
+      </c>
+      <c r="K109" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" t="s">
+        <v>215</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H110" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="I110" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J110" t="s">
+        <v>216</v>
+      </c>
+      <c r="K110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2820</v>
+      </c>
+      <c r="E111" t="s">
+        <v>127</v>
+      </c>
+      <c r="F111" t="s">
+        <v>215</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H111" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J111" t="s">
+        <v>216</v>
+      </c>
+      <c r="K111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2820</v>
+      </c>
+      <c r="E112" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" t="s">
+        <v>215</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H112" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s">
+        <v>216</v>
+      </c>
+      <c r="K112" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2820</v>
+      </c>
+      <c r="E113" t="s">
+        <v>127</v>
+      </c>
+      <c r="F113" t="s">
+        <v>215</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H113" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I113" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J113" t="s">
+        <v>216</v>
+      </c>
+      <c r="K113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2820</v>
+      </c>
+      <c r="E114" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" t="s">
+        <v>215</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I114" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J114" t="s">
+        <v>216</v>
+      </c>
+      <c r="K114" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G115" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="H115" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>99</v>
+      </c>
+      <c r="J115" t="s">
+        <v>201</v>
+      </c>
+      <c r="K115" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E116" t="s">
+        <v>127</v>
+      </c>
+      <c r="F116" t="s">
+        <v>200</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="H116" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J116" t="s">
+        <v>201</v>
+      </c>
+      <c r="K116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E117" t="s">
+        <v>127</v>
+      </c>
+      <c r="F117" t="s">
+        <v>200</v>
+      </c>
+      <c r="G117" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="H117" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="I117" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J117" t="s">
+        <v>201</v>
+      </c>
+      <c r="K117" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E118" t="s">
+        <v>127</v>
+      </c>
+      <c r="F118" t="s">
+        <v>200</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="H118" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="I118" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="J118" t="s">
+        <v>201</v>
+      </c>
+      <c r="K118" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E119" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" t="s">
+        <v>200</v>
+      </c>
+      <c r="G119" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="H119" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="I119" t="n">
+        <v>90.1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>201</v>
+      </c>
+      <c r="K119" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>181</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H120" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="I120" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="J120" t="s">
+        <v>182</v>
+      </c>
+      <c r="K120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1730</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>181</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H121" t="n">
+        <v>87.1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J121" t="s">
+        <v>182</v>
+      </c>
+      <c r="K121" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8650</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>181</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122" t="s">
+        <v>182</v>
+      </c>
+      <c r="K122" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8650</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>181</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H123" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="I123" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J123" t="s">
+        <v>182</v>
+      </c>
+      <c r="K123" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" t="s">
+        <v>215</v>
+      </c>
+      <c r="G124" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="H124" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I124" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J124" t="s">
+        <v>216</v>
+      </c>
+      <c r="K124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" t="s">
+        <v>127</v>
+      </c>
+      <c r="F125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" t="n">
+        <v>30</v>
+      </c>
+      <c r="H125" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I125" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J125" t="s">
+        <v>182</v>
+      </c>
+      <c r="K125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7550000</v>
+      </c>
+      <c r="E126" t="s">
+        <v>127</v>
+      </c>
+      <c r="F126" t="s">
+        <v>215</v>
+      </c>
+      <c r="G126" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="H126" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I126" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J126" t="s">
+        <v>216</v>
+      </c>
+      <c r="K126" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>242</v>
+      </c>
+      <c r="B127" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7550000</v>
+      </c>
+      <c r="E127" t="s">
+        <v>127</v>
+      </c>
+      <c r="F127" t="s">
+        <v>215</v>
+      </c>
+      <c r="G127" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="H127" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I127" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="J127" t="s">
+        <v>216</v>
+      </c>
+      <c r="K127" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>242</v>
+      </c>
+      <c r="B128" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" t="n">
+        <v>255500</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>181</v>
+      </c>
+      <c r="G128" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H128" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I128" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J128" t="s">
+        <v>182</v>
+      </c>
+      <c r="K128" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>242</v>
+      </c>
+      <c r="B129" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="n">
+        <v>570000</v>
+      </c>
+      <c r="E129" t="s">
+        <v>127</v>
+      </c>
+      <c r="F129" t="s">
+        <v>181</v>
+      </c>
+      <c r="G129" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="H129" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I129" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J129" t="s">
+        <v>182</v>
+      </c>
+      <c r="K129" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>242</v>
+      </c>
+      <c r="B130" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="n">
+        <v>570000</v>
+      </c>
+      <c r="E130" t="s">
+        <v>127</v>
+      </c>
+      <c r="F130" t="s">
+        <v>181</v>
+      </c>
+      <c r="G130" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="H130" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="I130" t="n">
+        <v>98.6</v>
+      </c>
+      <c r="J130" t="s">
+        <v>182</v>
+      </c>
+      <c r="K130" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" t="n">
+        <v>890000</v>
+      </c>
+      <c r="E131" t="s">
+        <v>127</v>
+      </c>
+      <c r="F131" t="s">
+        <v>181</v>
+      </c>
+      <c r="G131" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="H131" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I131" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>182</v>
+      </c>
+      <c r="K131" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132" t="s">
+        <v>127</v>
+      </c>
+      <c r="F132" t="s">
+        <v>256</v>
+      </c>
+      <c r="G132" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="H132" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I132" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="J132" t="s">
+        <v>257</v>
+      </c>
+      <c r="K132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" t="s">
+        <v>127</v>
+      </c>
+      <c r="F133" t="s">
+        <v>260</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H133" t="n">
+        <v>62</v>
+      </c>
+      <c r="I133" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>261</v>
+      </c>
+      <c r="K133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>256</v>
+      </c>
+      <c r="G134" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H134" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I134" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J134" t="s">
+        <v>257</v>
+      </c>
+      <c r="K134" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>254</v>
+      </c>
+      <c r="B135" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" t="n">
+        <v>595000</v>
+      </c>
+      <c r="E135" t="s">
+        <v>127</v>
+      </c>
+      <c r="F135" t="s">
+        <v>256</v>
+      </c>
+      <c r="G135" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="H135" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I135" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J135" t="s">
+        <v>257</v>
+      </c>
+      <c r="K135" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>254</v>
+      </c>
+      <c r="B136" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" t="n">
+        <v>595000</v>
+      </c>
+      <c r="E136" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" t="s">
+        <v>256</v>
+      </c>
+      <c r="G136" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="H136" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I136" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J136" t="s">
+        <v>257</v>
+      </c>
+      <c r="K136" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>254</v>
+      </c>
+      <c r="B137" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" t="n">
+        <v>269</v>
+      </c>
+      <c r="E137" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" t="s">
+        <v>260</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H137" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="I137" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="J137" t="s">
+        <v>261</v>
+      </c>
+      <c r="K137" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E138" t="s">
+        <v>127</v>
+      </c>
+      <c r="F138" t="s">
+        <v>260</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H138" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J138" t="s">
+        <v>261</v>
+      </c>
+      <c r="K138" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>254</v>
+      </c>
+      <c r="B139" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E139" t="s">
+        <v>127</v>
+      </c>
+      <c r="F139" t="s">
+        <v>260</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J139" t="s">
+        <v>261</v>
+      </c>
+      <c r="K139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E140" t="s">
+        <v>127</v>
+      </c>
+      <c r="F140" t="s">
+        <v>260</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H140" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="I140" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J140" t="s">
+        <v>261</v>
+      </c>
+      <c r="K140" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" t="s">
+        <v>271</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" t="n">
+        <v>123000</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>260</v>
+      </c>
+      <c r="G141" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="H141" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I141" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J141" t="s">
+        <v>261</v>
+      </c>
+      <c r="K141" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>273</v>
+      </c>
+      <c r="B142" t="s">
+        <v>274</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" t="n">
+        <v>51800</v>
+      </c>
+      <c r="E142" t="s">
+        <v>127</v>
+      </c>
+      <c r="F142" t="s">
+        <v>256</v>
+      </c>
+      <c r="G142" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="H142" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I142" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J142" t="s">
+        <v>257</v>
+      </c>
+      <c r="K142" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>278</v>
+      </c>
+      <c r="G143" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="H143" t="n">
+        <v>98.1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>279</v>
+      </c>
+      <c r="K143" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" t="s">
+        <v>127</v>
+      </c>
+      <c r="F144" t="s">
+        <v>278</v>
+      </c>
+      <c r="G144" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H144" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I144" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J144" t="s">
+        <v>279</v>
+      </c>
+      <c r="K144" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>278</v>
+      </c>
+      <c r="G145" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="H145" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I145" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="J145" t="s">
+        <v>279</v>
+      </c>
+      <c r="K145" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="n">
+        <v>172000</v>
+      </c>
+      <c r="E146" t="s">
+        <v>127</v>
+      </c>
+      <c r="F146" t="s">
+        <v>278</v>
+      </c>
+      <c r="G146" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="H146" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I146" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J146" t="s">
+        <v>279</v>
+      </c>
+      <c r="K146" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" t="s">
+        <v>127</v>
+      </c>
+      <c r="F147" t="s">
+        <v>290</v>
+      </c>
+      <c r="G147" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H147" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="I147" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="J147" t="s">
+        <v>291</v>
+      </c>
+      <c r="K147" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" t="n">
+        <v>58500000000</v>
+      </c>
+      <c r="E148" t="s">
+        <v>127</v>
+      </c>
+      <c r="F148" t="s">
+        <v>295</v>
+      </c>
+      <c r="G148" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="H148" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I148" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J148" t="s">
+        <v>296</v>
+      </c>
+      <c r="K148" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" t="n">
+        <v>37550000000</v>
+      </c>
+      <c r="E149" t="s">
+        <v>127</v>
+      </c>
+      <c r="F149" t="s">
+        <v>299</v>
+      </c>
+      <c r="G149" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="H149" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I149" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="J149" t="s">
+        <v>300</v>
+      </c>
+      <c r="K149" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>302</v>
+      </c>
+      <c r="B150" t="s">
+        <v>303</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150" t="s">
+        <v>127</v>
+      </c>
+      <c r="F150" t="s">
+        <v>295</v>
+      </c>
+      <c r="G150" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="H150" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I150" t="n">
+        <v>99</v>
+      </c>
+      <c r="J150" t="s">
+        <v>296</v>
+      </c>
+      <c r="K150" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151" t="s">
+        <v>127</v>
+      </c>
+      <c r="F151" t="s">
+        <v>299</v>
+      </c>
+      <c r="G151" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="H151" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I151" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J151" t="s">
+        <v>300</v>
+      </c>
+      <c r="K151" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>307</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E152" t="s">
+        <v>127</v>
+      </c>
+      <c r="F152" t="s">
+        <v>295</v>
+      </c>
+      <c r="G152" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="H152" t="n">
+        <v>99.4</v>
+      </c>
+      <c r="I152" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>296</v>
+      </c>
+      <c r="K152" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E153" t="s">
+        <v>127</v>
+      </c>
+      <c r="F153" t="s">
+        <v>295</v>
+      </c>
+      <c r="G153" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="H153" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I153" t="n">
+        <v>98.6</v>
+      </c>
+      <c r="J153" t="s">
+        <v>296</v>
+      </c>
+      <c r="K153" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="E154" t="s">
+        <v>127</v>
+      </c>
+      <c r="F154" t="s">
+        <v>299</v>
+      </c>
+      <c r="G154" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="H154" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I154" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J154" t="s">
+        <v>300</v>
+      </c>
+      <c r="K154" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" t="s">
+        <v>310</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7650000</v>
+      </c>
+      <c r="E155" t="s">
+        <v>127</v>
+      </c>
+      <c r="F155" t="s">
+        <v>299</v>
+      </c>
+      <c r="G155" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="H155" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I155" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J155" t="s">
+        <v>300</v>
+      </c>
+      <c r="K155" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" t="n">
+        <v>143500</v>
+      </c>
+      <c r="E156" t="s">
+        <v>127</v>
+      </c>
+      <c r="F156" t="s">
+        <v>295</v>
+      </c>
+      <c r="G156" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="H156" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="I156" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J156" t="s">
+        <v>296</v>
+      </c>
+      <c r="K156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>302</v>
+      </c>
+      <c r="B157" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5750000</v>
+      </c>
+      <c r="E157" t="s">
+        <v>127</v>
+      </c>
+      <c r="F157" t="s">
+        <v>299</v>
+      </c>
+      <c r="G157" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="H157" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I157" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J157" t="s">
+        <v>300</v>
+      </c>
+      <c r="K157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158" t="s">
+        <v>127</v>
+      </c>
+      <c r="F158" t="s">
+        <v>315</v>
+      </c>
+      <c r="G158" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H158" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="I158" t="n">
+        <v>72.9</v>
+      </c>
+      <c r="J158" t="s">
+        <v>316</v>
+      </c>
+      <c r="K158" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" t="s">
+        <v>127</v>
+      </c>
+      <c r="F159" t="s">
+        <v>299</v>
+      </c>
+      <c r="G159" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="H159" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I159" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J159" t="s">
+        <v>300</v>
+      </c>
+      <c r="K159" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" t="n">
+        <v>166000</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
+        <v>315</v>
+      </c>
+      <c r="G160" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H160" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I160" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J160" t="s">
+        <v>316</v>
+      </c>
+      <c r="K160" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>313</v>
+      </c>
+      <c r="B161" t="s">
+        <v>322</v>
+      </c>
+      <c r="C161" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="E161" t="s">
+        <v>127</v>
+      </c>
+      <c r="F161" t="s">
+        <v>315</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H161" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="I161" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J161" t="s">
+        <v>316</v>
+      </c>
+      <c r="K161" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162" t="s">
+        <v>127</v>
+      </c>
+      <c r="F162" t="s">
+        <v>315</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I162" t="n">
+        <v>26</v>
+      </c>
+      <c r="J162" t="s">
+        <v>316</v>
+      </c>
+      <c r="K162" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>313</v>
+      </c>
+      <c r="B163" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163" t="s">
+        <v>127</v>
+      </c>
+      <c r="F163" t="s">
+        <v>315</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H163" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="I163" t="n">
+        <v>35</v>
+      </c>
+      <c r="J163" t="s">
+        <v>316</v>
+      </c>
+      <c r="K163" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>313</v>
+      </c>
+      <c r="B164" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164" t="s">
+        <v>127</v>
+      </c>
+      <c r="F164" t="s">
+        <v>315</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H164" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="I164" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="J164" t="s">
+        <v>316</v>
+      </c>
+      <c r="K164" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>313</v>
+      </c>
+      <c r="B165" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" t="s">
+        <v>327</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="H165" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="I165" t="n">
+        <v>82</v>
+      </c>
+      <c r="J165" t="s">
+        <v>328</v>
+      </c>
+      <c r="K165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>313</v>
+      </c>
+      <c r="B166" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>331</v>
+      </c>
+      <c r="G166" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="H166" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I166" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J166" t="s">
+        <v>332</v>
+      </c>
+      <c r="K166" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" t="n">
+        <v>14500</v>
+      </c>
+      <c r="E167" t="s">
+        <v>127</v>
+      </c>
+      <c r="F167" t="s">
+        <v>315</v>
+      </c>
+      <c r="G167" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="H167" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I167" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J167" t="s">
+        <v>316</v>
+      </c>
+      <c r="K167" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>123</v>
+      </c>
+      <c r="G168" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="H168" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I168" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J168" t="s">
+        <v>124</v>
+      </c>
+      <c r="K168" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" t="n">
+        <v>14300</v>
+      </c>
+      <c r="E169" t="s">
+        <v>127</v>
+      </c>
+      <c r="F169" t="s">
+        <v>123</v>
+      </c>
+      <c r="G169" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H169" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="J169" t="s">
+        <v>124</v>
+      </c>
+      <c r="K169" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170" t="s">
+        <v>342</v>
+      </c>
+      <c r="F170" t="s">
+        <v>343</v>
+      </c>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170" t="s">
+        <v>344</v>
+      </c>
+      <c r="K170" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171" t="s">
+        <v>347</v>
+      </c>
+      <c r="C171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171" t="s">
+        <v>127</v>
+      </c>
+      <c r="F171" t="s">
+        <v>331</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="H171" t="n">
+        <v>76.4</v>
+      </c>
+      <c r="I171" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J171" t="s">
+        <v>332</v>
+      </c>
+      <c r="K171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>349</v>
+      </c>
+      <c r="B172" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172"/>
+      <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
+        <v>351</v>
+      </c>
+      <c r="G172"/>
+      <c r="H172" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>352</v>
+      </c>
+      <c r="K172" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>354</v>
+      </c>
+      <c r="B173" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173" t="s">
+        <v>127</v>
+      </c>
+      <c r="F173" t="s">
+        <v>356</v>
+      </c>
+      <c r="G173" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H173" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I173" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J173" t="s">
+        <v>357</v>
+      </c>
+      <c r="K173" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" t="s">
+        <v>359</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174" t="s">
+        <v>127</v>
+      </c>
+      <c r="F174" t="s">
+        <v>360</v>
+      </c>
+      <c r="G174" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="H174" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I174" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J174" t="s">
+        <v>361</v>
+      </c>
+      <c r="K174" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>354</v>
+      </c>
+      <c r="B175" t="s">
+        <v>363</v>
+      </c>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11750</v>
+      </c>
+      <c r="E175" t="s">
+        <v>127</v>
+      </c>
+      <c r="F175" t="s">
+        <v>356</v>
+      </c>
+      <c r="G175" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="H175" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I175" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J175" t="s">
+        <v>357</v>
+      </c>
+      <c r="K175" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" t="s">
+        <v>364</v>
+      </c>
+      <c r="C176" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11750</v>
+      </c>
+      <c r="E176" t="s">
+        <v>127</v>
+      </c>
+      <c r="F176" t="s">
+        <v>356</v>
+      </c>
+      <c r="G176" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H176" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I176" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J176" t="s">
+        <v>357</v>
+      </c>
+      <c r="K176" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177" t="s">
+        <v>365</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" t="n">
+        <v>27900</v>
+      </c>
+      <c r="E177" t="s">
+        <v>127</v>
+      </c>
+      <c r="F177" t="s">
+        <v>360</v>
+      </c>
+      <c r="G177" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="H177" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I177" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J177" t="s">
+        <v>361</v>
+      </c>
+      <c r="K177" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>366</v>
+      </c>
+      <c r="C178" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" t="n">
+        <v>27900</v>
+      </c>
+      <c r="E178" t="s">
+        <v>127</v>
+      </c>
+      <c r="F178" t="s">
+        <v>360</v>
+      </c>
+      <c r="G178" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="H178" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I178" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J178" t="s">
+        <v>361</v>
+      </c>
+      <c r="K178" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>367</v>
+      </c>
+      <c r="B179" t="s">
+        <v>368</v>
+      </c>
+      <c r="C179" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" t="s">
+        <v>37</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H179" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="I179" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J179" t="s">
+        <v>38</v>
+      </c>
+      <c r="K179" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>370</v>
+      </c>
+      <c r="B180" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180" t="s">
+        <v>127</v>
+      </c>
+      <c r="F180" t="s">
+        <v>372</v>
+      </c>
+      <c r="G180" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="H180" t="n">
+        <v>98</v>
+      </c>
+      <c r="I180" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J180" t="s">
+        <v>373</v>
+      </c>
+      <c r="K180" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>370</v>
+      </c>
+      <c r="B181" t="s">
+        <v>375</v>
+      </c>
+      <c r="C181" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181" t="s">
+        <v>127</v>
+      </c>
+      <c r="F181" t="s">
+        <v>376</v>
+      </c>
+      <c r="G181"/>
+      <c r="H181" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J181" t="s">
+        <v>377</v>
+      </c>
+      <c r="K181" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182" t="s">
+        <v>140</v>
+      </c>
+      <c r="F182" t="s">
+        <v>376</v>
+      </c>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182" t="s">
+        <v>377</v>
+      </c>
+      <c r="K182" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>370</v>
+      </c>
+      <c r="B183" t="s">
+        <v>381</v>
+      </c>
+      <c r="C183" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183" t="s">
+        <v>127</v>
+      </c>
+      <c r="F183" t="s">
+        <v>372</v>
+      </c>
+      <c r="G183" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="H183" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="I183" t="n">
+        <v>89.9</v>
+      </c>
+      <c r="J183" t="s">
+        <v>373</v>
+      </c>
+      <c r="K183" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>370</v>
+      </c>
+      <c r="B184" t="s">
+        <v>382</v>
+      </c>
+      <c r="C184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184" t="s">
+        <v>127</v>
+      </c>
+      <c r="F184" t="s">
+        <v>372</v>
+      </c>
+      <c r="G184"/>
+      <c r="H184" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J184" t="s">
+        <v>373</v>
+      </c>
+      <c r="K184" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>383</v>
+      </c>
+      <c r="B185" t="s">
+        <v>384</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>127</v>
+      </c>
+      <c r="F185" t="s">
+        <v>372</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I185" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>373</v>
+      </c>
+      <c r="K185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>386</v>
+      </c>
+      <c r="B186" t="s">
+        <v>387</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186" t="s">
+        <v>127</v>
+      </c>
+      <c r="F186" t="s">
+        <v>372</v>
+      </c>
+      <c r="G186" t="n">
+        <v>8.38</v>
+      </c>
+      <c r="H186" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>373</v>
+      </c>
+      <c r="K186" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>389</v>
+      </c>
+      <c r="B187" t="s">
+        <v>390</v>
+      </c>
+      <c r="C187" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187" t="s">
+        <v>127</v>
+      </c>
+      <c r="F187" t="s">
+        <v>391</v>
+      </c>
+      <c r="G187"/>
+      <c r="H187" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J187" t="s">
+        <v>392</v>
+      </c>
+      <c r="K187" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>394</v>
+      </c>
+      <c r="B188" t="s">
+        <v>395</v>
+      </c>
+      <c r="C188" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188" t="s">
+        <v>127</v>
+      </c>
+      <c r="F188" t="s">
+        <v>391</v>
+      </c>
+      <c r="G188"/>
+      <c r="H188" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J188" t="s">
+        <v>392</v>
+      </c>
+      <c r="K188" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>397</v>
+      </c>
+      <c r="B189" t="s">
+        <v>398</v>
+      </c>
+      <c r="C189" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>127</v>
+      </c>
+      <c r="F189" t="s">
+        <v>399</v>
+      </c>
+      <c r="G189" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="H189" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>400</v>
+      </c>
+      <c r="K189" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>402</v>
+      </c>
+      <c r="B190" t="s">
+        <v>403</v>
+      </c>
+      <c r="C190" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190" t="s">
+        <v>404</v>
+      </c>
+      <c r="F190" t="s">
+        <v>405</v>
+      </c>
+      <c r="G190" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="H190" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I190" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J190" t="s">
+        <v>406</v>
+      </c>
+      <c r="K190" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>408</v>
+      </c>
+      <c r="B191" t="s">
+        <v>409</v>
+      </c>
+      <c r="C191" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191"/>
+      <c r="E191" t="s">
+        <v>410</v>
+      </c>
+      <c r="F191" t="s">
+        <v>351</v>
+      </c>
+      <c r="G191"/>
+      <c r="H191" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>352</v>
+      </c>
+      <c r="K191" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>412</v>
+      </c>
+      <c r="B192" t="s">
+        <v>413</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192"/>
+      <c r="E192" t="s">
+        <v>404</v>
+      </c>
+      <c r="F192" t="s">
+        <v>405</v>
+      </c>
+      <c r="G192" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="H192" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I192" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J192" t="s">
+        <v>406</v>
+      </c>
+      <c r="K192" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>412</v>
+      </c>
+      <c r="B193" t="s">
+        <v>415</v>
+      </c>
+      <c r="C193" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193" t="s">
+        <v>404</v>
+      </c>
+      <c r="F193" t="s">
+        <v>405</v>
+      </c>
+      <c r="G193" t="n">
+        <v>30</v>
+      </c>
+      <c r="H193" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I193" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J193" t="s">
+        <v>406</v>
+      </c>
+      <c r="K193" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>412</v>
+      </c>
+      <c r="B194" t="s">
+        <v>416</v>
+      </c>
+      <c r="C194" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194" t="s">
+        <v>404</v>
+      </c>
+      <c r="F194" t="s">
+        <v>405</v>
+      </c>
+      <c r="G194" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H194" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I194" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J194" t="s">
+        <v>406</v>
+      </c>
+      <c r="K194" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>412</v>
+      </c>
+      <c r="B195" t="s">
+        <v>417</v>
+      </c>
+      <c r="C195" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195" t="s">
+        <v>404</v>
+      </c>
+      <c r="F195" t="s">
+        <v>405</v>
+      </c>
+      <c r="G195" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H195" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I195" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J195" t="s">
+        <v>406</v>
+      </c>
+      <c r="K195" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>418</v>
+      </c>
+      <c r="B196" t="s">
+        <v>419</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196" t="s">
+        <v>410</v>
+      </c>
+      <c r="F196" t="s">
+        <v>420</v>
+      </c>
+      <c r="G196"/>
+      <c r="H196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>421</v>
+      </c>
+      <c r="K196" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>423</v>
+      </c>
+      <c r="B197" t="s">
+        <v>424</v>
+      </c>
+      <c r="C197" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197" t="s">
+        <v>410</v>
+      </c>
+      <c r="F197" t="s">
+        <v>425</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H197" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I197" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J197" t="s">
+        <v>426</v>
+      </c>
+      <c r="K197" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>428</v>
+      </c>
+      <c r="B198" t="s">
+        <v>429</v>
+      </c>
+      <c r="C198" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198"/>
+      <c r="E198" t="s">
+        <v>410</v>
+      </c>
+      <c r="F198" t="s">
+        <v>430</v>
+      </c>
+      <c r="G198"/>
+      <c r="H198" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J198" t="s">
+        <v>431</v>
+      </c>
+      <c r="K198" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>433</v>
+      </c>
+      <c r="B199" t="s">
+        <v>434</v>
+      </c>
+      <c r="C199" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199"/>
+      <c r="E199" t="s">
+        <v>435</v>
+      </c>
+      <c r="F199" t="s">
+        <v>290</v>
+      </c>
+      <c r="G199"/>
+      <c r="H199" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>291</v>
+      </c>
+      <c r="K199" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>433</v>
+      </c>
+      <c r="B200" t="s">
+        <v>437</v>
+      </c>
+      <c r="C200" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200" t="s">
+        <v>438</v>
+      </c>
+      <c r="F200" t="s">
+        <v>290</v>
+      </c>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200" t="s">
+        <v>291</v>
+      </c>
+      <c r="K200" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>433</v>
+      </c>
+      <c r="B201" t="s">
+        <v>440</v>
+      </c>
+      <c r="C201" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201" t="s">
+        <v>441</v>
+      </c>
+      <c r="F201" t="s">
+        <v>290</v>
+      </c>
+      <c r="G201"/>
+      <c r="H201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J201" t="s">
+        <v>291</v>
+      </c>
+      <c r="K201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>433</v>
+      </c>
+      <c r="B202" t="s">
+        <v>443</v>
+      </c>
+      <c r="C202" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202"/>
+      <c r="E202" t="s">
+        <v>444</v>
+      </c>
+      <c r="F202" t="s">
+        <v>290</v>
+      </c>
+      <c r="G202"/>
+      <c r="H202" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J202" t="s">
+        <v>291</v>
+      </c>
+      <c r="K202" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>446</v>
+      </c>
+      <c r="B203" t="s">
+        <v>447</v>
+      </c>
+      <c r="C203" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203"/>
+      <c r="E203" t="s">
+        <v>448</v>
+      </c>
+      <c r="F203" t="s">
+        <v>449</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H203" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>450</v>
+      </c>
+      <c r="K203" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>452</v>
+      </c>
+      <c r="B204" t="s">
+        <v>453</v>
+      </c>
+      <c r="C204" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204"/>
+      <c r="E204" t="s">
+        <v>410</v>
+      </c>
+      <c r="F204" t="s">
+        <v>454</v>
+      </c>
+      <c r="G204"/>
+      <c r="H204" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J204" t="s">
+        <v>455</v>
+      </c>
+      <c r="K204" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>457</v>
+      </c>
+      <c r="B205" t="s">
+        <v>458</v>
+      </c>
+      <c r="C205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205" t="s">
+        <v>459</v>
+      </c>
+      <c r="F205" t="s">
+        <v>315</v>
+      </c>
+      <c r="G205"/>
+      <c r="H205" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>316</v>
+      </c>
+      <c r="K205" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>457</v>
+      </c>
+      <c r="B206" t="s">
+        <v>461</v>
+      </c>
+      <c r="C206" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206" t="s">
+        <v>448</v>
+      </c>
+      <c r="F206" t="s">
+        <v>315</v>
+      </c>
+      <c r="G206"/>
+      <c r="H206" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J206" t="s">
+        <v>316</v>
+      </c>
+      <c r="K206" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>457</v>
+      </c>
+      <c r="B207" t="s">
+        <v>463</v>
+      </c>
+      <c r="C207" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207"/>
+      <c r="E207" t="s">
+        <v>464</v>
+      </c>
+      <c r="F207" t="s">
+        <v>315</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H207" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="I207" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J207" t="s">
+        <v>316</v>
+      </c>
+      <c r="K207" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208" t="s">
+        <v>466</v>
+      </c>
+      <c r="C208" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208" t="s">
+        <v>467</v>
+      </c>
+      <c r="F208" t="s">
+        <v>315</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H208" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="I208" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J208" t="s">
+        <v>316</v>
+      </c>
+      <c r="K208" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>469</v>
+      </c>
+      <c r="B209" t="s">
+        <v>470</v>
+      </c>
+      <c r="C209" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209"/>
+      <c r="E209" t="s">
+        <v>410</v>
+      </c>
+      <c r="F209" t="s">
+        <v>471</v>
+      </c>
+      <c r="G209"/>
+      <c r="H209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J209" t="s">
+        <v>472</v>
+      </c>
+      <c r="K209" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>474</v>
+      </c>
+      <c r="B210" t="s">
+        <v>475</v>
+      </c>
+      <c r="C210" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210"/>
+      <c r="E210" t="s">
+        <v>410</v>
+      </c>
+      <c r="F210" t="s">
+        <v>372</v>
+      </c>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210" t="s">
+        <v>373</v>
+      </c>
+      <c r="K210" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>477</v>
+      </c>
+      <c r="B211" t="s">
+        <v>478</v>
+      </c>
+      <c r="C211" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211" t="s">
+        <v>410</v>
+      </c>
+      <c r="F211" t="s">
+        <v>479</v>
+      </c>
+      <c r="G211"/>
+      <c r="H211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J211" t="s">
+        <v>480</v>
+      </c>
+      <c r="K211" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>482</v>
+      </c>
+      <c r="B212" t="s">
+        <v>483</v>
+      </c>
+      <c r="C212" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212" t="s">
+        <v>410</v>
+      </c>
+      <c r="F212" t="s">
+        <v>484</v>
+      </c>
+      <c r="G212"/>
+      <c r="H212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>485</v>
+      </c>
+      <c r="K212" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/sampleSummary.xlsx
+++ b/summaries/sampleSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -500,19 +500,10 @@
     <t xml:space="preserve">235 NP-OP 20200424</t>
   </si>
   <si>
-    <t xml:space="preserve">237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237 NP-OP 20200427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0037</t>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0039</t>
   </si>
   <si>
     <t xml:space="preserve">2020-04-29</t>
@@ -521,40 +512,67 @@
     <t xml:space="preserve">20200429</t>
   </si>
   <si>
-    <t xml:space="preserve">237 NP 20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237 OP 20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0033-1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0033-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0034-1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0034-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0037-1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0037-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0038-1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0038-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0084-1</t>
+    <t xml:space="preserve">238 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0039-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0039-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 OP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0041-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0041-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0042-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0042-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0046-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240 NP-OP 20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0085</t>
   </si>
   <si>
     <t xml:space="preserve">2020-05-06</t>
@@ -563,78 +581,6 @@
     <t xml:space="preserve">20200506</t>
   </si>
   <si>
-    <t xml:space="preserve">237 Saliva 20200506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238 NP 20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0039-1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0039-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239 NP 20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239 OP 20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0041-1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0041-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0042-1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0042-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0046-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240 NP-OP 20200501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">242 NP 20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0085</t>
-  </si>
-  <si>
     <t xml:space="preserve">242 ETA 20200506</t>
   </si>
   <si>
@@ -1238,18 +1184,6 @@
     <t xml:space="preserve">CCLB Vero cells 20200328</t>
   </si>
   <si>
-    <t xml:space="preserve">CRD4J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9993-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WaterControl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRD4J WaterControl 20200626</t>
-  </si>
-  <si>
     <t xml:space="preserve">E6</t>
   </si>
   <si>
@@ -1268,63 +1202,9 @@
     <t xml:space="preserve">VSP0002-3m</t>
   </si>
   <si>
-    <t xml:space="preserve">J2J3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9997-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2J3B WaterControl 20200725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J327N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9998-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J327N WaterControl 20200805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J37GK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9991-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J37GK WaterControl 20200613</t>
-  </si>
-  <si>
     <t xml:space="preserve">J37K3</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP9986-1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20_PCR-1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J37K3 H20_PCR-1b 20200518</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP9987-1b</t>
   </si>
   <si>
@@ -1334,15 +1214,6 @@
     <t xml:space="preserve">J37K3 H2O_RT-1b 20200518</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP9988-1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20_PCR-1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J37K3 H20_PCR-1a 20200518</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP9989-1a</t>
   </si>
   <si>
@@ -1370,21 +1241,6 @@
     <t xml:space="preserve">J37ML H2O-1a 20200609</t>
   </si>
   <si>
-    <t xml:space="preserve">J3NJJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9992-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3NJJ WaterControl 20200618</t>
-  </si>
-  <si>
     <t xml:space="preserve">J3R26</t>
   </si>
   <si>
@@ -1401,78 +1257,6 @@
   </si>
   <si>
     <t xml:space="preserve">J3R26 H2O-1a 20200527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9984-1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MockR-1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3R26 MockR-1b 20200527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9985-1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MockR-1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3R26 MockR-1a 20200527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J77FG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9994-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J77FG WaterControl 20200703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J77FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9995-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J77FR WaterControl 20200713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J78FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9996-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J78FF WaterControl 20200720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JB8CJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP9999-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JB8CJ WaterControl 20200824</t>
   </si>
 </sst>
 </file>
@@ -4335,25 +4119,25 @@
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G76" t="n">
-        <v>29.97</v>
+        <v>29.89</v>
       </c>
       <c r="H76" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I76" t="n">
         <v>99.8</v>
       </c>
       <c r="J76" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K76" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77">
@@ -4361,32 +4145,32 @@
         <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G77" t="n">
-        <v>29.84</v>
+        <v>29.67</v>
       </c>
       <c r="H77" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="I77" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="J77" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K77" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78">
@@ -4394,37 +4178,39 @@
         <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78"/>
+        <v>19</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2465</v>
+      </c>
       <c r="E78" t="s">
         <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G78" t="n">
-        <v>24.92</v>
+        <v>29.89</v>
       </c>
       <c r="H78" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="I78" t="n">
-        <v>98.9</v>
+        <v>99.8</v>
       </c>
       <c r="J78" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
         <v>170</v>
@@ -4434,22 +4220,22 @@
       </c>
       <c r="D79"/>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F79" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G79" t="n">
-        <v>29.92</v>
+        <v>30.06</v>
       </c>
       <c r="H79" t="n">
         <v>99.9</v>
       </c>
       <c r="I79" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="J79" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K79" t="s">
         <v>171</v>
@@ -4457,842 +4243,834 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
         <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D80"/>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G80" t="n">
-        <v>28.58</v>
+        <v>27.48</v>
       </c>
       <c r="H80" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I80" t="n">
         <v>99.8</v>
       </c>
       <c r="J80" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K80" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
       </c>
-      <c r="D81" t="n">
-        <v>2985</v>
-      </c>
+      <c r="D81"/>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G81" t="n">
-        <v>29.89</v>
+        <v>29.83</v>
       </c>
       <c r="H81" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I81" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="J81" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K81" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G82" t="n">
-        <v>29.81</v>
+        <v>19.05</v>
       </c>
       <c r="H82" t="n">
         <v>99.8</v>
       </c>
       <c r="I82" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="J82" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K82" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D83" t="n">
-        <v>1895000</v>
-      </c>
+      <c r="D83"/>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
-        <v>22.45</v>
+        <v>1.12</v>
       </c>
       <c r="H83" t="n">
-        <v>98.8</v>
+        <v>70.2</v>
       </c>
       <c r="I83" t="n">
-        <v>98.5</v>
+        <v>63.2</v>
       </c>
       <c r="J83" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K83" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
       </c>
-      <c r="D84"/>
+      <c r="D84" t="n">
+        <v>6490</v>
+      </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
-        <v>6.66</v>
+        <v>1.09</v>
       </c>
       <c r="H84" t="n">
-        <v>89.3</v>
+        <v>81</v>
       </c>
       <c r="I84" t="n">
-        <v>86.2</v>
+        <v>64.7</v>
       </c>
       <c r="J84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K84" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C85" t="s">
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>770</v>
+        <v>364000</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F85" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G85" t="n">
-        <v>11.42</v>
+        <v>29.45</v>
       </c>
       <c r="H85" t="n">
-        <v>95.2</v>
+        <v>99.9</v>
       </c>
       <c r="I85" t="n">
-        <v>94.4</v>
+        <v>99.8</v>
       </c>
       <c r="J85" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K85" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D86"/>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
-        <v>22.46</v>
+        <v>29.88</v>
       </c>
       <c r="H86" t="n">
         <v>99.9</v>
       </c>
       <c r="I86" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="J86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K86" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2060</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D87"/>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>167</v>
-      </c>
-      <c r="G87" t="n">
-        <v>22.32</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G87"/>
       <c r="H87" t="n">
-        <v>99.7</v>
+        <v>6.4</v>
       </c>
       <c r="I87" t="n">
-        <v>98.9</v>
+        <v>1.8</v>
       </c>
       <c r="J87" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K87" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C88" t="s">
         <v>19</v>
       </c>
       <c r="D88"/>
       <c r="E88" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="F88" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>29.84</v>
       </c>
       <c r="H88" t="n">
-        <v>78.5</v>
+        <v>99.8</v>
       </c>
       <c r="I88" t="n">
-        <v>77</v>
+        <v>99.7</v>
       </c>
       <c r="J88" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89"/>
+        <v>19</v>
+      </c>
+      <c r="D89" t="n">
+        <v>197500</v>
+      </c>
       <c r="E89" t="s">
         <v>52</v>
       </c>
       <c r="F89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
-        <v>29.89</v>
+        <v>16.6</v>
       </c>
       <c r="H89" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I89" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
         <v>19</v>
       </c>
-      <c r="D90"/>
+      <c r="D90" t="n">
+        <v>667</v>
+      </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G90" t="n">
-        <v>29.67</v>
+        <v>29.72</v>
       </c>
       <c r="H90" t="n">
-        <v>99.2</v>
+        <v>99.6</v>
       </c>
       <c r="I90" t="n">
         <v>99.2</v>
       </c>
       <c r="J90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K90" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
         <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>2465</v>
+        <v>222000</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F91" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>29.89</v>
       </c>
       <c r="H91" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I91" t="n">
         <v>99.8</v>
       </c>
       <c r="J91" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K91" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92"/>
+        <v>19</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1420000</v>
+      </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G92" t="n">
-        <v>30.06</v>
+        <v>29.31</v>
       </c>
       <c r="H92" t="n">
         <v>99.9</v>
       </c>
       <c r="I92" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J92" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="K92" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J93" t="s">
+        <v>188</v>
+      </c>
+      <c r="K93" t="s">
         <v>189</v>
-      </c>
-      <c r="B93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" t="s">
-        <v>167</v>
-      </c>
-      <c r="G93" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="H93" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I93" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J93" t="s">
-        <v>168</v>
-      </c>
-      <c r="K93" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>187</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" t="s">
+        <v>188</v>
+      </c>
+      <c r="K94" t="s">
         <v>189</v>
-      </c>
-      <c r="B94" t="s">
-        <v>194</v>
-      </c>
-      <c r="C94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94" t="s">
-        <v>52</v>
-      </c>
-      <c r="F94" t="s">
-        <v>167</v>
-      </c>
-      <c r="G94" t="n">
-        <v>29.83</v>
-      </c>
-      <c r="H94" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I94" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J94" t="s">
-        <v>168</v>
-      </c>
-      <c r="K94" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>187</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95" t="s">
+        <v>188</v>
+      </c>
+      <c r="K95" t="s">
         <v>189</v>
-      </c>
-      <c r="B95" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95" t="s">
-        <v>52</v>
-      </c>
-      <c r="F95" t="s">
-        <v>167</v>
-      </c>
-      <c r="G95" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="H95" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="J95" t="s">
-        <v>168</v>
-      </c>
-      <c r="K95" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>187</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96" t="s">
+        <v>188</v>
+      </c>
+      <c r="K96" t="s">
         <v>189</v>
-      </c>
-      <c r="B96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F96" t="s">
-        <v>167</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H96" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="J96" t="s">
-        <v>168</v>
-      </c>
-      <c r="K96" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B97" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" t="s">
         <v>197</v>
       </c>
-      <c r="C97" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6490</v>
-      </c>
-      <c r="E97" t="s">
-        <v>55</v>
-      </c>
-      <c r="F97" t="s">
-        <v>167</v>
-      </c>
       <c r="G97" t="n">
-        <v>1.09</v>
+        <v>1.74</v>
       </c>
       <c r="H97" t="n">
-        <v>81</v>
+        <v>51.9</v>
       </c>
       <c r="I97" t="n">
-        <v>64.7</v>
+        <v>43.6</v>
       </c>
       <c r="J97" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="K97" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="D98" t="n">
-        <v>364000</v>
+        <v>2820</v>
       </c>
       <c r="E98" t="s">
         <v>127</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G98" t="n">
-        <v>29.45</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
-        <v>99.9</v>
+        <v>18.9</v>
       </c>
       <c r="I98" t="n">
-        <v>99.8</v>
+        <v>15.4</v>
       </c>
       <c r="J98" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K98" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99"/>
+        <v>19</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2820</v>
+      </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F99" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G99" t="n">
-        <v>29.88</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
-        <v>99.9</v>
+        <v>24.1</v>
       </c>
       <c r="I99" t="n">
-        <v>99.8</v>
+        <v>20</v>
       </c>
       <c r="J99" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="K99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2820</v>
+      </c>
+      <c r="E100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" t="s">
+        <v>197</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H100" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>198</v>
+      </c>
+      <c r="K100" t="s">
         <v>206</v>
-      </c>
-      <c r="C100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J100" t="s">
-        <v>182</v>
-      </c>
-      <c r="K100" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
-      <c r="D101"/>
+      <c r="D101" t="n">
+        <v>2820</v>
+      </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F101" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
-        <v>29.84</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
-        <v>99.8</v>
+        <v>18.8</v>
       </c>
       <c r="I101" t="n">
-        <v>99.7</v>
+        <v>13.9</v>
       </c>
       <c r="J101" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="K101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" t="n">
-        <v>197500</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D102"/>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F102" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G102" t="n">
-        <v>16.6</v>
+        <v>21.42</v>
       </c>
       <c r="H102" t="n">
-        <v>99.9</v>
+        <v>99.2</v>
       </c>
       <c r="I102" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="J102" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K102" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C103" t="s">
         <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>667</v>
+        <v>2190</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="F103" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G103" t="n">
-        <v>29.72</v>
+        <v>4.73</v>
       </c>
       <c r="H103" t="n">
-        <v>99.6</v>
+        <v>83.3</v>
       </c>
       <c r="I103" t="n">
-        <v>99.2</v>
+        <v>81.3</v>
       </c>
       <c r="J103" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K103" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
       </c>
       <c r="D104" t="n">
-        <v>222000</v>
+        <v>2190</v>
       </c>
       <c r="E104" t="s">
         <v>127</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G104" t="n">
-        <v>29.89</v>
+        <v>7.49</v>
       </c>
       <c r="H104" t="n">
-        <v>99.9</v>
+        <v>91.5</v>
       </c>
       <c r="I104" t="n">
-        <v>99.8</v>
+        <v>89.8</v>
       </c>
       <c r="J104" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K104" t="s">
         <v>213</v>
@@ -5300,503 +5078,513 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
       </c>
       <c r="D105" t="n">
-        <v>1420000</v>
+        <v>2190</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F105" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="G105" t="n">
-        <v>29.31</v>
+        <v>10.14</v>
       </c>
       <c r="H105" t="n">
-        <v>99.9</v>
+        <v>97.7</v>
       </c>
       <c r="I105" t="n">
-        <v>99.7</v>
+        <v>96.5</v>
       </c>
       <c r="J105" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="K105" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
       </c>
       <c r="D106" t="n">
-        <v>8.54</v>
+        <v>2190</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="H106" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="I106" t="n">
+        <v>90.1</v>
+      </c>
+      <c r="J106" t="s">
         <v>181</v>
       </c>
-      <c r="G106"/>
-      <c r="H106" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J106" t="s">
-        <v>182</v>
-      </c>
       <c r="K106" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
         <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" t="n">
-        <v>42.7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D107"/>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>181</v>
-      </c>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
+        <v>187</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H107" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="I107" t="n">
+        <v>81.7</v>
+      </c>
       <c r="J107" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K107" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
       </c>
       <c r="D108" t="n">
-        <v>42.7</v>
+        <v>1730</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>181</v>
-      </c>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
+        <v>187</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H108" t="n">
+        <v>87.1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>72.5</v>
+      </c>
       <c r="J108" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K108" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
       </c>
       <c r="D109" t="n">
-        <v>42.7</v>
+        <v>8650</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K109" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B110" t="s">
         <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110"/>
+        <v>19</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8650</v>
+      </c>
       <c r="E110" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="G110" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="H110" t="n">
-        <v>51.9</v>
+        <v>73.8</v>
       </c>
       <c r="I110" t="n">
-        <v>43.6</v>
+        <v>29.3</v>
       </c>
       <c r="J110" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="K110" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B111" t="s">
         <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2820</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D111"/>
       <c r="E111" t="s">
         <v>127</v>
       </c>
       <c r="F111" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>29.94</v>
       </c>
       <c r="H111" t="n">
-        <v>18.9</v>
+        <v>99.9</v>
       </c>
       <c r="I111" t="n">
-        <v>15.4</v>
+        <v>99.8</v>
       </c>
       <c r="J111" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2820</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D112"/>
       <c r="E112" t="s">
         <v>127</v>
       </c>
       <c r="F112" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>30</v>
       </c>
       <c r="H112" t="n">
-        <v>24.1</v>
+        <v>99.9</v>
       </c>
       <c r="I112" t="n">
-        <v>20</v>
+        <v>99.7</v>
       </c>
       <c r="J112" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="K112" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
       </c>
       <c r="D113" t="n">
-        <v>2820</v>
+        <v>7550000</v>
       </c>
       <c r="E113" t="s">
         <v>127</v>
       </c>
       <c r="F113" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G113" t="n">
-        <v>0.96</v>
+        <v>29.88</v>
       </c>
       <c r="H113" t="n">
-        <v>18.9</v>
+        <v>99.9</v>
       </c>
       <c r="I113" t="n">
-        <v>15.3</v>
+        <v>99.8</v>
       </c>
       <c r="J113" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="K113" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="D114" t="n">
-        <v>2820</v>
+        <v>7550000</v>
       </c>
       <c r="E114" t="s">
         <v>127</v>
       </c>
       <c r="F114" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>29.85</v>
       </c>
       <c r="H114" t="n">
-        <v>18.8</v>
+        <v>99.8</v>
       </c>
       <c r="I114" t="n">
-        <v>13.9</v>
+        <v>99.3</v>
       </c>
       <c r="J114" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="K114" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115"/>
+        <v>19</v>
+      </c>
+      <c r="D115" t="n">
+        <v>255500</v>
+      </c>
       <c r="E115" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G115" t="n">
-        <v>21.42</v>
+        <v>29.82</v>
       </c>
       <c r="H115" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="I115" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="J115" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
       </c>
       <c r="D116" t="n">
-        <v>2190</v>
+        <v>570000</v>
       </c>
       <c r="E116" t="s">
         <v>127</v>
       </c>
       <c r="F116" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G116" t="n">
-        <v>4.73</v>
+        <v>29.91</v>
       </c>
       <c r="H116" t="n">
-        <v>83.3</v>
+        <v>99.9</v>
       </c>
       <c r="I116" t="n">
-        <v>81.3</v>
+        <v>99.7</v>
       </c>
       <c r="J116" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
       </c>
       <c r="D117" t="n">
-        <v>2190</v>
+        <v>570000</v>
       </c>
       <c r="E117" t="s">
         <v>127</v>
       </c>
       <c r="F117" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G117" t="n">
-        <v>7.49</v>
+        <v>29.86</v>
       </c>
       <c r="H117" t="n">
-        <v>91.5</v>
+        <v>99.3</v>
       </c>
       <c r="I117" t="n">
-        <v>89.8</v>
+        <v>98.6</v>
       </c>
       <c r="J117" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
       </c>
       <c r="D118" t="n">
-        <v>2190</v>
+        <v>890000</v>
       </c>
       <c r="E118" t="s">
         <v>127</v>
       </c>
       <c r="F118" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G118" t="n">
-        <v>10.14</v>
+        <v>24.79</v>
       </c>
       <c r="H118" t="n">
-        <v>97.7</v>
+        <v>99.8</v>
       </c>
       <c r="I118" t="n">
-        <v>96.5</v>
+        <v>99.1</v>
       </c>
       <c r="J118" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2190</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D119"/>
       <c r="E119" t="s">
         <v>127</v>
       </c>
       <c r="F119" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G119" t="n">
-        <v>10.21</v>
+        <v>29.99</v>
       </c>
       <c r="H119" t="n">
-        <v>90.7</v>
+        <v>99.9</v>
       </c>
       <c r="I119" t="n">
-        <v>90.1</v>
+        <v>99.9</v>
       </c>
       <c r="J119" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="K119" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120">
@@ -5804,32 +5592,32 @@
         <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="D120"/>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F120" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="G120" t="n">
-        <v>5.12</v>
+        <v>2.63</v>
       </c>
       <c r="H120" t="n">
-        <v>95.3</v>
+        <v>62</v>
       </c>
       <c r="I120" t="n">
-        <v>81.7</v>
+        <v>58.2</v>
       </c>
       <c r="J120" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="K120" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121">
@@ -5837,34 +5625,34 @@
         <v>236</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
       </c>
       <c r="D121" t="n">
-        <v>1730</v>
+        <v>2760000</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
-        <v>3.39</v>
+        <v>29.82</v>
       </c>
       <c r="H121" t="n">
-        <v>87.1</v>
+        <v>99.7</v>
       </c>
       <c r="I121" t="n">
-        <v>72.5</v>
+        <v>99.7</v>
       </c>
       <c r="J121" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="K121" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122">
@@ -5872,28 +5660,34 @@
         <v>236</v>
       </c>
       <c r="B122" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="n">
+        <v>595000</v>
+      </c>
+      <c r="E122" t="s">
+        <v>127</v>
+      </c>
+      <c r="F122" t="s">
+        <v>238</v>
+      </c>
+      <c r="G122" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="H122" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I122" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J122" t="s">
+        <v>239</v>
+      </c>
+      <c r="K122" t="s">
         <v>240</v>
-      </c>
-      <c r="C122" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" t="n">
-        <v>8650</v>
-      </c>
-      <c r="E122" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" t="s">
-        <v>181</v>
-      </c>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122" t="s">
-        <v>182</v>
-      </c>
-      <c r="K122" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="123">
@@ -5901,64 +5695,66 @@
         <v>236</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" t="n">
-        <v>8650</v>
+        <v>595000</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F123" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
-        <v>1.88</v>
+        <v>29.99</v>
       </c>
       <c r="H123" t="n">
-        <v>73.8</v>
+        <v>99.9</v>
       </c>
       <c r="I123" t="n">
-        <v>29.3</v>
+        <v>99.8</v>
       </c>
       <c r="J123" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="K123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124"/>
+        <v>19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>269</v>
+      </c>
       <c r="E124" t="s">
         <v>127</v>
       </c>
       <c r="F124" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
-        <v>29.94</v>
+        <v>2.67</v>
       </c>
       <c r="H124" t="n">
-        <v>99.9</v>
+        <v>56.6</v>
       </c>
       <c r="I124" t="n">
-        <v>99.8</v>
+        <v>53.5</v>
       </c>
       <c r="J124" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K124" t="s">
         <v>244</v>
@@ -5966,67 +5762,69 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125"/>
+        <v>19</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1345</v>
+      </c>
       <c r="E125" t="s">
         <v>127</v>
       </c>
       <c r="F125" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
-        <v>30</v>
+        <v>0.58</v>
       </c>
       <c r="H125" t="n">
-        <v>99.9</v>
+        <v>9.2</v>
       </c>
       <c r="I125" t="n">
-        <v>99.7</v>
+        <v>5.7</v>
       </c>
       <c r="J125" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="K125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
       </c>
       <c r="D126" t="n">
-        <v>7550000</v>
+        <v>1345</v>
       </c>
       <c r="E126" t="s">
         <v>127</v>
       </c>
       <c r="F126" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
-        <v>29.88</v>
+        <v>0.53</v>
       </c>
       <c r="H126" t="n">
-        <v>99.9</v>
+        <v>10.9</v>
       </c>
       <c r="I126" t="n">
-        <v>99.8</v>
+        <v>7.7</v>
       </c>
       <c r="J126" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K126" t="s">
         <v>244</v>
@@ -6034,34 +5832,34 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
       </c>
       <c r="D127" t="n">
-        <v>7550000</v>
+        <v>1345</v>
       </c>
       <c r="E127" t="s">
         <v>127</v>
       </c>
       <c r="F127" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
-        <v>29.85</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
-        <v>99.8</v>
+        <v>10.6</v>
       </c>
       <c r="I127" t="n">
-        <v>99.3</v>
+        <v>6.8</v>
       </c>
       <c r="J127" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K127" t="s">
         <v>244</v>
@@ -6069,188 +5867,186 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B128" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
       </c>
       <c r="D128" t="n">
-        <v>255500</v>
+        <v>123000</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
-        <v>29.82</v>
+        <v>29.89</v>
       </c>
       <c r="H128" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I128" t="n">
         <v>99.8</v>
       </c>
       <c r="J128" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="K128" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
       </c>
       <c r="D129" t="n">
-        <v>570000</v>
+        <v>51800</v>
       </c>
       <c r="E129" t="s">
         <v>127</v>
       </c>
       <c r="F129" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G129" t="n">
-        <v>29.91</v>
+        <v>29.93</v>
       </c>
       <c r="H129" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I129" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J129" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="K129" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B130" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
       </c>
-      <c r="D130" t="n">
-        <v>570000</v>
-      </c>
+      <c r="D130"/>
       <c r="E130" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G130" t="n">
-        <v>29.86</v>
+        <v>7.26</v>
       </c>
       <c r="H130" t="n">
-        <v>99.3</v>
+        <v>98.1</v>
       </c>
       <c r="I130" t="n">
-        <v>98.6</v>
+        <v>95.1</v>
       </c>
       <c r="J130" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="K130" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
       </c>
-      <c r="D131" t="n">
-        <v>890000</v>
-      </c>
+      <c r="D131"/>
       <c r="E131" t="s">
         <v>127</v>
       </c>
       <c r="F131" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G131" t="n">
-        <v>24.79</v>
+        <v>29.82</v>
       </c>
       <c r="H131" t="n">
         <v>99.8</v>
       </c>
       <c r="I131" t="n">
-        <v>99.1</v>
+        <v>99.7</v>
       </c>
       <c r="J131" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="K131" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D132"/>
       <c r="E132" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
-        <v>29.99</v>
+        <v>29.81</v>
       </c>
       <c r="H132" t="n">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="I132" t="n">
-        <v>99.9</v>
+        <v>99.6</v>
       </c>
       <c r="J132" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K132" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133"/>
+        <v>19</v>
+      </c>
+      <c r="D133" t="n">
+        <v>172000</v>
+      </c>
       <c r="E133" t="s">
         <v>127</v>
       </c>
@@ -6258,77 +6054,75 @@
         <v>260</v>
       </c>
       <c r="G133" t="n">
-        <v>2.63</v>
+        <v>29.85</v>
       </c>
       <c r="H133" t="n">
-        <v>62</v>
+        <v>99.8</v>
       </c>
       <c r="I133" t="n">
-        <v>58.2</v>
+        <v>99.8</v>
       </c>
       <c r="J133" t="s">
         <v>261</v>
       </c>
       <c r="K133" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
       </c>
-      <c r="D134" t="n">
-        <v>2760000</v>
-      </c>
+      <c r="D134"/>
       <c r="E134" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="G134" t="n">
-        <v>29.82</v>
+        <v>8.68</v>
       </c>
       <c r="H134" t="n">
-        <v>99.7</v>
+        <v>90.7</v>
       </c>
       <c r="I134" t="n">
-        <v>99.7</v>
+        <v>89.5</v>
       </c>
       <c r="J134" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="K134" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
       </c>
       <c r="D135" t="n">
-        <v>595000</v>
+        <v>58500000000</v>
       </c>
       <c r="E135" t="s">
         <v>127</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="G135" t="n">
-        <v>29.88</v>
+        <v>29.98</v>
       </c>
       <c r="H135" t="n">
         <v>99.9</v>
@@ -6337,208 +6131,204 @@
         <v>99.8</v>
       </c>
       <c r="J135" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="K135" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
       </c>
       <c r="D136" t="n">
-        <v>595000</v>
+        <v>37550000000</v>
       </c>
       <c r="E136" t="s">
         <v>127</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G136" t="n">
-        <v>29.99</v>
+        <v>29.86</v>
       </c>
       <c r="H136" t="n">
         <v>99.9</v>
       </c>
       <c r="I136" t="n">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="J136" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K136" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" t="n">
-        <v>269</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D137"/>
       <c r="E137" t="s">
         <v>127</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G137" t="n">
-        <v>2.67</v>
+        <v>22.33</v>
       </c>
       <c r="H137" t="n">
-        <v>56.6</v>
+        <v>99.8</v>
       </c>
       <c r="I137" t="n">
-        <v>53.5</v>
+        <v>99</v>
       </c>
       <c r="J137" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K137" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B138" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1345</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D138"/>
       <c r="E138" t="s">
         <v>127</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G138" t="n">
-        <v>0.58</v>
+        <v>29.75</v>
       </c>
       <c r="H138" t="n">
-        <v>9.2</v>
+        <v>99.9</v>
       </c>
       <c r="I138" t="n">
-        <v>5.7</v>
+        <v>99.8</v>
       </c>
       <c r="J138" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="K138" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B139" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
       </c>
       <c r="D139" t="n">
-        <v>1345</v>
+        <v>17000</v>
       </c>
       <c r="E139" t="s">
         <v>127</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G139" t="n">
-        <v>0.53</v>
+        <v>21.42</v>
       </c>
       <c r="H139" t="n">
-        <v>10.9</v>
+        <v>99.4</v>
       </c>
       <c r="I139" t="n">
-        <v>7.7</v>
+        <v>98.2</v>
       </c>
       <c r="J139" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K139" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C140" t="s">
         <v>19</v>
       </c>
       <c r="D140" t="n">
-        <v>1345</v>
+        <v>85000</v>
       </c>
       <c r="E140" t="s">
         <v>127</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>22.33</v>
       </c>
       <c r="H140" t="n">
-        <v>10.6</v>
+        <v>99.7</v>
       </c>
       <c r="I140" t="n">
-        <v>6.8</v>
+        <v>98.6</v>
       </c>
       <c r="J140" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K140" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
       </c>
       <c r="D141" t="n">
-        <v>123000</v>
+        <v>1530000</v>
       </c>
       <c r="E141" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F141" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G141" t="n">
-        <v>29.89</v>
+        <v>29.75</v>
       </c>
       <c r="H141" t="n">
         <v>99.9</v>
@@ -6547,647 +6337,635 @@
         <v>99.8</v>
       </c>
       <c r="J141" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="K141" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C142" t="s">
         <v>19</v>
       </c>
       <c r="D142" t="n">
-        <v>51800</v>
+        <v>7650000</v>
       </c>
       <c r="E142" t="s">
         <v>127</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G142" t="n">
-        <v>29.93</v>
+        <v>29.84</v>
       </c>
       <c r="H142" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I142" t="n">
         <v>99.8</v>
       </c>
       <c r="J142" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K142" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" t="n">
+        <v>143500</v>
+      </c>
+      <c r="E143" t="s">
+        <v>127</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
       </c>
-      <c r="C143" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143"/>
-      <c r="E143" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="G143" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="H143" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="I143" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J143" t="s">
         <v>278</v>
       </c>
-      <c r="G143" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="H143" t="n">
-        <v>98.1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>95.1</v>
-      </c>
-      <c r="J143" t="s">
-        <v>279</v>
-      </c>
       <c r="K143" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
       </c>
-      <c r="D144"/>
+      <c r="D144" t="n">
+        <v>5750000</v>
+      </c>
       <c r="E144" t="s">
         <v>127</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
-        <v>29.82</v>
+        <v>29.86</v>
       </c>
       <c r="H144" t="n">
         <v>99.8</v>
       </c>
       <c r="I144" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J144" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K144" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D145"/>
       <c r="E145" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="G145" t="n">
-        <v>29.81</v>
+        <v>3.7</v>
       </c>
       <c r="H145" t="n">
-        <v>99.7</v>
+        <v>89.8</v>
       </c>
       <c r="I145" t="n">
-        <v>99.6</v>
+        <v>72.9</v>
       </c>
       <c r="J145" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="K145" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C146" t="s">
         <v>19</v>
       </c>
-      <c r="D146" t="n">
-        <v>172000</v>
-      </c>
+      <c r="D146"/>
       <c r="E146" t="s">
         <v>127</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
-        <v>29.85</v>
+        <v>29.84</v>
       </c>
       <c r="H146" t="n">
         <v>99.8</v>
       </c>
       <c r="I146" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="J146" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K146" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
       </c>
-      <c r="D147"/>
+      <c r="D147" t="n">
+        <v>166000</v>
+      </c>
       <c r="E147" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G147" t="n">
-        <v>8.68</v>
+        <v>29.82</v>
       </c>
       <c r="H147" t="n">
-        <v>90.7</v>
+        <v>99.8</v>
       </c>
       <c r="I147" t="n">
-        <v>89.5</v>
+        <v>99.8</v>
       </c>
       <c r="J147" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K147" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B148" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C148" t="s">
         <v>19</v>
       </c>
       <c r="D148" t="n">
-        <v>58500000000</v>
+        <v>59.7</v>
       </c>
       <c r="E148" t="s">
         <v>127</v>
       </c>
       <c r="F148" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G148" t="n">
-        <v>29.98</v>
+        <v>1.03</v>
       </c>
       <c r="H148" t="n">
-        <v>99.9</v>
+        <v>72.3</v>
       </c>
       <c r="I148" t="n">
-        <v>99.8</v>
+        <v>17.5</v>
       </c>
       <c r="J148" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K148" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
       </c>
-      <c r="D149" t="n">
-        <v>37550000000</v>
-      </c>
+      <c r="D149"/>
       <c r="E149" t="s">
         <v>127</v>
       </c>
       <c r="F149" t="s">
+        <v>297</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I149" t="n">
+        <v>26</v>
+      </c>
+      <c r="J149" t="s">
+        <v>298</v>
+      </c>
+      <c r="K149" t="s">
         <v>299</v>
-      </c>
-      <c r="G149" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="H149" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I149" t="n">
-        <v>99.6</v>
-      </c>
-      <c r="J149" t="s">
-        <v>300</v>
-      </c>
-      <c r="K149" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B150" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D150"/>
       <c r="E150" t="s">
         <v>127</v>
       </c>
       <c r="F150" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G150" t="n">
-        <v>22.33</v>
+        <v>1.02</v>
       </c>
       <c r="H150" t="n">
-        <v>99.8</v>
+        <v>40.8</v>
       </c>
       <c r="I150" t="n">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="J150" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K150" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D151"/>
       <c r="E151" t="s">
         <v>127</v>
       </c>
       <c r="F151" t="s">
+        <v>297</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H151" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="I151" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="J151" t="s">
+        <v>298</v>
+      </c>
+      <c r="K151" t="s">
         <v>299</v>
-      </c>
-      <c r="G151" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="H151" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I151" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J151" t="s">
-        <v>300</v>
-      </c>
-      <c r="K151" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C152" t="s">
         <v>19</v>
       </c>
-      <c r="D152" t="n">
-        <v>17000</v>
-      </c>
+      <c r="D152"/>
       <c r="E152" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G152" t="n">
-        <v>21.42</v>
+        <v>5.92</v>
       </c>
       <c r="H152" t="n">
-        <v>99.4</v>
+        <v>84.5</v>
       </c>
       <c r="I152" t="n">
-        <v>98.2</v>
+        <v>82</v>
       </c>
       <c r="J152" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="K152" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C153" t="s">
         <v>19</v>
       </c>
       <c r="D153" t="n">
-        <v>85000</v>
+        <v>16300</v>
       </c>
       <c r="E153" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="G153" t="n">
-        <v>22.33</v>
+        <v>29.83</v>
       </c>
       <c r="H153" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I153" t="n">
-        <v>98.6</v>
+        <v>99.8</v>
       </c>
       <c r="J153" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="K153" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
       </c>
       <c r="D154" t="n">
-        <v>1530000</v>
+        <v>14500</v>
       </c>
       <c r="E154" t="s">
         <v>127</v>
       </c>
       <c r="F154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
-        <v>29.75</v>
+        <v>29.41</v>
       </c>
       <c r="H154" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I154" t="n">
         <v>99.8</v>
       </c>
       <c r="J154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K154" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
         <v>19</v>
       </c>
       <c r="D155" t="n">
-        <v>7650000</v>
+        <v>1530000</v>
       </c>
       <c r="E155" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
       <c r="G155" t="n">
-        <v>29.84</v>
+        <v>25.63</v>
       </c>
       <c r="H155" t="n">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="I155" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="J155" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="K155" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s">
         <v>19</v>
       </c>
       <c r="D156" t="n">
-        <v>143500</v>
+        <v>14300</v>
       </c>
       <c r="E156" t="s">
         <v>127</v>
       </c>
       <c r="F156" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="G156" t="n">
-        <v>22.25</v>
+        <v>12.5</v>
       </c>
       <c r="H156" t="n">
-        <v>99.3</v>
+        <v>99.1</v>
       </c>
       <c r="I156" t="n">
-        <v>98.5</v>
+        <v>97.7</v>
       </c>
       <c r="J156" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="K156" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B157" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
       </c>
-      <c r="D157" t="n">
-        <v>5750000</v>
-      </c>
+      <c r="D157"/>
       <c r="E157" t="s">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="F157" t="s">
-        <v>299</v>
-      </c>
-      <c r="G157" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="H157" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I157" t="n">
-        <v>99.8</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
       <c r="J157" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="K157" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D158"/>
       <c r="E158" t="s">
         <v>127</v>
       </c>
       <c r="F158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G158" t="n">
-        <v>3.7</v>
+        <v>4.35</v>
       </c>
       <c r="H158" t="n">
-        <v>89.8</v>
+        <v>76.4</v>
       </c>
       <c r="I158" t="n">
-        <v>72.9</v>
+        <v>44.6</v>
       </c>
       <c r="J158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K158" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C159" t="s">
         <v>19</v>
       </c>
       <c r="D159"/>
       <c r="E159" t="s">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="F159" t="s">
-        <v>299</v>
-      </c>
-      <c r="G159" t="n">
-        <v>29.84</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G159"/>
       <c r="H159" t="n">
-        <v>99.8</v>
+        <v>4.4</v>
       </c>
       <c r="I159" t="n">
-        <v>99.5</v>
+        <v>1.1</v>
       </c>
       <c r="J159" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="K159" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" t="n">
-        <v>166000</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D160"/>
       <c r="E160" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F160" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="G160" t="n">
-        <v>29.82</v>
+        <v>29.8</v>
       </c>
       <c r="H160" t="n">
         <v>99.8</v>
@@ -7196,352 +6974,348 @@
         <v>99.8</v>
       </c>
       <c r="J160" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="K160" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" t="n">
-        <v>59.7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D161"/>
       <c r="E161" t="s">
         <v>127</v>
       </c>
       <c r="F161" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="G161" t="n">
-        <v>1.03</v>
+        <v>24.18</v>
       </c>
       <c r="H161" t="n">
-        <v>72.3</v>
+        <v>99.8</v>
       </c>
       <c r="I161" t="n">
-        <v>17.5</v>
+        <v>99.8</v>
       </c>
       <c r="J161" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="K161" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C162" t="s">
         <v>19</v>
       </c>
-      <c r="D162"/>
+      <c r="D162" t="n">
+        <v>11750</v>
+      </c>
       <c r="E162" t="s">
         <v>127</v>
       </c>
       <c r="F162" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>27.24</v>
       </c>
       <c r="H162" t="n">
-        <v>31.5</v>
+        <v>99.8</v>
       </c>
       <c r="I162" t="n">
-        <v>26</v>
+        <v>99.8</v>
       </c>
       <c r="J162" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="K162" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C163" t="s">
         <v>19</v>
       </c>
-      <c r="D163"/>
+      <c r="D163" t="n">
+        <v>11750</v>
+      </c>
       <c r="E163" t="s">
         <v>127</v>
       </c>
       <c r="F163" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="G163" t="n">
-        <v>1.02</v>
+        <v>29.8</v>
       </c>
       <c r="H163" t="n">
-        <v>40.8</v>
+        <v>99.8</v>
       </c>
       <c r="I163" t="n">
-        <v>35</v>
+        <v>99.8</v>
       </c>
       <c r="J163" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="K163" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C164" t="s">
         <v>19</v>
       </c>
-      <c r="D164"/>
+      <c r="D164" t="n">
+        <v>27900</v>
+      </c>
       <c r="E164" t="s">
         <v>127</v>
       </c>
       <c r="F164" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="G164" t="n">
-        <v>0.93</v>
+        <v>29.86</v>
       </c>
       <c r="H164" t="n">
-        <v>38.4</v>
+        <v>99.8</v>
       </c>
       <c r="I164" t="n">
-        <v>35.6</v>
+        <v>99.8</v>
       </c>
       <c r="J164" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="K164" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C165" t="s">
         <v>19</v>
       </c>
-      <c r="D165"/>
+      <c r="D165" t="n">
+        <v>27900</v>
+      </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F165" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G165" t="n">
-        <v>5.92</v>
+        <v>29.91</v>
       </c>
       <c r="H165" t="n">
-        <v>84.5</v>
+        <v>99.8</v>
       </c>
       <c r="I165" t="n">
-        <v>82</v>
+        <v>99.8</v>
       </c>
       <c r="J165" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="K165" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C166" t="s">
         <v>19</v>
       </c>
-      <c r="D166" t="n">
-        <v>16300</v>
-      </c>
+      <c r="D166"/>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="G166" t="n">
-        <v>29.83</v>
+        <v>1.53</v>
       </c>
       <c r="H166" t="n">
-        <v>99.8</v>
+        <v>47.9</v>
       </c>
       <c r="I166" t="n">
-        <v>99.8</v>
+        <v>8.4</v>
       </c>
       <c r="J166" t="s">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="K166" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" t="n">
-        <v>14500</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D167"/>
       <c r="E167" t="s">
         <v>127</v>
       </c>
       <c r="F167" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="G167" t="n">
-        <v>29.41</v>
+        <v>7.46</v>
       </c>
       <c r="H167" t="n">
-        <v>99.8</v>
+        <v>98</v>
       </c>
       <c r="I167" t="n">
-        <v>99.8</v>
+        <v>89.8</v>
       </c>
       <c r="J167" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="K167" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C168" t="s">
         <v>19</v>
       </c>
-      <c r="D168" t="n">
-        <v>1530000</v>
-      </c>
+      <c r="D168"/>
       <c r="E168" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F168" t="s">
-        <v>123</v>
-      </c>
-      <c r="G168" t="n">
-        <v>25.63</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G168"/>
       <c r="H168" t="n">
-        <v>99.7</v>
+        <v>3.3</v>
       </c>
       <c r="I168" t="n">
-        <v>98.7</v>
+        <v>1.3</v>
       </c>
       <c r="J168" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="K168" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C169" t="s">
         <v>19</v>
       </c>
-      <c r="D169" t="n">
-        <v>14300</v>
-      </c>
+      <c r="D169"/>
       <c r="E169" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F169" t="s">
-        <v>123</v>
-      </c>
-      <c r="G169" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H169" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>97.7</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
       <c r="J169" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="K169" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B170" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="C170" t="s">
         <v>19</v>
       </c>
       <c r="D170"/>
       <c r="E170" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
       <c r="F170" t="s">
-        <v>343</v>
-      </c>
-      <c r="G170"/>
-      <c r="H170"/>
-      <c r="I170"/>
+        <v>354</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="H170" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="I170" t="n">
+        <v>89.9</v>
+      </c>
       <c r="J170" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="K170" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B171" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C171" t="s">
         <v>19</v>
@@ -7551,247 +7325,239 @@
         <v>127</v>
       </c>
       <c r="F171" t="s">
-        <v>331</v>
-      </c>
-      <c r="G171" t="n">
-        <v>4.35</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G171"/>
       <c r="H171" t="n">
-        <v>76.4</v>
+        <v>3.9</v>
       </c>
       <c r="I171" t="n">
-        <v>44.6</v>
+        <v>1.7</v>
       </c>
       <c r="J171" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="K171" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C172" t="s">
         <v>19</v>
       </c>
-      <c r="D172"/>
+      <c r="D172" t="n">
+        <v>37.55</v>
+      </c>
       <c r="E172" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
       <c r="F172" t="s">
-        <v>351</v>
-      </c>
-      <c r="G172"/>
+        <v>354</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.52</v>
+      </c>
       <c r="H172" t="n">
-        <v>4.4</v>
+        <v>7.5</v>
       </c>
       <c r="I172" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="J172" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K172" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B173" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D173"/>
       <c r="E173" t="s">
         <v>127</v>
       </c>
       <c r="F173" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G173" t="n">
-        <v>29.8</v>
+        <v>8.38</v>
       </c>
       <c r="H173" t="n">
-        <v>99.8</v>
+        <v>88.1</v>
       </c>
       <c r="I173" t="n">
-        <v>99.8</v>
+        <v>83.1</v>
       </c>
       <c r="J173" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K173" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B174" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D174"/>
       <c r="E174" t="s">
         <v>127</v>
       </c>
       <c r="F174" t="s">
-        <v>360</v>
-      </c>
-      <c r="G174" t="n">
-        <v>24.18</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G174"/>
       <c r="H174" t="n">
-        <v>99.8</v>
+        <v>6.9</v>
       </c>
       <c r="I174" t="n">
-        <v>99.8</v>
+        <v>3.6</v>
       </c>
       <c r="J174" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="K174" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="B175" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C175" t="s">
         <v>19</v>
       </c>
-      <c r="D175" t="n">
-        <v>11750</v>
-      </c>
+      <c r="D175"/>
       <c r="E175" t="s">
         <v>127</v>
       </c>
       <c r="F175" t="s">
-        <v>356</v>
-      </c>
-      <c r="G175" t="n">
-        <v>27.24</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G175"/>
       <c r="H175" t="n">
-        <v>99.8</v>
+        <v>5.9</v>
       </c>
       <c r="I175" t="n">
-        <v>99.8</v>
+        <v>3.3</v>
       </c>
       <c r="J175" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="K175" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B176" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C176" t="s">
         <v>19</v>
       </c>
       <c r="D176" t="n">
-        <v>11750</v>
+        <v>313.5</v>
       </c>
       <c r="E176" t="s">
         <v>127</v>
       </c>
       <c r="F176" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="G176" t="n">
-        <v>29.8</v>
+        <v>22.6</v>
       </c>
       <c r="H176" t="n">
-        <v>99.8</v>
+        <v>99.1</v>
       </c>
       <c r="I176" t="n">
-        <v>99.8</v>
+        <v>99.1</v>
       </c>
       <c r="J176" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="K176" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="B177" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C177" t="s">
         <v>19</v>
       </c>
-      <c r="D177" t="n">
-        <v>27900</v>
-      </c>
+      <c r="D177"/>
       <c r="E177" t="s">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="F177" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="G177" t="n">
-        <v>29.86</v>
+        <v>27.21</v>
       </c>
       <c r="H177" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I177" t="n">
         <v>99.8</v>
       </c>
       <c r="J177" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="K177" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="B178" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" t="n">
-        <v>27900</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D178"/>
       <c r="E178" t="s">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="F178" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="G178" t="n">
-        <v>29.91</v>
+        <v>30.02</v>
       </c>
       <c r="H178" t="n">
         <v>99.8</v>
@@ -7800,1086 +7566,262 @@
         <v>99.8</v>
       </c>
       <c r="J178" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="K178" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="B179" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="C179" t="s">
         <v>19</v>
       </c>
       <c r="D179"/>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>387</v>
       </c>
       <c r="G179" t="n">
-        <v>1.53</v>
+        <v>30</v>
       </c>
       <c r="H179" t="n">
-        <v>47.9</v>
+        <v>99.8</v>
       </c>
       <c r="I179" t="n">
-        <v>8.4</v>
+        <v>99.8</v>
       </c>
       <c r="J179" t="s">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="K179" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B180" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D180"/>
       <c r="E180" t="s">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="F180" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="G180" t="n">
-        <v>7.46</v>
+        <v>29.9</v>
       </c>
       <c r="H180" t="n">
-        <v>98</v>
+        <v>99.8</v>
       </c>
       <c r="I180" t="n">
-        <v>89.8</v>
+        <v>99.8</v>
       </c>
       <c r="J180" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="K180" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B181" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C181" t="s">
         <v>19</v>
       </c>
       <c r="D181"/>
       <c r="E181" t="s">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="F181" t="s">
-        <v>376</v>
-      </c>
-      <c r="G181"/>
+        <v>387</v>
+      </c>
+      <c r="G181" t="n">
+        <v>29.82</v>
+      </c>
       <c r="H181" t="n">
-        <v>3.3</v>
+        <v>99.8</v>
       </c>
       <c r="I181" t="n">
-        <v>1.3</v>
+        <v>98.3</v>
       </c>
       <c r="J181" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="K181" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C182" t="s">
         <v>19</v>
       </c>
       <c r="D182"/>
       <c r="E182" t="s">
-        <v>140</v>
+        <v>398</v>
       </c>
       <c r="F182" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="G182"/>
       <c r="H182"/>
       <c r="I182"/>
       <c r="J182" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="K182" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B183" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C183" t="s">
         <v>19</v>
       </c>
       <c r="D183"/>
       <c r="E183" t="s">
-        <v>127</v>
+        <v>401</v>
       </c>
       <c r="F183" t="s">
-        <v>372</v>
-      </c>
-      <c r="G183" t="n">
-        <v>7.46</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G183"/>
       <c r="H183" t="n">
-        <v>97.9</v>
+        <v>0.6</v>
       </c>
       <c r="I183" t="n">
-        <v>89.9</v>
+        <v>0.3</v>
       </c>
       <c r="J183" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="K183" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="B184" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="C184" t="s">
         <v>19</v>
       </c>
       <c r="D184"/>
       <c r="E184" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="F184" t="s">
-        <v>372</v>
-      </c>
-      <c r="G184"/>
+        <v>406</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.27</v>
+      </c>
       <c r="H184" t="n">
-        <v>3.9</v>
+        <v>32.2</v>
       </c>
       <c r="I184" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="J184" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="K184" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B185" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="C185" t="s">
         <v>19</v>
       </c>
-      <c r="D185" t="n">
-        <v>37.55</v>
-      </c>
+      <c r="D185"/>
       <c r="E185" t="s">
-        <v>127</v>
+        <v>411</v>
       </c>
       <c r="F185" t="s">
-        <v>372</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.52</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="G185"/>
       <c r="H185" t="n">
-        <v>7.5</v>
+        <v>0.4</v>
       </c>
       <c r="I185" t="n">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="J185" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="K185" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="B186" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C186" t="s">
         <v>19</v>
       </c>
       <c r="D186"/>
       <c r="E186" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
-      </c>
-      <c r="G186" t="n">
-        <v>8.38</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="G186"/>
       <c r="H186" t="n">
-        <v>88.1</v>
+        <v>0.8</v>
       </c>
       <c r="I186" t="n">
-        <v>83.1</v>
+        <v>0.6</v>
       </c>
       <c r="J186" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="K186" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>389</v>
-      </c>
-      <c r="B187" t="s">
-        <v>390</v>
-      </c>
-      <c r="C187" t="s">
-        <v>19</v>
-      </c>
-      <c r="D187"/>
-      <c r="E187" t="s">
-        <v>127</v>
-      </c>
-      <c r="F187" t="s">
-        <v>391</v>
-      </c>
-      <c r="G187"/>
-      <c r="H187" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J187" t="s">
-        <v>392</v>
-      </c>
-      <c r="K187" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>394</v>
-      </c>
-      <c r="B188" t="s">
-        <v>395</v>
-      </c>
-      <c r="C188" t="s">
-        <v>19</v>
-      </c>
-      <c r="D188"/>
-      <c r="E188" t="s">
-        <v>127</v>
-      </c>
-      <c r="F188" t="s">
-        <v>391</v>
-      </c>
-      <c r="G188"/>
-      <c r="H188" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J188" t="s">
-        <v>392</v>
-      </c>
-      <c r="K188" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>397</v>
-      </c>
-      <c r="B189" t="s">
-        <v>398</v>
-      </c>
-      <c r="C189" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" t="n">
-        <v>313.5</v>
-      </c>
-      <c r="E189" t="s">
-        <v>127</v>
-      </c>
-      <c r="F189" t="s">
-        <v>399</v>
-      </c>
-      <c r="G189" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="H189" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="J189" t="s">
-        <v>400</v>
-      </c>
-      <c r="K189" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>402</v>
-      </c>
-      <c r="B190" t="s">
-        <v>403</v>
-      </c>
-      <c r="C190" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190"/>
-      <c r="E190" t="s">
-        <v>404</v>
-      </c>
-      <c r="F190" t="s">
-        <v>405</v>
-      </c>
-      <c r="G190" t="n">
-        <v>27.21</v>
-      </c>
-      <c r="H190" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I190" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J190" t="s">
-        <v>406</v>
-      </c>
-      <c r="K190" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>408</v>
-      </c>
-      <c r="B191" t="s">
-        <v>409</v>
-      </c>
-      <c r="C191" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191"/>
-      <c r="E191" t="s">
-        <v>410</v>
-      </c>
-      <c r="F191" t="s">
-        <v>351</v>
-      </c>
-      <c r="G191"/>
-      <c r="H191" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I191" t="n">
-        <v>2</v>
-      </c>
-      <c r="J191" t="s">
-        <v>352</v>
-      </c>
-      <c r="K191" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>412</v>
-      </c>
-      <c r="B192" t="s">
-        <v>413</v>
-      </c>
-      <c r="C192" t="s">
-        <v>13</v>
-      </c>
-      <c r="D192"/>
-      <c r="E192" t="s">
-        <v>404</v>
-      </c>
-      <c r="F192" t="s">
-        <v>405</v>
-      </c>
-      <c r="G192" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="H192" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I192" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J192" t="s">
-        <v>406</v>
-      </c>
-      <c r="K192" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>412</v>
-      </c>
-      <c r="B193" t="s">
-        <v>415</v>
-      </c>
-      <c r="C193" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193"/>
-      <c r="E193" t="s">
-        <v>404</v>
-      </c>
-      <c r="F193" t="s">
-        <v>405</v>
-      </c>
-      <c r="G193" t="n">
-        <v>30</v>
-      </c>
-      <c r="H193" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I193" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J193" t="s">
-        <v>406</v>
-      </c>
-      <c r="K193" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>412</v>
-      </c>
-      <c r="B194" t="s">
-        <v>416</v>
-      </c>
-      <c r="C194" t="s">
-        <v>19</v>
-      </c>
-      <c r="D194"/>
-      <c r="E194" t="s">
-        <v>404</v>
-      </c>
-      <c r="F194" t="s">
-        <v>405</v>
-      </c>
-      <c r="G194" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="H194" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I194" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J194" t="s">
-        <v>406</v>
-      </c>
-      <c r="K194" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>412</v>
-      </c>
-      <c r="B195" t="s">
-        <v>417</v>
-      </c>
-      <c r="C195" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195"/>
-      <c r="E195" t="s">
-        <v>404</v>
-      </c>
-      <c r="F195" t="s">
-        <v>405</v>
-      </c>
-      <c r="G195" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="H195" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I195" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J195" t="s">
-        <v>406</v>
-      </c>
-      <c r="K195" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>418</v>
-      </c>
-      <c r="B196" t="s">
-        <v>419</v>
-      </c>
-      <c r="C196" t="s">
-        <v>19</v>
-      </c>
-      <c r="D196"/>
-      <c r="E196" t="s">
-        <v>410</v>
-      </c>
-      <c r="F196" t="s">
-        <v>420</v>
-      </c>
-      <c r="G196"/>
-      <c r="H196" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J196" t="s">
-        <v>421</v>
-      </c>
-      <c r="K196" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>423</v>
-      </c>
-      <c r="B197" t="s">
-        <v>424</v>
-      </c>
-      <c r="C197" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197"/>
-      <c r="E197" t="s">
-        <v>410</v>
-      </c>
-      <c r="F197" t="s">
-        <v>425</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H197" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I197" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J197" t="s">
-        <v>426</v>
-      </c>
-      <c r="K197" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>428</v>
-      </c>
-      <c r="B198" t="s">
-        <v>429</v>
-      </c>
-      <c r="C198" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198"/>
-      <c r="E198" t="s">
-        <v>410</v>
-      </c>
-      <c r="F198" t="s">
-        <v>430</v>
-      </c>
-      <c r="G198"/>
-      <c r="H198" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J198" t="s">
-        <v>431</v>
-      </c>
-      <c r="K198" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>433</v>
-      </c>
-      <c r="B199" t="s">
-        <v>434</v>
-      </c>
-      <c r="C199" t="s">
-        <v>19</v>
-      </c>
-      <c r="D199"/>
-      <c r="E199" t="s">
-        <v>435</v>
-      </c>
-      <c r="F199" t="s">
-        <v>290</v>
-      </c>
-      <c r="G199"/>
-      <c r="H199" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J199" t="s">
-        <v>291</v>
-      </c>
-      <c r="K199" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>433</v>
-      </c>
-      <c r="B200" t="s">
-        <v>437</v>
-      </c>
-      <c r="C200" t="s">
-        <v>19</v>
-      </c>
-      <c r="D200"/>
-      <c r="E200" t="s">
-        <v>438</v>
-      </c>
-      <c r="F200" t="s">
-        <v>290</v>
-      </c>
-      <c r="G200"/>
-      <c r="H200"/>
-      <c r="I200"/>
-      <c r="J200" t="s">
-        <v>291</v>
-      </c>
-      <c r="K200" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>433</v>
-      </c>
-      <c r="B201" t="s">
-        <v>440</v>
-      </c>
-      <c r="C201" t="s">
-        <v>19</v>
-      </c>
-      <c r="D201"/>
-      <c r="E201" t="s">
-        <v>441</v>
-      </c>
-      <c r="F201" t="s">
-        <v>290</v>
-      </c>
-      <c r="G201"/>
-      <c r="H201" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J201" t="s">
-        <v>291</v>
-      </c>
-      <c r="K201" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>433</v>
-      </c>
-      <c r="B202" t="s">
-        <v>443</v>
-      </c>
-      <c r="C202" t="s">
-        <v>19</v>
-      </c>
-      <c r="D202"/>
-      <c r="E202" t="s">
-        <v>444</v>
-      </c>
-      <c r="F202" t="s">
-        <v>290</v>
-      </c>
-      <c r="G202"/>
-      <c r="H202" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J202" t="s">
-        <v>291</v>
-      </c>
-      <c r="K202" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>446</v>
-      </c>
-      <c r="B203" t="s">
-        <v>447</v>
-      </c>
-      <c r="C203" t="s">
-        <v>19</v>
-      </c>
-      <c r="D203"/>
-      <c r="E203" t="s">
-        <v>448</v>
-      </c>
-      <c r="F203" t="s">
-        <v>449</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="H203" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J203" t="s">
-        <v>450</v>
-      </c>
-      <c r="K203" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>452</v>
-      </c>
-      <c r="B204" t="s">
-        <v>453</v>
-      </c>
-      <c r="C204" t="s">
-        <v>19</v>
-      </c>
-      <c r="D204"/>
-      <c r="E204" t="s">
-        <v>410</v>
-      </c>
-      <c r="F204" t="s">
-        <v>454</v>
-      </c>
-      <c r="G204"/>
-      <c r="H204" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J204" t="s">
-        <v>455</v>
-      </c>
-      <c r="K204" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>457</v>
-      </c>
-      <c r="B205" t="s">
-        <v>458</v>
-      </c>
-      <c r="C205" t="s">
-        <v>19</v>
-      </c>
-      <c r="D205"/>
-      <c r="E205" t="s">
-        <v>459</v>
-      </c>
-      <c r="F205" t="s">
-        <v>315</v>
-      </c>
-      <c r="G205"/>
-      <c r="H205" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J205" t="s">
-        <v>316</v>
-      </c>
-      <c r="K205" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>457</v>
-      </c>
-      <c r="B206" t="s">
-        <v>461</v>
-      </c>
-      <c r="C206" t="s">
-        <v>19</v>
-      </c>
-      <c r="D206"/>
-      <c r="E206" t="s">
-        <v>448</v>
-      </c>
-      <c r="F206" t="s">
-        <v>315</v>
-      </c>
-      <c r="G206"/>
-      <c r="H206" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J206" t="s">
-        <v>316</v>
-      </c>
-      <c r="K206" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>457</v>
-      </c>
-      <c r="B207" t="s">
-        <v>463</v>
-      </c>
-      <c r="C207" t="s">
-        <v>19</v>
-      </c>
-      <c r="D207"/>
-      <c r="E207" t="s">
-        <v>464</v>
-      </c>
-      <c r="F207" t="s">
-        <v>315</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H207" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="J207" t="s">
-        <v>316</v>
-      </c>
-      <c r="K207" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>457</v>
-      </c>
-      <c r="B208" t="s">
-        <v>466</v>
-      </c>
-      <c r="C208" t="s">
-        <v>19</v>
-      </c>
-      <c r="D208"/>
-      <c r="E208" t="s">
-        <v>467</v>
-      </c>
-      <c r="F208" t="s">
-        <v>315</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H208" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="I208" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J208" t="s">
-        <v>316</v>
-      </c>
-      <c r="K208" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>469</v>
-      </c>
-      <c r="B209" t="s">
-        <v>470</v>
-      </c>
-      <c r="C209" t="s">
-        <v>19</v>
-      </c>
-      <c r="D209"/>
-      <c r="E209" t="s">
-        <v>410</v>
-      </c>
-      <c r="F209" t="s">
-        <v>471</v>
-      </c>
-      <c r="G209"/>
-      <c r="H209" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J209" t="s">
-        <v>472</v>
-      </c>
-      <c r="K209" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>474</v>
-      </c>
-      <c r="B210" t="s">
-        <v>475</v>
-      </c>
-      <c r="C210" t="s">
-        <v>19</v>
-      </c>
-      <c r="D210"/>
-      <c r="E210" t="s">
-        <v>410</v>
-      </c>
-      <c r="F210" t="s">
-        <v>372</v>
-      </c>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210" t="s">
-        <v>373</v>
-      </c>
-      <c r="K210" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>477</v>
-      </c>
-      <c r="B211" t="s">
-        <v>478</v>
-      </c>
-      <c r="C211" t="s">
-        <v>19</v>
-      </c>
-      <c r="D211"/>
-      <c r="E211" t="s">
-        <v>410</v>
-      </c>
-      <c r="F211" t="s">
-        <v>479</v>
-      </c>
-      <c r="G211"/>
-      <c r="H211" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J211" t="s">
-        <v>480</v>
-      </c>
-      <c r="K211" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>482</v>
-      </c>
-      <c r="B212" t="s">
-        <v>483</v>
-      </c>
-      <c r="C212" t="s">
-        <v>19</v>
-      </c>
-      <c r="D212"/>
-      <c r="E212" t="s">
-        <v>410</v>
-      </c>
-      <c r="F212" t="s">
-        <v>484</v>
-      </c>
-      <c r="G212"/>
-      <c r="H212" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J212" t="s">
-        <v>485</v>
-      </c>
-      <c r="K212" t="s">
-        <v>486</v>
       </c>
     </row>
   </sheetData>
